--- a/BackTest/2020-01-15 BackTest OGO.xlsx
+++ b/BackTest/2020-01-15 BackTest OGO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M266"/>
+  <dimension ref="A1:M267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10.72</v>
+        <v>10.74</v>
       </c>
       <c r="C2" t="n">
-        <v>10.72</v>
+        <v>10.61</v>
       </c>
       <c r="D2" t="n">
-        <v>10.72</v>
+        <v>10.74</v>
       </c>
       <c r="E2" t="n">
-        <v>10.72</v>
+        <v>10.61</v>
       </c>
       <c r="F2" t="n">
-        <v>437.9238</v>
+        <v>57989.8906</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92233333333334</v>
+        <v>10.92533333333334</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10.68</v>
+        <v>10.72</v>
       </c>
       <c r="C3" t="n">
-        <v>10.68</v>
+        <v>10.72</v>
       </c>
       <c r="D3" t="n">
-        <v>10.68</v>
+        <v>10.72</v>
       </c>
       <c r="E3" t="n">
-        <v>10.68</v>
+        <v>10.72</v>
       </c>
       <c r="F3" t="n">
-        <v>1762.336</v>
+        <v>437.9238</v>
       </c>
       <c r="G3" t="n">
-        <v>10.92016666666667</v>
+        <v>10.92233333333334</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10.66</v>
+        <v>10.68</v>
       </c>
       <c r="C4" t="n">
-        <v>10.66</v>
+        <v>10.68</v>
       </c>
       <c r="D4" t="n">
-        <v>10.66</v>
+        <v>10.68</v>
       </c>
       <c r="E4" t="n">
-        <v>10.66</v>
+        <v>10.68</v>
       </c>
       <c r="F4" t="n">
-        <v>65</v>
+        <v>1762.336</v>
       </c>
       <c r="G4" t="n">
-        <v>10.91766666666667</v>
+        <v>10.92016666666667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>10.66</v>
       </c>
       <c r="F5" t="n">
-        <v>18014</v>
+        <v>65</v>
       </c>
       <c r="G5" t="n">
-        <v>10.91533333333334</v>
+        <v>10.91766666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -576,19 +576,19 @@
         <v>10.66</v>
       </c>
       <c r="C6" t="n">
-        <v>10.72</v>
+        <v>10.66</v>
       </c>
       <c r="D6" t="n">
-        <v>10.72</v>
+        <v>10.66</v>
       </c>
       <c r="E6" t="n">
         <v>10.66</v>
       </c>
       <c r="F6" t="n">
-        <v>1766.1985</v>
+        <v>18014</v>
       </c>
       <c r="G6" t="n">
-        <v>10.90483333333334</v>
+        <v>10.91533333333334</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10.67</v>
+        <v>10.66</v>
       </c>
       <c r="C7" t="n">
-        <v>10.67</v>
+        <v>10.72</v>
       </c>
       <c r="D7" t="n">
-        <v>10.67</v>
+        <v>10.72</v>
       </c>
       <c r="E7" t="n">
-        <v>10.67</v>
+        <v>10.66</v>
       </c>
       <c r="F7" t="n">
-        <v>3565.7346</v>
+        <v>1766.1985</v>
       </c>
       <c r="G7" t="n">
-        <v>10.89783333333334</v>
+        <v>10.90483333333334</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -646,19 +646,19 @@
         <v>10.67</v>
       </c>
       <c r="C8" t="n">
-        <v>10.66</v>
+        <v>10.67</v>
       </c>
       <c r="D8" t="n">
         <v>10.67</v>
       </c>
       <c r="E8" t="n">
-        <v>10.66</v>
+        <v>10.67</v>
       </c>
       <c r="F8" t="n">
-        <v>99845.2488</v>
+        <v>3565.7346</v>
       </c>
       <c r="G8" t="n">
-        <v>10.89216666666667</v>
+        <v>10.89783333333334</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>10.72</v>
+        <v>10.67</v>
       </c>
       <c r="C9" t="n">
-        <v>10.8</v>
+        <v>10.66</v>
       </c>
       <c r="D9" t="n">
-        <v>11.3</v>
+        <v>10.67</v>
       </c>
       <c r="E9" t="n">
-        <v>10.72</v>
+        <v>10.66</v>
       </c>
       <c r="F9" t="n">
-        <v>172737.9862083186</v>
+        <v>99845.2488</v>
       </c>
       <c r="G9" t="n">
-        <v>10.88733333333334</v>
+        <v>10.89216666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>10.79</v>
+        <v>10.72</v>
       </c>
       <c r="C10" t="n">
-        <v>10.71</v>
+        <v>10.8</v>
       </c>
       <c r="D10" t="n">
-        <v>10.91</v>
+        <v>11.3</v>
       </c>
       <c r="E10" t="n">
-        <v>10.71</v>
+        <v>10.72</v>
       </c>
       <c r="F10" t="n">
-        <v>118419.2795</v>
+        <v>172737.9862083186</v>
       </c>
       <c r="G10" t="n">
-        <v>10.88650000000001</v>
+        <v>10.88733333333334</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>10.8</v>
+        <v>10.79</v>
       </c>
       <c r="C11" t="n">
-        <v>10.8</v>
+        <v>10.71</v>
       </c>
       <c r="D11" t="n">
-        <v>10.8</v>
+        <v>10.91</v>
       </c>
       <c r="E11" t="n">
-        <v>10.8</v>
+        <v>10.71</v>
       </c>
       <c r="F11" t="n">
-        <v>1000</v>
+        <v>118419.2795</v>
       </c>
       <c r="G11" t="n">
-        <v>10.88283333333334</v>
+        <v>10.88650000000001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>10.71</v>
+        <v>10.8</v>
       </c>
       <c r="C12" t="n">
         <v>10.8</v>
@@ -792,13 +792,13 @@
         <v>10.8</v>
       </c>
       <c r="E12" t="n">
-        <v>10.71</v>
+        <v>10.8</v>
       </c>
       <c r="F12" t="n">
-        <v>46756.2546</v>
+        <v>1000</v>
       </c>
       <c r="G12" t="n">
-        <v>10.87916666666667</v>
+        <v>10.88283333333334</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>10.7</v>
+        <v>10.71</v>
       </c>
       <c r="C13" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="D13" t="n">
-        <v>10.75</v>
+        <v>10.8</v>
       </c>
       <c r="E13" t="n">
-        <v>10.7</v>
+        <v>10.71</v>
       </c>
       <c r="F13" t="n">
-        <v>113209.6116</v>
+        <v>46756.2546</v>
       </c>
       <c r="G13" t="n">
-        <v>10.87383333333334</v>
+        <v>10.87916666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="C14" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="D14" t="n">
-        <v>10.8</v>
+        <v>10.75</v>
       </c>
       <c r="E14" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="F14" t="n">
-        <v>13605.232</v>
+        <v>113209.6116</v>
       </c>
       <c r="G14" t="n">
-        <v>10.87016666666667</v>
+        <v>10.87383333333334</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="C15" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="D15" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="E15" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="F15" t="n">
-        <v>18274.1727</v>
+        <v>13605.232</v>
       </c>
       <c r="G15" t="n">
-        <v>10.86366666666667</v>
+        <v>10.87016666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>10.81</v>
+        <v>10.7</v>
       </c>
       <c r="C16" t="n">
-        <v>10.81</v>
+        <v>10.7</v>
       </c>
       <c r="D16" t="n">
-        <v>10.81</v>
+        <v>10.7</v>
       </c>
       <c r="E16" t="n">
-        <v>10.81</v>
+        <v>10.7</v>
       </c>
       <c r="F16" t="n">
-        <v>50</v>
+        <v>18274.1727</v>
       </c>
       <c r="G16" t="n">
-        <v>10.86116666666667</v>
+        <v>10.86366666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>10.89</v>
+        <v>10.81</v>
       </c>
       <c r="C17" t="n">
-        <v>10.89</v>
+        <v>10.81</v>
       </c>
       <c r="D17" t="n">
-        <v>10.89</v>
+        <v>10.81</v>
       </c>
       <c r="E17" t="n">
-        <v>10.89</v>
+        <v>10.81</v>
       </c>
       <c r="F17" t="n">
-        <v>48.9358</v>
+        <v>50</v>
       </c>
       <c r="G17" t="n">
-        <v>10.85783333333334</v>
+        <v>10.86116666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>10.91</v>
+        <v>10.89</v>
       </c>
       <c r="C18" t="n">
-        <v>10.91</v>
+        <v>10.89</v>
       </c>
       <c r="D18" t="n">
-        <v>10.91</v>
+        <v>10.89</v>
       </c>
       <c r="E18" t="n">
-        <v>10.91</v>
+        <v>10.89</v>
       </c>
       <c r="F18" t="n">
-        <v>115.5872</v>
+        <v>48.9358</v>
       </c>
       <c r="G18" t="n">
-        <v>10.85633333333334</v>
+        <v>10.85783333333334</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>10.75</v>
+        <v>10.91</v>
       </c>
       <c r="C19" t="n">
-        <v>10.75</v>
+        <v>10.91</v>
       </c>
       <c r="D19" t="n">
-        <v>10.75</v>
+        <v>10.91</v>
       </c>
       <c r="E19" t="n">
-        <v>10.75</v>
+        <v>10.91</v>
       </c>
       <c r="F19" t="n">
-        <v>5000</v>
+        <v>115.5872</v>
       </c>
       <c r="G19" t="n">
-        <v>10.85383333333334</v>
+        <v>10.85633333333334</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>10.86</v>
+        <v>10.75</v>
       </c>
       <c r="C20" t="n">
         <v>10.75</v>
       </c>
       <c r="D20" t="n">
-        <v>10.86</v>
+        <v>10.75</v>
       </c>
       <c r="E20" t="n">
         <v>10.75</v>
       </c>
       <c r="F20" t="n">
-        <v>10530.4004</v>
+        <v>5000</v>
       </c>
       <c r="G20" t="n">
-        <v>10.84966666666667</v>
+        <v>10.85383333333334</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>10.7</v>
+        <v>10.86</v>
       </c>
       <c r="C21" t="n">
-        <v>10.69</v>
+        <v>10.75</v>
       </c>
       <c r="D21" t="n">
-        <v>10.7</v>
+        <v>10.86</v>
       </c>
       <c r="E21" t="n">
-        <v>10.69</v>
+        <v>10.75</v>
       </c>
       <c r="F21" t="n">
-        <v>122435.1325</v>
+        <v>10530.4004</v>
       </c>
       <c r="G21" t="n">
-        <v>10.846</v>
+        <v>10.84966666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="C22" t="n">
         <v>10.69</v>
       </c>
-      <c r="C22" t="n">
-        <v>10.61</v>
-      </c>
       <c r="D22" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="E22" t="n">
         <v>10.69</v>
       </c>
-      <c r="E22" t="n">
-        <v>10.61</v>
-      </c>
       <c r="F22" t="n">
-        <v>135046.3372</v>
+        <v>122435.1325</v>
       </c>
       <c r="G22" t="n">
-        <v>10.838</v>
+        <v>10.846</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>10.61</v>
+        <v>10.69</v>
       </c>
       <c r="C23" t="n">
         <v>10.61</v>
       </c>
       <c r="D23" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="E23" t="n">
         <v>10.61</v>
       </c>
-      <c r="E23" t="n">
-        <v>10.6</v>
-      </c>
       <c r="F23" t="n">
-        <v>73518.8414</v>
+        <v>135046.3372</v>
       </c>
       <c r="G23" t="n">
-        <v>10.83316666666667</v>
+        <v>10.838</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1212,13 +1212,13 @@
         <v>10.61</v>
       </c>
       <c r="E24" t="n">
-        <v>10.61</v>
+        <v>10.6</v>
       </c>
       <c r="F24" t="n">
-        <v>48000</v>
+        <v>73518.8414</v>
       </c>
       <c r="G24" t="n">
-        <v>10.82083333333334</v>
+        <v>10.83316666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>10.61</v>
       </c>
       <c r="C25" t="n">
-        <v>10.56</v>
+        <v>10.61</v>
       </c>
       <c r="D25" t="n">
         <v>10.61</v>
       </c>
       <c r="E25" t="n">
-        <v>10.56</v>
+        <v>10.61</v>
       </c>
       <c r="F25" t="n">
-        <v>29044</v>
+        <v>48000</v>
       </c>
       <c r="G25" t="n">
-        <v>10.8135</v>
+        <v>10.82083333333334</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1282,13 +1282,13 @@
         <v>10.61</v>
       </c>
       <c r="E26" t="n">
-        <v>10.55</v>
+        <v>10.56</v>
       </c>
       <c r="F26" t="n">
-        <v>32980</v>
+        <v>29044</v>
       </c>
       <c r="G26" t="n">
-        <v>10.80616666666667</v>
+        <v>10.8135</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>10.61</v>
       </c>
       <c r="C27" t="n">
-        <v>10.55</v>
+        <v>10.56</v>
       </c>
       <c r="D27" t="n">
         <v>10.61</v>
@@ -1320,10 +1320,10 @@
         <v>10.55</v>
       </c>
       <c r="F27" t="n">
-        <v>990</v>
+        <v>32980</v>
       </c>
       <c r="G27" t="n">
-        <v>10.79866666666667</v>
+        <v>10.80616666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
+        <v>10.61</v>
+      </c>
+      <c r="C28" t="n">
         <v>10.55</v>
       </c>
-      <c r="C28" t="n">
-        <v>10.75</v>
-      </c>
       <c r="D28" t="n">
-        <v>10.75</v>
+        <v>10.61</v>
       </c>
       <c r="E28" t="n">
         <v>10.55</v>
       </c>
       <c r="F28" t="n">
-        <v>494979.6611</v>
+        <v>990</v>
       </c>
       <c r="G28" t="n">
-        <v>10.796</v>
+        <v>10.79866666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1381,19 +1381,19 @@
         <v>10.55</v>
       </c>
       <c r="C29" t="n">
-        <v>10.7</v>
+        <v>10.75</v>
       </c>
       <c r="D29" t="n">
-        <v>10.72</v>
+        <v>10.75</v>
       </c>
       <c r="E29" t="n">
         <v>10.55</v>
       </c>
       <c r="F29" t="n">
-        <v>4249.2241</v>
+        <v>494979.6611</v>
       </c>
       <c r="G29" t="n">
-        <v>10.79316666666667</v>
+        <v>10.796</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>10.7</v>
+        <v>10.55</v>
       </c>
       <c r="C30" t="n">
         <v>10.7</v>
       </c>
       <c r="D30" t="n">
-        <v>10.7</v>
+        <v>10.72</v>
       </c>
       <c r="E30" t="n">
-        <v>10.7</v>
+        <v>10.55</v>
       </c>
       <c r="F30" t="n">
-        <v>339</v>
+        <v>4249.2241</v>
       </c>
       <c r="G30" t="n">
-        <v>10.789</v>
+        <v>10.79316666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>10.69</v>
+        <v>10.7</v>
       </c>
       <c r="C31" t="n">
-        <v>10.68</v>
+        <v>10.7</v>
       </c>
       <c r="D31" t="n">
         <v>10.7</v>
       </c>
       <c r="E31" t="n">
-        <v>10.68</v>
+        <v>10.7</v>
       </c>
       <c r="F31" t="n">
-        <v>200</v>
+        <v>339</v>
       </c>
       <c r="G31" t="n">
-        <v>10.78433333333333</v>
+        <v>10.789</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>10.7</v>
+        <v>10.69</v>
       </c>
       <c r="C32" t="n">
-        <v>10.7</v>
+        <v>10.68</v>
       </c>
       <c r="D32" t="n">
         <v>10.7</v>
       </c>
       <c r="E32" t="n">
-        <v>10.7</v>
+        <v>10.68</v>
       </c>
       <c r="F32" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G32" t="n">
-        <v>10.781</v>
+        <v>10.78433333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,7 +1518,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>10.69</v>
+        <v>10.7</v>
       </c>
       <c r="C33" t="n">
         <v>10.7</v>
@@ -1527,13 +1527,13 @@
         <v>10.7</v>
       </c>
       <c r="E33" t="n">
-        <v>10.68</v>
+        <v>10.7</v>
       </c>
       <c r="F33" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="G33" t="n">
-        <v>10.77433333333334</v>
+        <v>10.781</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>10.71</v>
+        <v>10.69</v>
       </c>
       <c r="C34" t="n">
-        <v>10.71</v>
+        <v>10.7</v>
       </c>
       <c r="D34" t="n">
-        <v>10.71</v>
+        <v>10.7</v>
       </c>
       <c r="E34" t="n">
-        <v>10.71</v>
+        <v>10.68</v>
       </c>
       <c r="F34" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="G34" t="n">
-        <v>10.76783333333334</v>
+        <v>10.77433333333334</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>10.67</v>
+        <v>10.71</v>
       </c>
       <c r="C35" t="n">
-        <v>10.61</v>
+        <v>10.71</v>
       </c>
       <c r="D35" t="n">
-        <v>10.67</v>
+        <v>10.71</v>
       </c>
       <c r="E35" t="n">
-        <v>10.61</v>
+        <v>10.71</v>
       </c>
       <c r="F35" t="n">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="G35" t="n">
-        <v>10.763</v>
+        <v>10.76783333333334</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>10.6</v>
+        <v>10.67</v>
       </c>
       <c r="C36" t="n">
-        <v>10.58</v>
+        <v>10.61</v>
       </c>
       <c r="D36" t="n">
-        <v>10.6</v>
+        <v>10.67</v>
       </c>
       <c r="E36" t="n">
-        <v>10.58</v>
+        <v>10.61</v>
       </c>
       <c r="F36" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="G36" t="n">
-        <v>10.7545</v>
+        <v>10.763</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>10.57</v>
+        <v>10.6</v>
       </c>
       <c r="C37" t="n">
-        <v>10.64</v>
+        <v>10.58</v>
       </c>
       <c r="D37" t="n">
-        <v>10.64</v>
+        <v>10.6</v>
       </c>
       <c r="E37" t="n">
-        <v>10.56</v>
+        <v>10.58</v>
       </c>
       <c r="F37" t="n">
-        <v>546.3531</v>
+        <v>150</v>
       </c>
       <c r="G37" t="n">
-        <v>10.747</v>
+        <v>10.7545</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>10.63</v>
+        <v>10.57</v>
       </c>
       <c r="C38" t="n">
-        <v>10.63</v>
+        <v>10.64</v>
       </c>
       <c r="D38" t="n">
-        <v>10.63</v>
+        <v>10.64</v>
       </c>
       <c r="E38" t="n">
-        <v>10.51</v>
+        <v>10.56</v>
       </c>
       <c r="F38" t="n">
-        <v>738621.7894867357</v>
+        <v>546.3531</v>
       </c>
       <c r="G38" t="n">
-        <v>10.74316666666667</v>
+        <v>10.747</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>10.63</v>
       </c>
       <c r="C39" t="n">
-        <v>10.52</v>
+        <v>10.63</v>
       </c>
       <c r="D39" t="n">
         <v>10.63</v>
@@ -1740,10 +1740,10 @@
         <v>10.51</v>
       </c>
       <c r="F39" t="n">
-        <v>3296</v>
+        <v>738621.7894867357</v>
       </c>
       <c r="G39" t="n">
-        <v>10.73733333333334</v>
+        <v>10.74316666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>10.59</v>
+        <v>10.63</v>
       </c>
       <c r="C40" t="n">
-        <v>10.58</v>
+        <v>10.52</v>
       </c>
       <c r="D40" t="n">
-        <v>10.66</v>
+        <v>10.63</v>
       </c>
       <c r="E40" t="n">
-        <v>10.58</v>
+        <v>10.51</v>
       </c>
       <c r="F40" t="n">
-        <v>14768</v>
+        <v>3296</v>
       </c>
       <c r="G40" t="n">
-        <v>10.72916666666667</v>
+        <v>10.73733333333334</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,7 +1798,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>10.66</v>
+        <v>10.59</v>
       </c>
       <c r="C41" t="n">
         <v>10.58</v>
@@ -1810,10 +1810,10 @@
         <v>10.58</v>
       </c>
       <c r="F41" t="n">
-        <v>170</v>
+        <v>14768</v>
       </c>
       <c r="G41" t="n">
-        <v>10.72683333333334</v>
+        <v>10.72916666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1836,19 +1836,19 @@
         <v>10.66</v>
       </c>
       <c r="C42" t="n">
-        <v>10.66</v>
+        <v>10.58</v>
       </c>
       <c r="D42" t="n">
         <v>10.66</v>
       </c>
       <c r="E42" t="n">
-        <v>10.66</v>
+        <v>10.58</v>
       </c>
       <c r="F42" t="n">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="G42" t="n">
-        <v>10.72133333333334</v>
+        <v>10.72683333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,7 +1868,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>10.58</v>
+        <v>10.66</v>
       </c>
       <c r="C43" t="n">
         <v>10.66</v>
@@ -1877,13 +1877,13 @@
         <v>10.66</v>
       </c>
       <c r="E43" t="n">
-        <v>10.55</v>
+        <v>10.66</v>
       </c>
       <c r="F43" t="n">
-        <v>9194.18</v>
+        <v>50</v>
       </c>
       <c r="G43" t="n">
-        <v>10.719</v>
+        <v>10.72133333333334</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
+        <v>10.58</v>
+      </c>
+      <c r="C44" t="n">
         <v>10.66</v>
       </c>
-      <c r="C44" t="n">
-        <v>11.05</v>
-      </c>
       <c r="D44" t="n">
-        <v>11.05</v>
+        <v>10.66</v>
       </c>
       <c r="E44" t="n">
-        <v>10.66</v>
+        <v>10.55</v>
       </c>
       <c r="F44" t="n">
-        <v>75874.74000000001</v>
+        <v>9194.18</v>
       </c>
       <c r="G44" t="n">
-        <v>10.71983333333333</v>
+        <v>10.719</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>11</v>
+        <v>10.66</v>
       </c>
       <c r="C45" t="n">
-        <v>10.7</v>
+        <v>11.05</v>
       </c>
       <c r="D45" t="n">
-        <v>11</v>
+        <v>11.05</v>
       </c>
       <c r="E45" t="n">
-        <v>10.55</v>
+        <v>10.66</v>
       </c>
       <c r="F45" t="n">
-        <v>38781.9614</v>
+        <v>75874.74000000001</v>
       </c>
       <c r="G45" t="n">
-        <v>10.71383333333334</v>
+        <v>10.71983333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>11</v>
+      </c>
+      <c r="C46" t="n">
         <v>10.7</v>
       </c>
-      <c r="C46" t="n">
-        <v>10.85</v>
-      </c>
       <c r="D46" t="n">
-        <v>10.89</v>
+        <v>11</v>
       </c>
       <c r="E46" t="n">
-        <v>10.62</v>
+        <v>10.55</v>
       </c>
       <c r="F46" t="n">
-        <v>8214</v>
+        <v>38781.9614</v>
       </c>
       <c r="G46" t="n">
-        <v>10.71</v>
+        <v>10.71383333333334</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>10.69</v>
+        <v>10.7</v>
       </c>
       <c r="C47" t="n">
-        <v>10.69</v>
+        <v>10.85</v>
       </c>
       <c r="D47" t="n">
-        <v>10.69</v>
+        <v>10.89</v>
       </c>
       <c r="E47" t="n">
-        <v>10.69</v>
+        <v>10.62</v>
       </c>
       <c r="F47" t="n">
-        <v>44</v>
+        <v>8214</v>
       </c>
       <c r="G47" t="n">
-        <v>10.70883333333334</v>
+        <v>10.71</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>10.56</v>
+        <v>10.69</v>
       </c>
       <c r="C48" t="n">
-        <v>10.53</v>
+        <v>10.69</v>
       </c>
       <c r="D48" t="n">
-        <v>10.6</v>
+        <v>10.69</v>
       </c>
       <c r="E48" t="n">
-        <v>10.52</v>
+        <v>10.69</v>
       </c>
       <c r="F48" t="n">
-        <v>16536.1928</v>
+        <v>44</v>
       </c>
       <c r="G48" t="n">
-        <v>10.703</v>
+        <v>10.70883333333334</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>10.64</v>
+        <v>10.56</v>
       </c>
       <c r="C49" t="n">
-        <v>10.68</v>
+        <v>10.53</v>
       </c>
       <c r="D49" t="n">
-        <v>10.68</v>
+        <v>10.6</v>
       </c>
       <c r="E49" t="n">
         <v>10.52</v>
       </c>
       <c r="F49" t="n">
-        <v>5886.7335</v>
+        <v>16536.1928</v>
       </c>
       <c r="G49" t="n">
-        <v>10.701</v>
+        <v>10.703</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>10.52</v>
+        <v>10.64</v>
       </c>
       <c r="C50" t="n">
-        <v>10.67</v>
+        <v>10.68</v>
       </c>
       <c r="D50" t="n">
         <v>10.68</v>
       </c>
       <c r="E50" t="n">
-        <v>10.48</v>
+        <v>10.52</v>
       </c>
       <c r="F50" t="n">
-        <v>556361.5164</v>
+        <v>5886.7335</v>
       </c>
       <c r="G50" t="n">
-        <v>10.6975</v>
+        <v>10.701</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>10.48</v>
+        <v>10.52</v>
       </c>
       <c r="C51" t="n">
         <v>10.67</v>
       </c>
       <c r="D51" t="n">
-        <v>10.67</v>
+        <v>10.68</v>
       </c>
       <c r="E51" t="n">
         <v>10.48</v>
       </c>
       <c r="F51" t="n">
-        <v>491</v>
+        <v>556361.5164</v>
       </c>
       <c r="G51" t="n">
-        <v>10.69383333333334</v>
+        <v>10.6975</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>10.55</v>
+        <v>10.48</v>
       </c>
       <c r="C52" t="n">
-        <v>10.71</v>
+        <v>10.67</v>
       </c>
       <c r="D52" t="n">
-        <v>10.72</v>
+        <v>10.67</v>
       </c>
       <c r="E52" t="n">
-        <v>10.49</v>
+        <v>10.48</v>
       </c>
       <c r="F52" t="n">
-        <v>3245.693472014925</v>
+        <v>491</v>
       </c>
       <c r="G52" t="n">
-        <v>10.69333333333334</v>
+        <v>10.69383333333334</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="C53" t="n">
         <v>10.71</v>
-      </c>
-      <c r="C53" t="n">
-        <v>10.72</v>
       </c>
       <c r="D53" t="n">
         <v>10.72</v>
       </c>
       <c r="E53" t="n">
-        <v>10.58</v>
+        <v>10.49</v>
       </c>
       <c r="F53" t="n">
-        <v>226</v>
+        <v>3245.693472014925</v>
       </c>
       <c r="G53" t="n">
-        <v>10.693</v>
+        <v>10.69333333333334</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>10.64</v>
+        <v>10.71</v>
       </c>
       <c r="C54" t="n">
-        <v>10.7</v>
+        <v>10.72</v>
       </c>
       <c r="D54" t="n">
-        <v>10.7</v>
+        <v>10.72</v>
       </c>
       <c r="E54" t="n">
-        <v>10.51</v>
+        <v>10.58</v>
       </c>
       <c r="F54" t="n">
-        <v>3837.42</v>
+        <v>226</v>
       </c>
       <c r="G54" t="n">
-        <v>10.69233333333334</v>
+        <v>10.693</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>10.6</v>
+        <v>10.64</v>
       </c>
       <c r="C55" t="n">
-        <v>10.48</v>
+        <v>10.7</v>
       </c>
       <c r="D55" t="n">
-        <v>10.66</v>
+        <v>10.7</v>
       </c>
       <c r="E55" t="n">
-        <v>10.48</v>
+        <v>10.51</v>
       </c>
       <c r="F55" t="n">
-        <v>10007.2906</v>
+        <v>3837.42</v>
       </c>
       <c r="G55" t="n">
-        <v>10.688</v>
+        <v>10.69233333333334</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>10.68</v>
+        <v>10.6</v>
       </c>
       <c r="C56" t="n">
-        <v>10.71</v>
+        <v>10.48</v>
       </c>
       <c r="D56" t="n">
-        <v>10.73</v>
+        <v>10.66</v>
       </c>
       <c r="E56" t="n">
-        <v>10.68</v>
+        <v>10.48</v>
       </c>
       <c r="F56" t="n">
-        <v>350</v>
+        <v>10007.2906</v>
       </c>
       <c r="G56" t="n">
-        <v>10.6875</v>
+        <v>10.688</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>10.69</v>
+        <v>10.68</v>
       </c>
       <c r="C57" t="n">
-        <v>10.69</v>
+        <v>10.71</v>
       </c>
       <c r="D57" t="n">
-        <v>10.69</v>
+        <v>10.73</v>
       </c>
       <c r="E57" t="n">
-        <v>10.69</v>
+        <v>10.68</v>
       </c>
       <c r="F57" t="n">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="G57" t="n">
-        <v>10.68666666666667</v>
+        <v>10.6875</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>10.68</v>
+        <v>10.69</v>
       </c>
       <c r="C58" t="n">
-        <v>10.48</v>
+        <v>10.69</v>
       </c>
       <c r="D58" t="n">
-        <v>10.68</v>
+        <v>10.69</v>
       </c>
       <c r="E58" t="n">
-        <v>10.48</v>
+        <v>10.69</v>
       </c>
       <c r="F58" t="n">
-        <v>2462</v>
+        <v>50</v>
       </c>
       <c r="G58" t="n">
-        <v>10.68450000000001</v>
+        <v>10.68666666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>10.5</v>
+        <v>10.68</v>
       </c>
       <c r="C59" t="n">
-        <v>10.51</v>
+        <v>10.48</v>
       </c>
       <c r="D59" t="n">
-        <v>10.51</v>
+        <v>10.68</v>
       </c>
       <c r="E59" t="n">
-        <v>10.5</v>
+        <v>10.48</v>
       </c>
       <c r="F59" t="n">
-        <v>3100</v>
+        <v>2462</v>
       </c>
       <c r="G59" t="n">
-        <v>10.68283333333334</v>
+        <v>10.68450000000001</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>10.48</v>
+        <v>10.5</v>
       </c>
       <c r="C60" t="n">
-        <v>10.55</v>
+        <v>10.51</v>
       </c>
       <c r="D60" t="n">
-        <v>10.55</v>
+        <v>10.51</v>
       </c>
       <c r="E60" t="n">
-        <v>10.46</v>
+        <v>10.5</v>
       </c>
       <c r="F60" t="n">
-        <v>62242.3756</v>
+        <v>3100</v>
       </c>
       <c r="G60" t="n">
-        <v>10.67966666666667</v>
+        <v>10.68283333333334</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="C61" t="n">
         <v>10.55</v>
       </c>
-      <c r="C61" t="n">
-        <v>10.59</v>
-      </c>
       <c r="D61" t="n">
-        <v>10.59</v>
+        <v>10.55</v>
       </c>
       <c r="E61" t="n">
-        <v>10.55</v>
+        <v>10.46</v>
       </c>
       <c r="F61" t="n">
-        <v>200</v>
+        <v>62242.3756</v>
       </c>
       <c r="G61" t="n">
-        <v>10.67933333333334</v>
+        <v>10.67966666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="C62" t="n">
         <v>10.59</v>
       </c>
-      <c r="C62" t="n">
-        <v>10.67</v>
-      </c>
       <c r="D62" t="n">
-        <v>10.67</v>
+        <v>10.59</v>
       </c>
       <c r="E62" t="n">
-        <v>10.59</v>
+        <v>10.55</v>
       </c>
       <c r="F62" t="n">
-        <v>427.42</v>
+        <v>200</v>
       </c>
       <c r="G62" t="n">
-        <v>10.6785</v>
+        <v>10.67933333333334</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>10.68</v>
+        <v>10.59</v>
       </c>
       <c r="C63" t="n">
-        <v>10.69</v>
+        <v>10.67</v>
       </c>
       <c r="D63" t="n">
-        <v>10.69</v>
+        <v>10.67</v>
       </c>
       <c r="E63" t="n">
-        <v>10.68</v>
+        <v>10.59</v>
       </c>
       <c r="F63" t="n">
-        <v>160</v>
+        <v>427.42</v>
       </c>
       <c r="G63" t="n">
-        <v>10.67866666666667</v>
+        <v>10.6785</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>10.7</v>
+        <v>10.68</v>
       </c>
       <c r="C64" t="n">
-        <v>10.68</v>
+        <v>10.69</v>
       </c>
       <c r="D64" t="n">
-        <v>10.7</v>
+        <v>10.69</v>
       </c>
       <c r="E64" t="n">
         <v>10.68</v>
       </c>
       <c r="F64" t="n">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="G64" t="n">
-        <v>10.679</v>
+        <v>10.67866666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="C65" t="n">
         <v>10.68</v>
       </c>
-      <c r="C65" t="n">
-        <v>10.69</v>
-      </c>
       <c r="D65" t="n">
-        <v>10.69</v>
+        <v>10.7</v>
       </c>
       <c r="E65" t="n">
         <v>10.68</v>
       </c>
       <c r="F65" t="n">
-        <v>49398.2001</v>
+        <v>118</v>
       </c>
       <c r="G65" t="n">
-        <v>10.67950000000001</v>
+        <v>10.679</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="C66" t="n">
         <v>10.69</v>
-      </c>
-      <c r="C66" t="n">
-        <v>10.53</v>
       </c>
       <c r="D66" t="n">
         <v>10.69</v>
       </c>
       <c r="E66" t="n">
-        <v>10.53</v>
+        <v>10.68</v>
       </c>
       <c r="F66" t="n">
-        <v>45402.58</v>
+        <v>49398.2001</v>
       </c>
       <c r="G66" t="n">
-        <v>10.67633333333334</v>
+        <v>10.67950000000001</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>10.52</v>
+        <v>10.69</v>
       </c>
       <c r="C67" t="n">
-        <v>10.68</v>
+        <v>10.53</v>
       </c>
       <c r="D67" t="n">
-        <v>10.68</v>
+        <v>10.69</v>
       </c>
       <c r="E67" t="n">
-        <v>10.47</v>
+        <v>10.53</v>
       </c>
       <c r="F67" t="n">
-        <v>14231.001</v>
+        <v>45402.58</v>
       </c>
       <c r="G67" t="n">
-        <v>10.6765</v>
+        <v>10.67633333333334</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>10.65</v>
+        <v>10.52</v>
       </c>
       <c r="C68" t="n">
-        <v>10.67</v>
+        <v>10.68</v>
       </c>
       <c r="D68" t="n">
-        <v>10.67</v>
+        <v>10.68</v>
       </c>
       <c r="E68" t="n">
         <v>10.47</v>
       </c>
       <c r="F68" t="n">
-        <v>65917.38219999999</v>
+        <v>14231.001</v>
       </c>
       <c r="G68" t="n">
-        <v>10.67666666666667</v>
+        <v>10.6765</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>10.63</v>
+        <v>10.65</v>
       </c>
       <c r="C69" t="n">
-        <v>10.69</v>
+        <v>10.67</v>
       </c>
       <c r="D69" t="n">
-        <v>10.69</v>
+        <v>10.67</v>
       </c>
       <c r="E69" t="n">
-        <v>10.63</v>
+        <v>10.47</v>
       </c>
       <c r="F69" t="n">
-        <v>100</v>
+        <v>65917.38219999999</v>
       </c>
       <c r="G69" t="n">
-        <v>10.67483333333334</v>
+        <v>10.67666666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="C70" t="n">
         <v>10.69</v>
       </c>
-      <c r="C70" t="n">
-        <v>10.51</v>
-      </c>
       <c r="D70" t="n">
-        <v>10.74</v>
+        <v>10.69</v>
       </c>
       <c r="E70" t="n">
-        <v>10.4</v>
+        <v>10.63</v>
       </c>
       <c r="F70" t="n">
-        <v>1479469.695</v>
+        <v>100</v>
       </c>
       <c r="G70" t="n">
-        <v>10.67150000000001</v>
+        <v>10.67483333333334</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>10.57</v>
+        <v>10.69</v>
       </c>
       <c r="C71" t="n">
-        <v>10.57</v>
+        <v>10.51</v>
       </c>
       <c r="D71" t="n">
-        <v>10.57</v>
+        <v>10.74</v>
       </c>
       <c r="E71" t="n">
-        <v>10.57</v>
+        <v>10.4</v>
       </c>
       <c r="F71" t="n">
-        <v>3606.0112</v>
+        <v>1479469.695</v>
       </c>
       <c r="G71" t="n">
-        <v>10.66766666666667</v>
+        <v>10.67150000000001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>10.43</v>
+        <v>10.57</v>
       </c>
       <c r="C72" t="n">
-        <v>10.42</v>
+        <v>10.57</v>
       </c>
       <c r="D72" t="n">
-        <v>10.43</v>
+        <v>10.57</v>
       </c>
       <c r="E72" t="n">
-        <v>10.42</v>
+        <v>10.57</v>
       </c>
       <c r="F72" t="n">
-        <v>3591.2977</v>
+        <v>3606.0112</v>
       </c>
       <c r="G72" t="n">
-        <v>10.66133333333334</v>
+        <v>10.66766666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
+        <v>10.43</v>
+      </c>
+      <c r="C73" t="n">
         <v>10.42</v>
       </c>
-      <c r="C73" t="n">
-        <v>10.4</v>
-      </c>
       <c r="D73" t="n">
+        <v>10.43</v>
+      </c>
+      <c r="E73" t="n">
         <v>10.42</v>
       </c>
-      <c r="E73" t="n">
-        <v>10.4</v>
-      </c>
       <c r="F73" t="n">
-        <v>38571.7169</v>
+        <v>3591.2977</v>
       </c>
       <c r="G73" t="n">
-        <v>10.65633333333334</v>
+        <v>10.66133333333334</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="C74" t="n">
         <v>10.4</v>
       </c>
-      <c r="C74" t="n">
-        <v>10.39</v>
-      </c>
       <c r="D74" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="E74" t="n">
         <v>10.4</v>
       </c>
-      <c r="E74" t="n">
-        <v>10.39</v>
-      </c>
       <c r="F74" t="n">
-        <v>31558.6776</v>
+        <v>38571.7169</v>
       </c>
       <c r="G74" t="n">
-        <v>10.64950000000001</v>
+        <v>10.65633333333334</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>10.57</v>
+        <v>10.4</v>
       </c>
       <c r="C75" t="n">
         <v>10.39</v>
       </c>
       <c r="D75" t="n">
-        <v>10.57</v>
+        <v>10.4</v>
       </c>
       <c r="E75" t="n">
         <v>10.39</v>
       </c>
       <c r="F75" t="n">
-        <v>180</v>
+        <v>31558.6776</v>
       </c>
       <c r="G75" t="n">
-        <v>10.64433333333334</v>
+        <v>10.64950000000001</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="C76" t="n">
         <v>10.39</v>
       </c>
-      <c r="C76" t="n">
-        <v>10.37</v>
-      </c>
       <c r="D76" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="E76" t="n">
         <v>10.39</v>
       </c>
-      <c r="E76" t="n">
-        <v>10.37</v>
-      </c>
       <c r="F76" t="n">
-        <v>217394.2883</v>
+        <v>180</v>
       </c>
       <c r="G76" t="n">
-        <v>10.63700000000001</v>
+        <v>10.64433333333334</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
+        <v>10.39</v>
+      </c>
+      <c r="C77" t="n">
         <v>10.37</v>
       </c>
-      <c r="C77" t="n">
-        <v>10.57</v>
-      </c>
       <c r="D77" t="n">
-        <v>10.57</v>
+        <v>10.39</v>
       </c>
       <c r="E77" t="n">
         <v>10.37</v>
       </c>
       <c r="F77" t="n">
-        <v>137620.7954</v>
+        <v>217394.2883</v>
       </c>
       <c r="G77" t="n">
-        <v>10.63166666666667</v>
+        <v>10.63700000000001</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3096,19 +3096,19 @@
         <v>10.37</v>
       </c>
       <c r="C78" t="n">
-        <v>10.37</v>
+        <v>10.57</v>
       </c>
       <c r="D78" t="n">
-        <v>10.37</v>
+        <v>10.57</v>
       </c>
       <c r="E78" t="n">
         <v>10.37</v>
       </c>
       <c r="F78" t="n">
-        <v>50</v>
+        <v>137620.7954</v>
       </c>
       <c r="G78" t="n">
-        <v>10.62266666666667</v>
+        <v>10.63166666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>10.55</v>
+        <v>10.37</v>
       </c>
       <c r="C79" t="n">
-        <v>10.55</v>
+        <v>10.37</v>
       </c>
       <c r="D79" t="n">
-        <v>10.55</v>
+        <v>10.37</v>
       </c>
       <c r="E79" t="n">
-        <v>10.55</v>
+        <v>10.37</v>
       </c>
       <c r="F79" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="G79" t="n">
-        <v>10.61933333333334</v>
+        <v>10.62266666666667</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>10.43</v>
+        <v>10.55</v>
       </c>
       <c r="C80" t="n">
-        <v>10.43</v>
+        <v>10.55</v>
       </c>
       <c r="D80" t="n">
-        <v>10.43</v>
+        <v>10.55</v>
       </c>
       <c r="E80" t="n">
-        <v>10.43</v>
+        <v>10.55</v>
       </c>
       <c r="F80" t="n">
-        <v>27892.511</v>
+        <v>120</v>
       </c>
       <c r="G80" t="n">
-        <v>10.61400000000001</v>
+        <v>10.61933333333334</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>10.4</v>
+        <v>10.43</v>
       </c>
       <c r="C81" t="n">
-        <v>10.54</v>
+        <v>10.43</v>
       </c>
       <c r="D81" t="n">
-        <v>10.54</v>
+        <v>10.43</v>
       </c>
       <c r="E81" t="n">
-        <v>10.4</v>
+        <v>10.43</v>
       </c>
       <c r="F81" t="n">
-        <v>229911</v>
+        <v>27892.511</v>
       </c>
       <c r="G81" t="n">
-        <v>10.6115</v>
+        <v>10.61400000000001</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>10.37</v>
+        <v>10.4</v>
       </c>
       <c r="C82" t="n">
-        <v>10.53</v>
+        <v>10.54</v>
       </c>
       <c r="D82" t="n">
-        <v>10.53</v>
+        <v>10.54</v>
       </c>
       <c r="E82" t="n">
-        <v>10.36</v>
+        <v>10.4</v>
       </c>
       <c r="F82" t="n">
-        <v>88374.40240000001</v>
+        <v>229911</v>
       </c>
       <c r="G82" t="n">
-        <v>10.61016666666667</v>
+        <v>10.6115</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>10.35</v>
+        <v>10.37</v>
       </c>
       <c r="C83" t="n">
-        <v>10.35</v>
+        <v>10.53</v>
       </c>
       <c r="D83" t="n">
-        <v>10.35</v>
+        <v>10.53</v>
       </c>
       <c r="E83" t="n">
-        <v>10.35</v>
+        <v>10.36</v>
       </c>
       <c r="F83" t="n">
-        <v>8043.3115</v>
+        <v>88374.40240000001</v>
       </c>
       <c r="G83" t="n">
-        <v>10.60583333333334</v>
+        <v>10.61016666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3315,10 +3315,10 @@
         <v>10.35</v>
       </c>
       <c r="F84" t="n">
-        <v>4722.6812</v>
+        <v>8043.3115</v>
       </c>
       <c r="G84" t="n">
-        <v>10.60150000000001</v>
+        <v>10.60583333333334</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>10.46</v>
+        <v>10.35</v>
       </c>
       <c r="C85" t="n">
-        <v>10.46</v>
+        <v>10.35</v>
       </c>
       <c r="D85" t="n">
-        <v>10.46</v>
+        <v>10.35</v>
       </c>
       <c r="E85" t="n">
         <v>10.35</v>
       </c>
       <c r="F85" t="n">
-        <v>16181.1837</v>
+        <v>4722.6812</v>
       </c>
       <c r="G85" t="n">
-        <v>10.59983333333334</v>
+        <v>10.60150000000001</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,35 +3373,31 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>10.54</v>
+        <v>10.46</v>
       </c>
       <c r="C86" t="n">
-        <v>10.54</v>
+        <v>10.46</v>
       </c>
       <c r="D86" t="n">
-        <v>10.54</v>
+        <v>10.46</v>
       </c>
       <c r="E86" t="n">
-        <v>10.54</v>
+        <v>10.35</v>
       </c>
       <c r="F86" t="n">
-        <v>55</v>
+        <v>16181.1837</v>
       </c>
       <c r="G86" t="n">
-        <v>10.59950000000001</v>
+        <v>10.59983333333334</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="K86" t="n">
-        <v>10.46</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
@@ -3424,10 +3420,10 @@
         <v>10.54</v>
       </c>
       <c r="F87" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="G87" t="n">
-        <v>10.59933333333334</v>
+        <v>10.59950000000001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3436,14 +3432,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3453,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>10.42</v>
+        <v>10.54</v>
       </c>
       <c r="C88" t="n">
-        <v>10.42</v>
+        <v>10.54</v>
       </c>
       <c r="D88" t="n">
-        <v>10.42</v>
+        <v>10.54</v>
       </c>
       <c r="E88" t="n">
-        <v>10.42</v>
+        <v>10.54</v>
       </c>
       <c r="F88" t="n">
-        <v>13637.8904</v>
+        <v>1000</v>
       </c>
       <c r="G88" t="n">
-        <v>10.59383333333334</v>
+        <v>10.59933333333334</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3477,14 +3467,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3494,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>10.54</v>
+        <v>10.42</v>
       </c>
       <c r="C89" t="n">
-        <v>10.55</v>
+        <v>10.42</v>
       </c>
       <c r="D89" t="n">
-        <v>10.55</v>
+        <v>10.42</v>
       </c>
       <c r="E89" t="n">
-        <v>10.54</v>
+        <v>10.42</v>
       </c>
       <c r="F89" t="n">
-        <v>14549</v>
+        <v>13637.8904</v>
       </c>
       <c r="G89" t="n">
-        <v>10.59133333333334</v>
+        <v>10.59383333333334</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3529,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>10.45</v>
+        <v>10.54</v>
       </c>
       <c r="C90" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="D90" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="E90" t="n">
         <v>10.54</v>
       </c>
-      <c r="D90" t="n">
-        <v>10.54</v>
-      </c>
-      <c r="E90" t="n">
-        <v>10.35</v>
-      </c>
       <c r="F90" t="n">
-        <v>117402.5816</v>
+        <v>14549</v>
       </c>
       <c r="G90" t="n">
-        <v>10.58866666666667</v>
+        <v>10.59133333333334</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3564,7 +3548,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>10.54</v>
+        <v>10.45</v>
       </c>
       <c r="C91" t="n">
         <v>10.54</v>
@@ -3573,13 +3557,13 @@
         <v>10.54</v>
       </c>
       <c r="E91" t="n">
-        <v>10.54</v>
+        <v>10.35</v>
       </c>
       <c r="F91" t="n">
-        <v>5000</v>
+        <v>117402.5816</v>
       </c>
       <c r="G91" t="n">
-        <v>10.58633333333334</v>
+        <v>10.58866666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3611,10 +3595,10 @@
         <v>10.54</v>
       </c>
       <c r="F92" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="G92" t="n">
-        <v>10.58366666666667</v>
+        <v>10.58633333333334</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3646,10 +3630,10 @@
         <v>10.54</v>
       </c>
       <c r="F93" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="G93" t="n">
-        <v>10.581</v>
+        <v>10.58366666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3669,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>10.53</v>
+        <v>10.54</v>
       </c>
       <c r="C94" t="n">
-        <v>10.55</v>
+        <v>10.54</v>
       </c>
       <c r="D94" t="n">
-        <v>10.55</v>
+        <v>10.54</v>
       </c>
       <c r="E94" t="n">
-        <v>10.53</v>
+        <v>10.54</v>
       </c>
       <c r="F94" t="n">
         <v>2000</v>
       </c>
       <c r="G94" t="n">
-        <v>10.57833333333333</v>
+        <v>10.581</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3704,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>10.45</v>
+        <v>10.53</v>
       </c>
       <c r="C95" t="n">
-        <v>10.54</v>
+        <v>10.55</v>
       </c>
       <c r="D95" t="n">
-        <v>10.54</v>
+        <v>10.55</v>
       </c>
       <c r="E95" t="n">
-        <v>10.45</v>
+        <v>10.53</v>
       </c>
       <c r="F95" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="G95" t="n">
-        <v>10.57716666666667</v>
+        <v>10.57833333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3739,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>10.41</v>
+        <v>10.45</v>
       </c>
       <c r="C96" t="n">
-        <v>10.35</v>
+        <v>10.54</v>
       </c>
       <c r="D96" t="n">
-        <v>10.41</v>
+        <v>10.54</v>
       </c>
       <c r="E96" t="n">
-        <v>10.35</v>
+        <v>10.45</v>
       </c>
       <c r="F96" t="n">
-        <v>165203.462</v>
+        <v>4000</v>
       </c>
       <c r="G96" t="n">
-        <v>10.57333333333333</v>
+        <v>10.57716666666667</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3774,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>10.53</v>
+        <v>10.41</v>
       </c>
       <c r="C97" t="n">
-        <v>10.53</v>
+        <v>10.35</v>
       </c>
       <c r="D97" t="n">
-        <v>10.53</v>
+        <v>10.41</v>
       </c>
       <c r="E97" t="n">
-        <v>10.53</v>
+        <v>10.35</v>
       </c>
       <c r="F97" t="n">
-        <v>65</v>
+        <v>165203.462</v>
       </c>
       <c r="G97" t="n">
-        <v>10.5715</v>
+        <v>10.57333333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3812,19 +3796,19 @@
         <v>10.53</v>
       </c>
       <c r="C98" t="n">
-        <v>10.54</v>
+        <v>10.53</v>
       </c>
       <c r="D98" t="n">
-        <v>10.54</v>
+        <v>10.53</v>
       </c>
       <c r="E98" t="n">
         <v>10.53</v>
       </c>
       <c r="F98" t="n">
-        <v>16214</v>
+        <v>65</v>
       </c>
       <c r="G98" t="n">
-        <v>10.57</v>
+        <v>10.5715</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3844,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="C99" t="n">
         <v>10.54</v>
       </c>
-      <c r="C99" t="n">
-        <v>10.55</v>
-      </c>
       <c r="D99" t="n">
-        <v>10.55</v>
+        <v>10.54</v>
       </c>
       <c r="E99" t="n">
-        <v>10.54</v>
+        <v>10.53</v>
       </c>
       <c r="F99" t="n">
-        <v>23380</v>
+        <v>16214</v>
       </c>
       <c r="G99" t="n">
-        <v>10.5705</v>
+        <v>10.57</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3879,7 +3863,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>10.55</v>
+        <v>10.54</v>
       </c>
       <c r="C100" t="n">
         <v>10.55</v>
@@ -3888,13 +3872,13 @@
         <v>10.55</v>
       </c>
       <c r="E100" t="n">
-        <v>10.55</v>
+        <v>10.54</v>
       </c>
       <c r="F100" t="n">
-        <v>6000</v>
+        <v>23380</v>
       </c>
       <c r="G100" t="n">
-        <v>10.56999999999999</v>
+        <v>10.5705</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3917,19 +3901,19 @@
         <v>10.55</v>
       </c>
       <c r="C101" t="n">
-        <v>10.56</v>
+        <v>10.55</v>
       </c>
       <c r="D101" t="n">
-        <v>10.56</v>
+        <v>10.55</v>
       </c>
       <c r="E101" t="n">
         <v>10.55</v>
       </c>
       <c r="F101" t="n">
-        <v>89927</v>
+        <v>6000</v>
       </c>
       <c r="G101" t="n">
-        <v>10.56966666666666</v>
+        <v>10.56999999999999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3949,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>10.44</v>
+        <v>10.55</v>
       </c>
       <c r="C102" t="n">
-        <v>10.44</v>
+        <v>10.56</v>
       </c>
       <c r="D102" t="n">
-        <v>10.44</v>
+        <v>10.56</v>
       </c>
       <c r="E102" t="n">
-        <v>10.44</v>
+        <v>10.55</v>
       </c>
       <c r="F102" t="n">
-        <v>77777</v>
+        <v>89927</v>
       </c>
       <c r="G102" t="n">
-        <v>10.566</v>
+        <v>10.56966666666666</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3984,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>10.56</v>
+        <v>10.44</v>
       </c>
       <c r="C103" t="n">
-        <v>10.56</v>
+        <v>10.44</v>
       </c>
       <c r="D103" t="n">
-        <v>10.56</v>
+        <v>10.44</v>
       </c>
       <c r="E103" t="n">
-        <v>10.56</v>
+        <v>10.44</v>
       </c>
       <c r="F103" t="n">
-        <v>13668</v>
+        <v>77777</v>
       </c>
       <c r="G103" t="n">
-        <v>10.56433333333333</v>
+        <v>10.566</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4022,19 +4006,19 @@
         <v>10.56</v>
       </c>
       <c r="C104" t="n">
-        <v>10.59</v>
+        <v>10.56</v>
       </c>
       <c r="D104" t="n">
-        <v>10.59</v>
+        <v>10.56</v>
       </c>
       <c r="E104" t="n">
         <v>10.56</v>
       </c>
       <c r="F104" t="n">
-        <v>117354.5027</v>
+        <v>13668</v>
       </c>
       <c r="G104" t="n">
-        <v>10.55666666666666</v>
+        <v>10.56433333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4054,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>10.65</v>
+        <v>10.56</v>
       </c>
       <c r="C105" t="n">
-        <v>10.67</v>
+        <v>10.59</v>
       </c>
       <c r="D105" t="n">
-        <v>10.67</v>
+        <v>10.59</v>
       </c>
       <c r="E105" t="n">
-        <v>10.42</v>
+        <v>10.56</v>
       </c>
       <c r="F105" t="n">
-        <v>22306.2392</v>
+        <v>117354.5027</v>
       </c>
       <c r="G105" t="n">
-        <v>10.55616666666666</v>
+        <v>10.55666666666666</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4089,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="C106" t="n">
         <v>10.67</v>
       </c>
-      <c r="C106" t="n">
-        <v>10.43</v>
-      </c>
       <c r="D106" t="n">
-        <v>10.7</v>
+        <v>10.67</v>
       </c>
       <c r="E106" t="n">
-        <v>10.43</v>
+        <v>10.42</v>
       </c>
       <c r="F106" t="n">
-        <v>139888.75</v>
+        <v>22306.2392</v>
       </c>
       <c r="G106" t="n">
-        <v>10.54916666666666</v>
+        <v>10.55616666666666</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4124,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>10.65</v>
+        <v>10.67</v>
       </c>
       <c r="C107" t="n">
-        <v>10.61</v>
+        <v>10.43</v>
       </c>
       <c r="D107" t="n">
-        <v>10.65</v>
+        <v>10.7</v>
       </c>
       <c r="E107" t="n">
-        <v>10.61</v>
+        <v>10.43</v>
       </c>
       <c r="F107" t="n">
-        <v>2501</v>
+        <v>139888.75</v>
       </c>
       <c r="G107" t="n">
-        <v>10.54783333333333</v>
+        <v>10.54916666666666</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4159,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>10.69</v>
+        <v>10.65</v>
       </c>
       <c r="C108" t="n">
-        <v>10.69</v>
+        <v>10.61</v>
       </c>
       <c r="D108" t="n">
-        <v>10.69</v>
+        <v>10.65</v>
       </c>
       <c r="E108" t="n">
-        <v>10.69</v>
+        <v>10.61</v>
       </c>
       <c r="F108" t="n">
-        <v>500</v>
+        <v>2501</v>
       </c>
       <c r="G108" t="n">
-        <v>10.55049999999999</v>
+        <v>10.54783333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4206,10 +4190,10 @@
         <v>10.69</v>
       </c>
       <c r="F109" t="n">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G109" t="n">
-        <v>10.55066666666666</v>
+        <v>10.55049999999999</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4241,10 +4225,10 @@
         <v>10.69</v>
       </c>
       <c r="F110" t="n">
-        <v>65</v>
+        <v>501</v>
       </c>
       <c r="G110" t="n">
-        <v>10.551</v>
+        <v>10.55066666666666</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4267,19 +4251,19 @@
         <v>10.69</v>
       </c>
       <c r="C111" t="n">
-        <v>10.7</v>
+        <v>10.69</v>
       </c>
       <c r="D111" t="n">
-        <v>10.7</v>
+        <v>10.69</v>
       </c>
       <c r="E111" t="n">
         <v>10.69</v>
       </c>
       <c r="F111" t="n">
-        <v>2113.677570093458</v>
+        <v>65</v>
       </c>
       <c r="G111" t="n">
-        <v>10.5515</v>
+        <v>10.551</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4299,7 +4283,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>10.7</v>
+        <v>10.69</v>
       </c>
       <c r="C112" t="n">
         <v>10.7</v>
@@ -4308,13 +4292,13 @@
         <v>10.7</v>
       </c>
       <c r="E112" t="n">
-        <v>10.7</v>
+        <v>10.69</v>
       </c>
       <c r="F112" t="n">
-        <v>3208.22429906542</v>
+        <v>2113.677570093458</v>
       </c>
       <c r="G112" t="n">
-        <v>10.55133333333333</v>
+        <v>10.5515</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4334,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>10.65</v>
+        <v>10.7</v>
       </c>
       <c r="C113" t="n">
-        <v>10.65</v>
+        <v>10.7</v>
       </c>
       <c r="D113" t="n">
-        <v>10.65</v>
+        <v>10.7</v>
       </c>
       <c r="E113" t="n">
-        <v>10.65</v>
+        <v>10.7</v>
       </c>
       <c r="F113" t="n">
-        <v>499.25</v>
+        <v>3208.22429906542</v>
       </c>
       <c r="G113" t="n">
-        <v>10.55016666666666</v>
+        <v>10.55133333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4372,19 +4356,19 @@
         <v>10.65</v>
       </c>
       <c r="C114" t="n">
-        <v>10.56</v>
+        <v>10.65</v>
       </c>
       <c r="D114" t="n">
         <v>10.65</v>
       </c>
       <c r="E114" t="n">
-        <v>10.56</v>
+        <v>10.65</v>
       </c>
       <c r="F114" t="n">
-        <v>5322.6519</v>
+        <v>499.25</v>
       </c>
       <c r="G114" t="n">
-        <v>10.54783333333333</v>
+        <v>10.55016666666666</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4404,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="C115" t="n">
         <v>10.56</v>
       </c>
-      <c r="C115" t="n">
-        <v>10.55</v>
-      </c>
       <c r="D115" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="E115" t="n">
         <v>10.56</v>
       </c>
-      <c r="E115" t="n">
-        <v>10.55</v>
-      </c>
       <c r="F115" t="n">
-        <v>93693.4111</v>
+        <v>5322.6519</v>
       </c>
       <c r="G115" t="n">
-        <v>10.549</v>
+        <v>10.54783333333333</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4439,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>10.5</v>
+        <v>10.56</v>
       </c>
       <c r="C116" t="n">
-        <v>10.67</v>
+        <v>10.55</v>
       </c>
       <c r="D116" t="n">
-        <v>10.67</v>
+        <v>10.56</v>
       </c>
       <c r="E116" t="n">
-        <v>10.48</v>
+        <v>10.55</v>
       </c>
       <c r="F116" t="n">
-        <v>160582.5189</v>
+        <v>93693.4111</v>
       </c>
       <c r="G116" t="n">
-        <v>10.54833333333333</v>
+        <v>10.549</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4474,7 +4458,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>10.67</v>
+        <v>10.5</v>
       </c>
       <c r="C117" t="n">
         <v>10.67</v>
@@ -4483,13 +4467,13 @@
         <v>10.67</v>
       </c>
       <c r="E117" t="n">
-        <v>10.67</v>
+        <v>10.48</v>
       </c>
       <c r="F117" t="n">
-        <v>1241.611996251172</v>
+        <v>160582.5189</v>
       </c>
       <c r="G117" t="n">
-        <v>10.54799999999999</v>
+        <v>10.54833333333333</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4509,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>10.5</v>
+        <v>10.67</v>
       </c>
       <c r="C118" t="n">
-        <v>10.47</v>
+        <v>10.67</v>
       </c>
       <c r="D118" t="n">
-        <v>10.5</v>
+        <v>10.67</v>
       </c>
       <c r="E118" t="n">
-        <v>10.47</v>
+        <v>10.67</v>
       </c>
       <c r="F118" t="n">
-        <v>20227.1698</v>
+        <v>1241.611996251172</v>
       </c>
       <c r="G118" t="n">
-        <v>10.54783333333333</v>
+        <v>10.54799999999999</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4544,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>10.47</v>
+        <v>10.5</v>
       </c>
       <c r="C119" t="n">
         <v>10.47</v>
       </c>
       <c r="D119" t="n">
-        <v>10.47</v>
+        <v>10.5</v>
       </c>
       <c r="E119" t="n">
         <v>10.47</v>
       </c>
       <c r="F119" t="n">
-        <v>9348.2001</v>
+        <v>20227.1698</v>
       </c>
       <c r="G119" t="n">
-        <v>10.54716666666666</v>
+        <v>10.54783333333333</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4579,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>10.5</v>
+        <v>10.47</v>
       </c>
       <c r="C120" t="n">
-        <v>10.5</v>
+        <v>10.47</v>
       </c>
       <c r="D120" t="n">
-        <v>10.5</v>
+        <v>10.47</v>
       </c>
       <c r="E120" t="n">
-        <v>10.5</v>
+        <v>10.47</v>
       </c>
       <c r="F120" t="n">
-        <v>1000</v>
+        <v>9348.2001</v>
       </c>
       <c r="G120" t="n">
-        <v>10.54633333333333</v>
+        <v>10.54716666666666</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4614,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>10.66</v>
+        <v>10.5</v>
       </c>
       <c r="C121" t="n">
-        <v>10.48</v>
+        <v>10.5</v>
       </c>
       <c r="D121" t="n">
-        <v>10.66</v>
+        <v>10.5</v>
       </c>
       <c r="E121" t="n">
-        <v>10.48</v>
+        <v>10.5</v>
       </c>
       <c r="F121" t="n">
-        <v>9893.736500000001</v>
+        <v>1000</v>
       </c>
       <c r="G121" t="n">
-        <v>10.54449999999999</v>
+        <v>10.54633333333333</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4649,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>10.5</v>
+        <v>10.66</v>
       </c>
       <c r="C122" t="n">
-        <v>10.5</v>
+        <v>10.48</v>
       </c>
       <c r="D122" t="n">
-        <v>10.5</v>
+        <v>10.66</v>
       </c>
       <c r="E122" t="n">
-        <v>10.5</v>
+        <v>10.48</v>
       </c>
       <c r="F122" t="n">
-        <v>231.867</v>
+        <v>9893.736500000001</v>
       </c>
       <c r="G122" t="n">
-        <v>10.54166666666666</v>
+        <v>10.54449999999999</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4684,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>10.66</v>
+        <v>10.5</v>
       </c>
       <c r="C123" t="n">
-        <v>10.66</v>
+        <v>10.5</v>
       </c>
       <c r="D123" t="n">
-        <v>10.66</v>
+        <v>10.5</v>
       </c>
       <c r="E123" t="n">
-        <v>10.66</v>
+        <v>10.5</v>
       </c>
       <c r="F123" t="n">
-        <v>47</v>
+        <v>231.867</v>
       </c>
       <c r="G123" t="n">
-        <v>10.54116666666666</v>
+        <v>10.54166666666666</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4731,10 +4715,10 @@
         <v>10.66</v>
       </c>
       <c r="F124" t="n">
-        <v>11953</v>
+        <v>47</v>
       </c>
       <c r="G124" t="n">
-        <v>10.54083333333333</v>
+        <v>10.54116666666666</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4754,22 +4738,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>10.67</v>
+        <v>10.66</v>
       </c>
       <c r="C125" t="n">
-        <v>10.67</v>
+        <v>10.66</v>
       </c>
       <c r="D125" t="n">
-        <v>10.67</v>
+        <v>10.66</v>
       </c>
       <c r="E125" t="n">
-        <v>10.67</v>
+        <v>10.66</v>
       </c>
       <c r="F125" t="n">
-        <v>100</v>
+        <v>11953</v>
       </c>
       <c r="G125" t="n">
-        <v>10.54049999999999</v>
+        <v>10.54083333333333</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4792,19 +4776,19 @@
         <v>10.67</v>
       </c>
       <c r="C126" t="n">
-        <v>10.7</v>
+        <v>10.67</v>
       </c>
       <c r="D126" t="n">
-        <v>10.7</v>
+        <v>10.67</v>
       </c>
       <c r="E126" t="n">
         <v>10.67</v>
       </c>
       <c r="F126" t="n">
-        <v>225758.3880037488</v>
+        <v>100</v>
       </c>
       <c r="G126" t="n">
-        <v>10.54333333333333</v>
+        <v>10.54049999999999</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4824,7 +4808,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>10.7</v>
+        <v>10.67</v>
       </c>
       <c r="C127" t="n">
         <v>10.7</v>
@@ -4833,13 +4817,13 @@
         <v>10.7</v>
       </c>
       <c r="E127" t="n">
-        <v>10.7</v>
+        <v>10.67</v>
       </c>
       <c r="F127" t="n">
-        <v>21639.4686</v>
+        <v>225758.3880037488</v>
       </c>
       <c r="G127" t="n">
-        <v>10.54366666666666</v>
+        <v>10.54333333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4862,19 +4846,19 @@
         <v>10.7</v>
       </c>
       <c r="C128" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="D128" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="E128" t="n">
         <v>10.7</v>
       </c>
       <c r="F128" t="n">
-        <v>206023.3564895567</v>
+        <v>21639.4686</v>
       </c>
       <c r="G128" t="n">
-        <v>10.54749999999999</v>
+        <v>10.54366666666666</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4894,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>10.81</v>
+        <v>10.7</v>
       </c>
       <c r="C129" t="n">
-        <v>10.81</v>
+        <v>10.9</v>
       </c>
       <c r="D129" t="n">
-        <v>10.81</v>
+        <v>10.9</v>
       </c>
       <c r="E129" t="n">
-        <v>10.81</v>
+        <v>10.7</v>
       </c>
       <c r="F129" t="n">
-        <v>2144.86586493987</v>
+        <v>206023.3564895567</v>
       </c>
       <c r="G129" t="n">
-        <v>10.54949999999999</v>
+        <v>10.54749999999999</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4929,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>10.79</v>
+        <v>10.81</v>
       </c>
       <c r="C130" t="n">
-        <v>10.8</v>
+        <v>10.81</v>
       </c>
       <c r="D130" t="n">
-        <v>10.8</v>
+        <v>10.81</v>
       </c>
       <c r="E130" t="n">
-        <v>10.79</v>
+        <v>10.81</v>
       </c>
       <c r="F130" t="n">
-        <v>55882.2499</v>
+        <v>2144.86586493987</v>
       </c>
       <c r="G130" t="n">
-        <v>10.55433333333333</v>
+        <v>10.54949999999999</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4967,19 +4951,19 @@
         <v>10.79</v>
       </c>
       <c r="C131" t="n">
-        <v>10.81</v>
+        <v>10.8</v>
       </c>
       <c r="D131" t="n">
-        <v>10.81</v>
+        <v>10.8</v>
       </c>
       <c r="E131" t="n">
         <v>10.79</v>
       </c>
       <c r="F131" t="n">
-        <v>47918.5114</v>
+        <v>55882.2499</v>
       </c>
       <c r="G131" t="n">
-        <v>10.55833333333332</v>
+        <v>10.55433333333333</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4999,28 +4983,28 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>10.82</v>
+        <v>10.79</v>
       </c>
       <c r="C132" t="n">
-        <v>10.82</v>
+        <v>10.81</v>
       </c>
       <c r="D132" t="n">
-        <v>10.82</v>
+        <v>10.81</v>
       </c>
       <c r="E132" t="n">
-        <v>10.82</v>
+        <v>10.79</v>
       </c>
       <c r="F132" t="n">
-        <v>55</v>
+        <v>47918.5114</v>
       </c>
       <c r="G132" t="n">
-        <v>10.56499999999999</v>
+        <v>10.55833333333332</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -5034,28 +5018,28 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>10.71</v>
+        <v>10.82</v>
       </c>
       <c r="C133" t="n">
-        <v>10.71</v>
+        <v>10.82</v>
       </c>
       <c r="D133" t="n">
-        <v>10.71</v>
+        <v>10.82</v>
       </c>
       <c r="E133" t="n">
-        <v>10.71</v>
+        <v>10.82</v>
       </c>
       <c r="F133" t="n">
-        <v>1221.32</v>
+        <v>55</v>
       </c>
       <c r="G133" t="n">
-        <v>10.57016666666666</v>
+        <v>10.56499999999999</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
@@ -5081,16 +5065,16 @@
         <v>10.71</v>
       </c>
       <c r="F134" t="n">
-        <v>4000</v>
+        <v>1221.32</v>
       </c>
       <c r="G134" t="n">
-        <v>10.57549999999999</v>
+        <v>10.57016666666666</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
@@ -5116,10 +5100,10 @@
         <v>10.71</v>
       </c>
       <c r="F135" t="n">
-        <v>36829.1707</v>
+        <v>4000</v>
       </c>
       <c r="G135" t="n">
-        <v>10.58083333333333</v>
+        <v>10.57549999999999</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5139,22 +5123,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>10.65</v>
+        <v>10.71</v>
       </c>
       <c r="C136" t="n">
-        <v>10.65</v>
+        <v>10.71</v>
       </c>
       <c r="D136" t="n">
-        <v>10.65</v>
+        <v>10.71</v>
       </c>
       <c r="E136" t="n">
-        <v>10.65</v>
+        <v>10.71</v>
       </c>
       <c r="F136" t="n">
-        <v>56459.12</v>
+        <v>36829.1707</v>
       </c>
       <c r="G136" t="n">
-        <v>10.58549999999999</v>
+        <v>10.58083333333333</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5186,10 +5170,10 @@
         <v>10.65</v>
       </c>
       <c r="F137" t="n">
-        <v>23540.88</v>
+        <v>56459.12</v>
       </c>
       <c r="G137" t="n">
-        <v>10.58683333333333</v>
+        <v>10.58549999999999</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5209,22 +5193,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>10.71</v>
+        <v>10.65</v>
       </c>
       <c r="C138" t="n">
-        <v>10.56</v>
+        <v>10.65</v>
       </c>
       <c r="D138" t="n">
-        <v>10.71</v>
+        <v>10.65</v>
       </c>
       <c r="E138" t="n">
-        <v>10.56</v>
+        <v>10.65</v>
       </c>
       <c r="F138" t="n">
-        <v>535.74</v>
+        <v>23540.88</v>
       </c>
       <c r="G138" t="n">
-        <v>10.58999999999999</v>
+        <v>10.58683333333333</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5244,22 +5228,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>10.56</v>
+        <v>10.71</v>
       </c>
       <c r="C139" t="n">
         <v>10.56</v>
       </c>
       <c r="D139" t="n">
-        <v>10.56</v>
+        <v>10.71</v>
       </c>
       <c r="E139" t="n">
         <v>10.56</v>
       </c>
       <c r="F139" t="n">
-        <v>22461.0924</v>
+        <v>535.74</v>
       </c>
       <c r="G139" t="n">
-        <v>10.59016666666666</v>
+        <v>10.58999999999999</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5279,22 +5263,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>10.71</v>
+        <v>10.56</v>
       </c>
       <c r="C140" t="n">
-        <v>10.71</v>
+        <v>10.56</v>
       </c>
       <c r="D140" t="n">
-        <v>10.71</v>
+        <v>10.56</v>
       </c>
       <c r="E140" t="n">
-        <v>10.71</v>
+        <v>10.56</v>
       </c>
       <c r="F140" t="n">
-        <v>10896.26517273576</v>
+        <v>22461.0924</v>
       </c>
       <c r="G140" t="n">
-        <v>10.59483333333333</v>
+        <v>10.59016666666666</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5314,22 +5298,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>10.56</v>
+        <v>10.71</v>
       </c>
       <c r="C141" t="n">
-        <v>10.56</v>
+        <v>10.71</v>
       </c>
       <c r="D141" t="n">
-        <v>10.56</v>
+        <v>10.71</v>
       </c>
       <c r="E141" t="n">
-        <v>10.56</v>
+        <v>10.71</v>
       </c>
       <c r="F141" t="n">
-        <v>13041.131</v>
+        <v>10896.26517273576</v>
       </c>
       <c r="G141" t="n">
-        <v>10.59516666666666</v>
+        <v>10.59483333333333</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5361,10 +5345,10 @@
         <v>10.56</v>
       </c>
       <c r="F142" t="n">
-        <v>40829.1707</v>
+        <v>13041.131</v>
       </c>
       <c r="G142" t="n">
-        <v>10.59566666666666</v>
+        <v>10.59516666666666</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5396,10 +5380,10 @@
         <v>10.56</v>
       </c>
       <c r="F143" t="n">
-        <v>12645.5629</v>
+        <v>40829.1707</v>
       </c>
       <c r="G143" t="n">
-        <v>10.59916666666666</v>
+        <v>10.59566666666666</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5419,22 +5403,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>10.55</v>
+        <v>10.56</v>
       </c>
       <c r="C144" t="n">
-        <v>10.27</v>
+        <v>10.56</v>
       </c>
       <c r="D144" t="n">
-        <v>10.55</v>
+        <v>10.56</v>
       </c>
       <c r="E144" t="n">
-        <v>10.27</v>
+        <v>10.56</v>
       </c>
       <c r="F144" t="n">
-        <v>626237.0503999999</v>
+        <v>12645.5629</v>
       </c>
       <c r="G144" t="n">
-        <v>10.59783333333332</v>
+        <v>10.59916666666666</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5454,22 +5438,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>10.5</v>
+        <v>10.55</v>
       </c>
       <c r="C145" t="n">
-        <v>10.5</v>
+        <v>10.27</v>
       </c>
       <c r="D145" t="n">
-        <v>10.5</v>
+        <v>10.55</v>
       </c>
       <c r="E145" t="n">
-        <v>10.5</v>
+        <v>10.27</v>
       </c>
       <c r="F145" t="n">
-        <v>22113.315</v>
+        <v>626237.0503999999</v>
       </c>
       <c r="G145" t="n">
-        <v>10.59849999999999</v>
+        <v>10.59783333333332</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5489,22 +5473,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>10.36</v>
+        <v>10.5</v>
       </c>
       <c r="C146" t="n">
-        <v>10.36</v>
+        <v>10.5</v>
       </c>
       <c r="D146" t="n">
-        <v>10.36</v>
+        <v>10.5</v>
       </c>
       <c r="E146" t="n">
-        <v>10.36</v>
+        <v>10.5</v>
       </c>
       <c r="F146" t="n">
-        <v>10669.9266</v>
+        <v>22113.315</v>
       </c>
       <c r="G146" t="n">
-        <v>10.59549999999999</v>
+        <v>10.59849999999999</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5524,22 +5508,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>10.37</v>
+        <v>10.36</v>
       </c>
       <c r="C147" t="n">
         <v>10.36</v>
       </c>
       <c r="D147" t="n">
-        <v>10.37</v>
+        <v>10.36</v>
       </c>
       <c r="E147" t="n">
         <v>10.36</v>
       </c>
       <c r="F147" t="n">
-        <v>23077.1497</v>
+        <v>10669.9266</v>
       </c>
       <c r="G147" t="n">
-        <v>10.59249999999999</v>
+        <v>10.59549999999999</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5559,22 +5543,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>10.31</v>
+        <v>10.37</v>
       </c>
       <c r="C148" t="n">
-        <v>10.48</v>
+        <v>10.36</v>
       </c>
       <c r="D148" t="n">
-        <v>10.48</v>
+        <v>10.37</v>
       </c>
       <c r="E148" t="n">
-        <v>10.31</v>
+        <v>10.36</v>
       </c>
       <c r="F148" t="n">
-        <v>8660.179099999999</v>
+        <v>23077.1497</v>
       </c>
       <c r="G148" t="n">
-        <v>10.59349999999999</v>
+        <v>10.59249999999999</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5594,7 +5578,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>10.48</v>
+        <v>10.31</v>
       </c>
       <c r="C149" t="n">
         <v>10.48</v>
@@ -5603,13 +5587,13 @@
         <v>10.48</v>
       </c>
       <c r="E149" t="n">
-        <v>10.48</v>
+        <v>10.31</v>
       </c>
       <c r="F149" t="n">
-        <v>4759.0648</v>
+        <v>8660.179099999999</v>
       </c>
       <c r="G149" t="n">
-        <v>10.59233333333333</v>
+        <v>10.59349999999999</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5629,22 +5613,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>10.49</v>
+        <v>10.48</v>
       </c>
       <c r="C150" t="n">
-        <v>10.49</v>
+        <v>10.48</v>
       </c>
       <c r="D150" t="n">
-        <v>10.49</v>
+        <v>10.48</v>
       </c>
       <c r="E150" t="n">
-        <v>10.49</v>
+        <v>10.48</v>
       </c>
       <c r="F150" t="n">
-        <v>38000</v>
+        <v>4759.0648</v>
       </c>
       <c r="G150" t="n">
-        <v>10.59149999999999</v>
+        <v>10.59233333333333</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5664,22 +5648,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>10.35</v>
+        <v>10.49</v>
       </c>
       <c r="C151" t="n">
-        <v>10.35</v>
+        <v>10.49</v>
       </c>
       <c r="D151" t="n">
-        <v>10.35</v>
+        <v>10.49</v>
       </c>
       <c r="E151" t="n">
-        <v>10.35</v>
+        <v>10.49</v>
       </c>
       <c r="F151" t="n">
-        <v>48675.1803</v>
+        <v>38000</v>
       </c>
       <c r="G151" t="n">
-        <v>10.58833333333333</v>
+        <v>10.59149999999999</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5699,22 +5683,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>10.4</v>
+        <v>10.35</v>
       </c>
       <c r="C152" t="n">
-        <v>10.46</v>
+        <v>10.35</v>
       </c>
       <c r="D152" t="n">
-        <v>10.46</v>
+        <v>10.35</v>
       </c>
       <c r="E152" t="n">
-        <v>10.4</v>
+        <v>10.35</v>
       </c>
       <c r="F152" t="n">
-        <v>26903.1644</v>
+        <v>48675.1803</v>
       </c>
       <c r="G152" t="n">
-        <v>10.587</v>
+        <v>10.58833333333333</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5734,22 +5718,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="C153" t="n">
         <v>10.46</v>
       </c>
-      <c r="C153" t="n">
-        <v>10.47</v>
-      </c>
       <c r="D153" t="n">
-        <v>10.47</v>
+        <v>10.46</v>
       </c>
       <c r="E153" t="n">
-        <v>10.46</v>
+        <v>10.4</v>
       </c>
       <c r="F153" t="n">
-        <v>15225</v>
+        <v>26903.1644</v>
       </c>
       <c r="G153" t="n">
-        <v>10.58583333333333</v>
+        <v>10.587</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5769,7 +5753,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>10.47</v>
+        <v>10.46</v>
       </c>
       <c r="C154" t="n">
         <v>10.47</v>
@@ -5778,23 +5762,29 @@
         <v>10.47</v>
       </c>
       <c r="E154" t="n">
-        <v>10.47</v>
+        <v>10.46</v>
       </c>
       <c r="F154" t="n">
-        <v>5762.1776504298</v>
+        <v>15225</v>
       </c>
       <c r="G154" t="n">
-        <v>10.5845</v>
+        <v>10.58583333333333</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>10.46</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5816,10 +5806,10 @@
         <v>10.47</v>
       </c>
       <c r="F155" t="n">
-        <v>1000</v>
+        <v>5762.1776504298</v>
       </c>
       <c r="G155" t="n">
-        <v>10.58333333333333</v>
+        <v>10.5845</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5829,7 +5819,11 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5839,32 +5833,38 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>10.36</v>
+        <v>10.47</v>
       </c>
       <c r="C156" t="n">
-        <v>10.36</v>
+        <v>10.47</v>
       </c>
       <c r="D156" t="n">
-        <v>10.36</v>
+        <v>10.47</v>
       </c>
       <c r="E156" t="n">
-        <v>10.36</v>
+        <v>10.47</v>
       </c>
       <c r="F156" t="n">
-        <v>115.4666</v>
+        <v>1000</v>
       </c>
       <c r="G156" t="n">
-        <v>10.5835</v>
+        <v>10.58333333333333</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>10.47</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5877,29 +5877,35 @@
         <v>10.36</v>
       </c>
       <c r="C157" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="D157" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="E157" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="F157" t="n">
+        <v>115.4666</v>
+      </c>
+      <c r="G157" t="n">
+        <v>10.5835</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
         <v>10.47</v>
       </c>
-      <c r="D157" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="E157" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="F157" t="n">
-        <v>163942.4497933142</v>
-      </c>
-      <c r="G157" t="n">
-        <v>10.5825</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5909,22 +5915,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>10.35</v>
+        <v>10.36</v>
       </c>
       <c r="C158" t="n">
-        <v>10.35</v>
+        <v>10.47</v>
       </c>
       <c r="D158" t="n">
-        <v>10.35</v>
+        <v>10.47</v>
       </c>
       <c r="E158" t="n">
         <v>10.35</v>
       </c>
       <c r="F158" t="n">
-        <v>155.12</v>
+        <v>163942.4497933142</v>
       </c>
       <c r="G158" t="n">
-        <v>10.57933333333333</v>
+        <v>10.5825</v>
       </c>
       <c r="H158" t="n">
         <v>1</v>
@@ -5933,12 +5939,14 @@
         <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="K158" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="L158" t="inlineStr"/>
+        <v>10.36</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5948,38 +5956,36 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="C159" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="D159" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="E159" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="F159" t="n">
+        <v>155.12</v>
+      </c>
+      <c r="G159" t="n">
+        <v>10.57933333333333</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
         <v>10.47</v>
       </c>
-      <c r="C159" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="D159" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="E159" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="F159" t="n">
-        <v>5057.6688</v>
-      </c>
-      <c r="G159" t="n">
-        <v>10.578</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="K159" t="n">
-        <v>10.47</v>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M159" t="n">
@@ -5991,38 +5997,36 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="C160" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="D160" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="E160" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="F160" t="n">
+        <v>5057.6688</v>
+      </c>
+      <c r="G160" t="n">
+        <v>10.578</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
         <v>10.35</v>
       </c>
-      <c r="C160" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="D160" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="E160" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="F160" t="n">
-        <v>49.9996</v>
-      </c>
-      <c r="G160" t="n">
-        <v>10.57466666666667</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="K160" t="n">
-        <v>10.47</v>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M160" t="n">
@@ -6046,24 +6050,24 @@
         <v>10.35</v>
       </c>
       <c r="F161" t="n">
-        <v>12783.8587</v>
+        <v>49.9996</v>
       </c>
       <c r="G161" t="n">
-        <v>10.57116666666667</v>
+        <v>10.57466666666667</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="K161" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="L161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6073,22 +6077,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>10.47</v>
+        <v>10.35</v>
       </c>
       <c r="C162" t="n">
-        <v>10.47</v>
+        <v>10.35</v>
       </c>
       <c r="D162" t="n">
-        <v>10.47</v>
+        <v>10.35</v>
       </c>
       <c r="E162" t="n">
-        <v>10.47</v>
+        <v>10.35</v>
       </c>
       <c r="F162" t="n">
-        <v>48.1</v>
+        <v>12783.8587</v>
       </c>
       <c r="G162" t="n">
-        <v>10.57166666666667</v>
+        <v>10.57116666666667</v>
       </c>
       <c r="H162" t="n">
         <v>1</v>
@@ -6099,12 +6103,10 @@
       <c r="J162" t="n">
         <v>10.35</v>
       </c>
-      <c r="K162" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M162" t="n">
@@ -6116,36 +6118,36 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>10.37</v>
+        <v>10.47</v>
       </c>
       <c r="C163" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="D163" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="E163" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="F163" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="G163" t="n">
+        <v>10.57166666666667</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
         <v>10.35</v>
       </c>
-      <c r="D163" t="n">
-        <v>10.37</v>
-      </c>
-      <c r="E163" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="F163" t="n">
-        <v>194000.5233</v>
-      </c>
-      <c r="G163" t="n">
-        <v>10.56816666666667</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M163" t="n">
@@ -6157,33 +6159,33 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>10.36</v>
+        <v>10.37</v>
       </c>
       <c r="C164" t="n">
-        <v>10.36</v>
+        <v>10.35</v>
       </c>
       <c r="D164" t="n">
-        <v>10.36</v>
+        <v>10.37</v>
       </c>
       <c r="E164" t="n">
-        <v>10.36</v>
+        <v>10.35</v>
       </c>
       <c r="F164" t="n">
-        <v>994</v>
+        <v>194000.5233</v>
       </c>
       <c r="G164" t="n">
-        <v>10.56433333333334</v>
+        <v>10.56816666666667</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="J164" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6198,22 +6200,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>10.47</v>
+        <v>10.36</v>
       </c>
       <c r="C165" t="n">
-        <v>10.47</v>
+        <v>10.36</v>
       </c>
       <c r="D165" t="n">
-        <v>10.47</v>
+        <v>10.36</v>
       </c>
       <c r="E165" t="n">
-        <v>10.47</v>
+        <v>10.36</v>
       </c>
       <c r="F165" t="n">
-        <v>48</v>
+        <v>994</v>
       </c>
       <c r="G165" t="n">
-        <v>10.56100000000001</v>
+        <v>10.56433333333334</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6222,9 +6224,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6251,23 +6251,19 @@
         <v>10.47</v>
       </c>
       <c r="F166" t="n">
-        <v>21128.91285625597</v>
+        <v>48</v>
       </c>
       <c r="G166" t="n">
-        <v>10.56166666666667</v>
+        <v>10.56100000000001</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="K166" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6282,22 +6278,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>10.57</v>
+        <v>10.47</v>
       </c>
       <c r="C167" t="n">
-        <v>10.57</v>
+        <v>10.47</v>
       </c>
       <c r="D167" t="n">
-        <v>10.57</v>
+        <v>10.47</v>
       </c>
       <c r="E167" t="n">
-        <v>10.57</v>
+        <v>10.47</v>
       </c>
       <c r="F167" t="n">
-        <v>48.1</v>
+        <v>21128.91285625597</v>
       </c>
       <c r="G167" t="n">
-        <v>10.56100000000001</v>
+        <v>10.56166666666667</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6306,9 +6302,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6323,22 +6317,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>10.42</v>
+        <v>10.57</v>
       </c>
       <c r="C168" t="n">
-        <v>10.54</v>
+        <v>10.57</v>
       </c>
       <c r="D168" t="n">
-        <v>10.54</v>
+        <v>10.57</v>
       </c>
       <c r="E168" t="n">
-        <v>10.42</v>
+        <v>10.57</v>
       </c>
       <c r="F168" t="n">
-        <v>18266.2249</v>
+        <v>48.1</v>
       </c>
       <c r="G168" t="n">
-        <v>10.55850000000001</v>
+        <v>10.56100000000001</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6347,9 +6341,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6364,22 +6356,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>10.5</v>
+        <v>10.42</v>
       </c>
       <c r="C169" t="n">
-        <v>10.5</v>
+        <v>10.54</v>
       </c>
       <c r="D169" t="n">
-        <v>10.5</v>
+        <v>10.54</v>
       </c>
       <c r="E169" t="n">
-        <v>10.5</v>
+        <v>10.42</v>
       </c>
       <c r="F169" t="n">
-        <v>171.8674</v>
+        <v>18266.2249</v>
       </c>
       <c r="G169" t="n">
-        <v>10.55533333333334</v>
+        <v>10.55850000000001</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6388,9 +6380,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6417,10 +6407,10 @@
         <v>10.5</v>
       </c>
       <c r="F170" t="n">
-        <v>8888</v>
+        <v>171.8674</v>
       </c>
       <c r="G170" t="n">
-        <v>10.55216666666667</v>
+        <v>10.55533333333334</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6429,9 +6419,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6458,10 +6446,10 @@
         <v>10.5</v>
       </c>
       <c r="F171" t="n">
-        <v>33241.8677</v>
+        <v>8888</v>
       </c>
       <c r="G171" t="n">
-        <v>10.54883333333334</v>
+        <v>10.55216666666667</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6470,9 +6458,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6487,22 +6473,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>10.53</v>
+        <v>10.5</v>
       </c>
       <c r="C172" t="n">
-        <v>10.53</v>
+        <v>10.5</v>
       </c>
       <c r="D172" t="n">
-        <v>10.53</v>
+        <v>10.5</v>
       </c>
       <c r="E172" t="n">
-        <v>10.53</v>
+        <v>10.5</v>
       </c>
       <c r="F172" t="n">
-        <v>60.1</v>
+        <v>33241.8677</v>
       </c>
       <c r="G172" t="n">
-        <v>10.546</v>
+        <v>10.54883333333334</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6511,9 +6497,7 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6540,10 +6524,10 @@
         <v>10.53</v>
       </c>
       <c r="F173" t="n">
-        <v>1207</v>
+        <v>60.1</v>
       </c>
       <c r="G173" t="n">
-        <v>10.544</v>
+        <v>10.546</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6552,9 +6536,7 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6581,10 +6563,10 @@
         <v>10.53</v>
       </c>
       <c r="F174" t="n">
-        <v>851.9887</v>
+        <v>1207</v>
       </c>
       <c r="G174" t="n">
-        <v>10.5435</v>
+        <v>10.544</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6593,9 +6575,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6610,22 +6590,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>10.45</v>
+        <v>10.53</v>
       </c>
       <c r="C175" t="n">
-        <v>10.4</v>
+        <v>10.53</v>
       </c>
       <c r="D175" t="n">
-        <v>10.45</v>
+        <v>10.53</v>
       </c>
       <c r="E175" t="n">
-        <v>10.4</v>
+        <v>10.53</v>
       </c>
       <c r="F175" t="n">
-        <v>9622.119699999999</v>
+        <v>851.9887</v>
       </c>
       <c r="G175" t="n">
-        <v>10.541</v>
+        <v>10.5435</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6634,9 +6614,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6651,22 +6629,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>10.52</v>
+        <v>10.45</v>
       </c>
       <c r="C176" t="n">
         <v>10.4</v>
       </c>
       <c r="D176" t="n">
-        <v>10.52</v>
+        <v>10.45</v>
       </c>
       <c r="E176" t="n">
         <v>10.4</v>
       </c>
       <c r="F176" t="n">
-        <v>103696.697</v>
+        <v>9622.119699999999</v>
       </c>
       <c r="G176" t="n">
-        <v>10.53650000000001</v>
+        <v>10.541</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6675,9 +6653,7 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6692,22 +6668,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="C177" t="n">
         <v>10.4</v>
-      </c>
-      <c r="C177" t="n">
-        <v>10.52</v>
       </c>
       <c r="D177" t="n">
         <v>10.52</v>
       </c>
       <c r="E177" t="n">
-        <v>10.38</v>
+        <v>10.4</v>
       </c>
       <c r="F177" t="n">
-        <v>118220.7951</v>
+        <v>103696.697</v>
       </c>
       <c r="G177" t="n">
-        <v>10.534</v>
+        <v>10.53650000000001</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6716,9 +6692,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6733,22 +6707,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>10.37</v>
+        <v>10.4</v>
       </c>
       <c r="C178" t="n">
-        <v>10.37</v>
+        <v>10.52</v>
       </c>
       <c r="D178" t="n">
-        <v>10.37</v>
+        <v>10.52</v>
       </c>
       <c r="E178" t="n">
-        <v>10.37</v>
+        <v>10.38</v>
       </c>
       <c r="F178" t="n">
-        <v>9059.193799999999</v>
+        <v>118220.7951</v>
       </c>
       <c r="G178" t="n">
-        <v>10.53233333333334</v>
+        <v>10.534</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6757,9 +6731,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6774,22 +6746,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>10.51</v>
+        <v>10.37</v>
       </c>
       <c r="C179" t="n">
-        <v>10.51</v>
+        <v>10.37</v>
       </c>
       <c r="D179" t="n">
-        <v>10.51</v>
+        <v>10.37</v>
       </c>
       <c r="E179" t="n">
-        <v>10.51</v>
+        <v>10.37</v>
       </c>
       <c r="F179" t="n">
-        <v>48</v>
+        <v>9059.193799999999</v>
       </c>
       <c r="G179" t="n">
-        <v>10.533</v>
+        <v>10.53233333333334</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6798,9 +6770,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6815,22 +6785,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>10.37</v>
+        <v>10.51</v>
       </c>
       <c r="C180" t="n">
-        <v>10.37</v>
+        <v>10.51</v>
       </c>
       <c r="D180" t="n">
-        <v>10.37</v>
+        <v>10.51</v>
       </c>
       <c r="E180" t="n">
-        <v>10.37</v>
+        <v>10.51</v>
       </c>
       <c r="F180" t="n">
-        <v>122210.3973</v>
+        <v>48</v>
       </c>
       <c r="G180" t="n">
-        <v>10.53083333333334</v>
+        <v>10.533</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6839,9 +6809,7 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6868,10 +6836,10 @@
         <v>10.37</v>
       </c>
       <c r="F181" t="n">
-        <v>2163</v>
+        <v>122210.3973</v>
       </c>
       <c r="G181" t="n">
-        <v>10.529</v>
+        <v>10.53083333333334</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6880,9 +6848,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6900,16 +6866,16 @@
         <v>10.37</v>
       </c>
       <c r="C182" t="n">
-        <v>10.5</v>
+        <v>10.37</v>
       </c>
       <c r="D182" t="n">
-        <v>10.5</v>
+        <v>10.37</v>
       </c>
       <c r="E182" t="n">
         <v>10.37</v>
       </c>
       <c r="F182" t="n">
-        <v>2116</v>
+        <v>2163</v>
       </c>
       <c r="G182" t="n">
         <v>10.529</v>
@@ -6921,9 +6887,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6938,22 +6902,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>10.47</v>
+        <v>10.37</v>
       </c>
       <c r="C183" t="n">
-        <v>10.48</v>
+        <v>10.5</v>
       </c>
       <c r="D183" t="n">
-        <v>10.48</v>
+        <v>10.5</v>
       </c>
       <c r="E183" t="n">
-        <v>10.47</v>
+        <v>10.37</v>
       </c>
       <c r="F183" t="n">
-        <v>14066</v>
+        <v>2116</v>
       </c>
       <c r="G183" t="n">
-        <v>10.52600000000001</v>
+        <v>10.529</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6962,9 +6926,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6979,7 +6941,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>10.48</v>
+        <v>10.47</v>
       </c>
       <c r="C184" t="n">
         <v>10.48</v>
@@ -6988,13 +6950,13 @@
         <v>10.48</v>
       </c>
       <c r="E184" t="n">
-        <v>10.48</v>
+        <v>10.47</v>
       </c>
       <c r="F184" t="n">
-        <v>76723</v>
+        <v>14066</v>
       </c>
       <c r="G184" t="n">
-        <v>10.52300000000001</v>
+        <v>10.52600000000001</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7003,9 +6965,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7020,22 +6980,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>10.4</v>
+        <v>10.48</v>
       </c>
       <c r="C185" t="n">
-        <v>10.35</v>
+        <v>10.48</v>
       </c>
       <c r="D185" t="n">
-        <v>10.4</v>
+        <v>10.48</v>
       </c>
       <c r="E185" t="n">
-        <v>10.35</v>
+        <v>10.48</v>
       </c>
       <c r="F185" t="n">
-        <v>500000</v>
+        <v>76723</v>
       </c>
       <c r="G185" t="n">
-        <v>10.51766666666667</v>
+        <v>10.52300000000001</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7044,9 +7004,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7061,22 +7019,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>10.48</v>
+        <v>10.4</v>
       </c>
       <c r="C186" t="n">
-        <v>10.48</v>
+        <v>10.35</v>
       </c>
       <c r="D186" t="n">
-        <v>10.48</v>
+        <v>10.4</v>
       </c>
       <c r="E186" t="n">
-        <v>10.48</v>
+        <v>10.35</v>
       </c>
       <c r="F186" t="n">
-        <v>55335</v>
+        <v>500000</v>
       </c>
       <c r="G186" t="n">
-        <v>10.51400000000001</v>
+        <v>10.51766666666667</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7085,9 +7043,7 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7102,7 +7058,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>10.37</v>
+        <v>10.48</v>
       </c>
       <c r="C187" t="n">
         <v>10.48</v>
@@ -7111,13 +7067,13 @@
         <v>10.48</v>
       </c>
       <c r="E187" t="n">
-        <v>10.37</v>
+        <v>10.48</v>
       </c>
       <c r="F187" t="n">
-        <v>145617.7843</v>
+        <v>55335</v>
       </c>
       <c r="G187" t="n">
-        <v>10.51033333333334</v>
+        <v>10.51400000000001</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7126,9 +7082,7 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7143,22 +7097,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="C188" t="n">
         <v>10.48</v>
       </c>
-      <c r="C188" t="n">
-        <v>10.49</v>
-      </c>
       <c r="D188" t="n">
-        <v>10.49</v>
+        <v>10.48</v>
       </c>
       <c r="E188" t="n">
-        <v>10.48</v>
+        <v>10.37</v>
       </c>
       <c r="F188" t="n">
-        <v>24793.5626</v>
+        <v>145617.7843</v>
       </c>
       <c r="G188" t="n">
-        <v>10.50350000000001</v>
+        <v>10.51033333333334</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7167,9 +7121,7 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7184,7 +7136,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>10.49</v>
+        <v>10.48</v>
       </c>
       <c r="C189" t="n">
         <v>10.49</v>
@@ -7193,13 +7145,13 @@
         <v>10.49</v>
       </c>
       <c r="E189" t="n">
-        <v>10.49</v>
+        <v>10.48</v>
       </c>
       <c r="F189" t="n">
-        <v>79952</v>
+        <v>24793.5626</v>
       </c>
       <c r="G189" t="n">
-        <v>10.49816666666667</v>
+        <v>10.50350000000001</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7208,9 +7160,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7225,22 +7175,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>10.52</v>
+        <v>10.49</v>
       </c>
       <c r="C190" t="n">
-        <v>10.52</v>
+        <v>10.49</v>
       </c>
       <c r="D190" t="n">
-        <v>10.52</v>
+        <v>10.49</v>
       </c>
       <c r="E190" t="n">
-        <v>10.52</v>
+        <v>10.49</v>
       </c>
       <c r="F190" t="n">
-        <v>48</v>
+        <v>79952</v>
       </c>
       <c r="G190" t="n">
-        <v>10.49350000000001</v>
+        <v>10.49816666666667</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7249,9 +7199,7 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7281,7 +7229,7 @@
         <v>48</v>
       </c>
       <c r="G191" t="n">
-        <v>10.48866666666668</v>
+        <v>10.49350000000001</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7290,9 +7238,7 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7307,22 +7253,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>10.51</v>
+        <v>10.52</v>
       </c>
       <c r="C192" t="n">
-        <v>10.51</v>
+        <v>10.52</v>
       </c>
       <c r="D192" t="n">
-        <v>10.51</v>
+        <v>10.52</v>
       </c>
       <c r="E192" t="n">
-        <v>10.51</v>
+        <v>10.52</v>
       </c>
       <c r="F192" t="n">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="G192" t="n">
-        <v>10.48350000000001</v>
+        <v>10.48866666666668</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7331,9 +7277,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7348,22 +7292,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>10.49</v>
+        <v>10.51</v>
       </c>
       <c r="C193" t="n">
-        <v>10.49</v>
+        <v>10.51</v>
       </c>
       <c r="D193" t="n">
-        <v>10.49</v>
+        <v>10.51</v>
       </c>
       <c r="E193" t="n">
-        <v>10.49</v>
+        <v>10.51</v>
       </c>
       <c r="F193" t="n">
-        <v>7586.582</v>
+        <v>100</v>
       </c>
       <c r="G193" t="n">
-        <v>10.47983333333334</v>
+        <v>10.48350000000001</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7372,9 +7316,7 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7401,10 +7343,10 @@
         <v>10.49</v>
       </c>
       <c r="F194" t="n">
-        <v>269</v>
+        <v>7586.582</v>
       </c>
       <c r="G194" t="n">
-        <v>10.47616666666667</v>
+        <v>10.47983333333334</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7413,9 +7355,7 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7430,22 +7370,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>10.36</v>
+        <v>10.49</v>
       </c>
       <c r="C195" t="n">
-        <v>10.36</v>
+        <v>10.49</v>
       </c>
       <c r="D195" t="n">
-        <v>10.36</v>
+        <v>10.49</v>
       </c>
       <c r="E195" t="n">
-        <v>10.36</v>
+        <v>10.49</v>
       </c>
       <c r="F195" t="n">
-        <v>50</v>
+        <v>269</v>
       </c>
       <c r="G195" t="n">
-        <v>10.47033333333334</v>
+        <v>10.47616666666667</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7454,9 +7394,7 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7471,22 +7409,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>10.49</v>
+        <v>10.36</v>
       </c>
       <c r="C196" t="n">
-        <v>10.5</v>
+        <v>10.36</v>
       </c>
       <c r="D196" t="n">
-        <v>10.5</v>
+        <v>10.36</v>
       </c>
       <c r="E196" t="n">
-        <v>10.49</v>
+        <v>10.36</v>
       </c>
       <c r="F196" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G196" t="n">
-        <v>10.46783333333334</v>
+        <v>10.47033333333334</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7495,9 +7433,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7512,22 +7448,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="C197" t="n">
         <v>10.5</v>
       </c>
-      <c r="C197" t="n">
-        <v>10.52</v>
-      </c>
       <c r="D197" t="n">
-        <v>10.52</v>
+        <v>10.5</v>
       </c>
       <c r="E197" t="n">
-        <v>10.5</v>
+        <v>10.49</v>
       </c>
       <c r="F197" t="n">
-        <v>9443</v>
+        <v>48</v>
       </c>
       <c r="G197" t="n">
-        <v>10.46566666666667</v>
+        <v>10.46783333333334</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7536,9 +7472,7 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7553,22 +7487,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>10.36</v>
+        <v>10.5</v>
       </c>
       <c r="C198" t="n">
-        <v>10.36</v>
+        <v>10.52</v>
       </c>
       <c r="D198" t="n">
-        <v>10.36</v>
+        <v>10.52</v>
       </c>
       <c r="E198" t="n">
-        <v>10.36</v>
+        <v>10.5</v>
       </c>
       <c r="F198" t="n">
-        <v>39140.4086</v>
+        <v>9443</v>
       </c>
       <c r="G198" t="n">
-        <v>10.46233333333334</v>
+        <v>10.46566666666667</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7577,9 +7511,7 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7594,22 +7526,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>10.49</v>
+        <v>10.36</v>
       </c>
       <c r="C199" t="n">
-        <v>10.5</v>
+        <v>10.36</v>
       </c>
       <c r="D199" t="n">
-        <v>10.5</v>
+        <v>10.36</v>
       </c>
       <c r="E199" t="n">
-        <v>10.49</v>
+        <v>10.36</v>
       </c>
       <c r="F199" t="n">
-        <v>431614.401</v>
+        <v>39140.4086</v>
       </c>
       <c r="G199" t="n">
-        <v>10.46133333333334</v>
+        <v>10.46233333333334</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7618,9 +7550,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7635,7 +7565,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>10.5</v>
+        <v>10.49</v>
       </c>
       <c r="C200" t="n">
         <v>10.5</v>
@@ -7644,13 +7574,13 @@
         <v>10.5</v>
       </c>
       <c r="E200" t="n">
-        <v>10.5</v>
+        <v>10.49</v>
       </c>
       <c r="F200" t="n">
-        <v>333.3333333333333</v>
+        <v>431614.401</v>
       </c>
       <c r="G200" t="n">
-        <v>10.45783333333334</v>
+        <v>10.46133333333334</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7659,9 +7589,7 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7688,10 +7616,10 @@
         <v>10.5</v>
       </c>
       <c r="F201" t="n">
-        <v>69527</v>
+        <v>333.3333333333333</v>
       </c>
       <c r="G201" t="n">
-        <v>10.45683333333334</v>
+        <v>10.45783333333334</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7700,9 +7628,7 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7717,22 +7643,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>10.47</v>
+        <v>10.5</v>
       </c>
       <c r="C202" t="n">
-        <v>10.47</v>
+        <v>10.5</v>
       </c>
       <c r="D202" t="n">
-        <v>10.47</v>
+        <v>10.5</v>
       </c>
       <c r="E202" t="n">
-        <v>10.47</v>
+        <v>10.5</v>
       </c>
       <c r="F202" t="n">
-        <v>49</v>
+        <v>69527</v>
       </c>
       <c r="G202" t="n">
-        <v>10.45533333333334</v>
+        <v>10.45683333333334</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7741,9 +7667,7 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7770,10 +7694,10 @@
         <v>10.47</v>
       </c>
       <c r="F203" t="n">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="G203" t="n">
-        <v>10.45383333333334</v>
+        <v>10.45533333333334</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7782,9 +7706,7 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7811,10 +7733,10 @@
         <v>10.47</v>
       </c>
       <c r="F204" t="n">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="G204" t="n">
-        <v>10.45716666666668</v>
+        <v>10.45383333333334</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7823,9 +7745,7 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7840,22 +7760,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>10.36</v>
+        <v>10.47</v>
       </c>
       <c r="C205" t="n">
-        <v>10.36</v>
+        <v>10.47</v>
       </c>
       <c r="D205" t="n">
-        <v>10.36</v>
+        <v>10.47</v>
       </c>
       <c r="E205" t="n">
-        <v>10.36</v>
+        <v>10.47</v>
       </c>
       <c r="F205" t="n">
-        <v>39712.1126</v>
+        <v>52</v>
       </c>
       <c r="G205" t="n">
-        <v>10.45483333333335</v>
+        <v>10.45716666666668</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7864,9 +7784,7 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7893,7 +7811,7 @@
         <v>10.36</v>
       </c>
       <c r="F206" t="n">
-        <v>101486.5097</v>
+        <v>39712.1126</v>
       </c>
       <c r="G206" t="n">
         <v>10.45483333333335</v>
@@ -7905,9 +7823,7 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7922,22 +7838,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>10.42</v>
+        <v>10.36</v>
       </c>
       <c r="C207" t="n">
-        <v>10.42</v>
+        <v>10.36</v>
       </c>
       <c r="D207" t="n">
-        <v>10.42</v>
+        <v>10.36</v>
       </c>
       <c r="E207" t="n">
-        <v>10.42</v>
+        <v>10.36</v>
       </c>
       <c r="F207" t="n">
-        <v>33241.8677</v>
+        <v>101486.5097</v>
       </c>
       <c r="G207" t="n">
-        <v>10.45583333333335</v>
+        <v>10.45483333333335</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7946,9 +7862,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7963,22 +7877,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>10.46</v>
+        <v>10.42</v>
       </c>
       <c r="C208" t="n">
-        <v>10.46</v>
+        <v>10.42</v>
       </c>
       <c r="D208" t="n">
-        <v>10.46</v>
+        <v>10.42</v>
       </c>
       <c r="E208" t="n">
-        <v>10.46</v>
+        <v>10.42</v>
       </c>
       <c r="F208" t="n">
-        <v>47.9998</v>
+        <v>33241.8677</v>
       </c>
       <c r="G208" t="n">
-        <v>10.45550000000001</v>
+        <v>10.45583333333335</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7987,9 +7901,7 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8016,10 +7928,10 @@
         <v>10.46</v>
       </c>
       <c r="F209" t="n">
-        <v>54438</v>
+        <v>47.9998</v>
       </c>
       <c r="G209" t="n">
-        <v>10.45516666666668</v>
+        <v>10.45550000000001</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8028,9 +7940,7 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8057,10 +7967,10 @@
         <v>10.46</v>
       </c>
       <c r="F210" t="n">
-        <v>201</v>
+        <v>54438</v>
       </c>
       <c r="G210" t="n">
-        <v>10.45466666666668</v>
+        <v>10.45516666666668</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8069,9 +7979,7 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8098,10 +8006,10 @@
         <v>10.46</v>
       </c>
       <c r="F211" t="n">
-        <v>59</v>
+        <v>201</v>
       </c>
       <c r="G211" t="n">
-        <v>10.45650000000001</v>
+        <v>10.45466666666668</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8110,9 +8018,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8127,22 +8033,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>10.42</v>
+        <v>10.46</v>
       </c>
       <c r="C212" t="n">
-        <v>10.42</v>
+        <v>10.46</v>
       </c>
       <c r="D212" t="n">
-        <v>10.42</v>
+        <v>10.46</v>
       </c>
       <c r="E212" t="n">
-        <v>10.42</v>
+        <v>10.46</v>
       </c>
       <c r="F212" t="n">
-        <v>103793.2269</v>
+        <v>59</v>
       </c>
       <c r="G212" t="n">
-        <v>10.45583333333335</v>
+        <v>10.45650000000001</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8151,9 +8057,7 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8168,22 +8072,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>10.46</v>
+        <v>10.42</v>
       </c>
       <c r="C213" t="n">
-        <v>10.46</v>
+        <v>10.42</v>
       </c>
       <c r="D213" t="n">
-        <v>10.46</v>
+        <v>10.42</v>
       </c>
       <c r="E213" t="n">
-        <v>10.46</v>
+        <v>10.42</v>
       </c>
       <c r="F213" t="n">
-        <v>48.1</v>
+        <v>103793.2269</v>
       </c>
       <c r="G213" t="n">
-        <v>10.45566666666668</v>
+        <v>10.45583333333335</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8192,9 +8096,7 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8209,22 +8111,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>10.44</v>
+        <v>10.46</v>
       </c>
       <c r="C214" t="n">
-        <v>10.44</v>
+        <v>10.46</v>
       </c>
       <c r="D214" t="n">
-        <v>10.44</v>
+        <v>10.46</v>
       </c>
       <c r="E214" t="n">
-        <v>10.44</v>
+        <v>10.46</v>
       </c>
       <c r="F214" t="n">
-        <v>7035.9689</v>
+        <v>48.1</v>
       </c>
       <c r="G214" t="n">
-        <v>10.45516666666668</v>
+        <v>10.45566666666668</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8233,9 +8135,7 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8250,19 +8150,19 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>10.47</v>
+        <v>10.44</v>
       </c>
       <c r="C215" t="n">
-        <v>10.47</v>
+        <v>10.44</v>
       </c>
       <c r="D215" t="n">
-        <v>10.47</v>
+        <v>10.44</v>
       </c>
       <c r="E215" t="n">
-        <v>10.47</v>
+        <v>10.44</v>
       </c>
       <c r="F215" t="n">
-        <v>6000</v>
+        <v>7035.9689</v>
       </c>
       <c r="G215" t="n">
         <v>10.45516666666668</v>
@@ -8274,9 +8174,7 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8294,19 +8192,19 @@
         <v>10.47</v>
       </c>
       <c r="C216" t="n">
-        <v>10.5</v>
+        <v>10.47</v>
       </c>
       <c r="D216" t="n">
-        <v>10.5</v>
+        <v>10.47</v>
       </c>
       <c r="E216" t="n">
         <v>10.47</v>
       </c>
       <c r="F216" t="n">
-        <v>76073</v>
+        <v>6000</v>
       </c>
       <c r="G216" t="n">
-        <v>10.45750000000001</v>
+        <v>10.45516666666668</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8315,9 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8332,22 +8228,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>10.44</v>
+        <v>10.47</v>
       </c>
       <c r="C217" t="n">
-        <v>10.44</v>
+        <v>10.5</v>
       </c>
       <c r="D217" t="n">
-        <v>10.44</v>
+        <v>10.5</v>
       </c>
       <c r="E217" t="n">
-        <v>10.44</v>
+        <v>10.47</v>
       </c>
       <c r="F217" t="n">
-        <v>10606.0311</v>
+        <v>76073</v>
       </c>
       <c r="G217" t="n">
-        <v>10.45700000000001</v>
+        <v>10.45750000000001</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8356,9 +8252,7 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8373,22 +8267,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>10.5</v>
+        <v>10.44</v>
       </c>
       <c r="C218" t="n">
-        <v>10.5</v>
+        <v>10.44</v>
       </c>
       <c r="D218" t="n">
-        <v>10.5</v>
+        <v>10.44</v>
       </c>
       <c r="E218" t="n">
-        <v>10.5</v>
+        <v>10.44</v>
       </c>
       <c r="F218" t="n">
-        <v>47621.7502</v>
+        <v>10606.0311</v>
       </c>
       <c r="G218" t="n">
-        <v>10.45950000000001</v>
+        <v>10.45700000000001</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8397,9 +8291,7 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8426,10 +8318,10 @@
         <v>10.5</v>
       </c>
       <c r="F219" t="n">
-        <v>25000</v>
+        <v>47621.7502</v>
       </c>
       <c r="G219" t="n">
-        <v>10.46000000000001</v>
+        <v>10.45950000000001</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8438,9 +8330,7 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8467,10 +8357,10 @@
         <v>10.5</v>
       </c>
       <c r="F220" t="n">
-        <v>346478.1986666667</v>
+        <v>25000</v>
       </c>
       <c r="G220" t="n">
-        <v>10.46250000000001</v>
+        <v>10.46000000000001</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8479,9 +8369,7 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8496,22 +8384,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>10.58</v>
+        <v>10.5</v>
       </c>
       <c r="C221" t="n">
-        <v>10.58</v>
+        <v>10.5</v>
       </c>
       <c r="D221" t="n">
-        <v>10.58</v>
+        <v>10.5</v>
       </c>
       <c r="E221" t="n">
         <v>10.5</v>
       </c>
       <c r="F221" t="n">
-        <v>1158.1539</v>
+        <v>346478.1986666667</v>
       </c>
       <c r="G221" t="n">
-        <v>10.46633333333335</v>
+        <v>10.46250000000001</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8520,9 +8408,7 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8537,22 +8423,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>10.5</v>
+        <v>10.58</v>
       </c>
       <c r="C222" t="n">
-        <v>10.5</v>
+        <v>10.58</v>
       </c>
       <c r="D222" t="n">
-        <v>10.5</v>
+        <v>10.58</v>
       </c>
       <c r="E222" t="n">
         <v>10.5</v>
       </c>
       <c r="F222" t="n">
-        <v>245.1643</v>
+        <v>1158.1539</v>
       </c>
       <c r="G222" t="n">
-        <v>10.46683333333334</v>
+        <v>10.46633333333335</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8561,9 +8447,7 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8581,19 +8465,19 @@
         <v>10.5</v>
       </c>
       <c r="C223" t="n">
-        <v>10.38</v>
+        <v>10.5</v>
       </c>
       <c r="D223" t="n">
         <v>10.5</v>
       </c>
       <c r="E223" t="n">
-        <v>10.38</v>
+        <v>10.5</v>
       </c>
       <c r="F223" t="n">
-        <v>66551.7461</v>
+        <v>245.1643</v>
       </c>
       <c r="G223" t="n">
-        <v>10.46733333333334</v>
+        <v>10.46683333333334</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8602,9 +8486,7 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8622,19 +8504,19 @@
         <v>10.5</v>
       </c>
       <c r="C224" t="n">
-        <v>10.5</v>
+        <v>10.38</v>
       </c>
       <c r="D224" t="n">
         <v>10.5</v>
       </c>
       <c r="E224" t="n">
-        <v>10.5</v>
+        <v>10.38</v>
       </c>
       <c r="F224" t="n">
-        <v>48.1</v>
+        <v>66551.7461</v>
       </c>
       <c r="G224" t="n">
-        <v>10.46966666666668</v>
+        <v>10.46733333333334</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8643,9 +8525,7 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8660,7 +8540,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>10.38</v>
+        <v>10.5</v>
       </c>
       <c r="C225" t="n">
         <v>10.5</v>
@@ -8669,13 +8549,13 @@
         <v>10.5</v>
       </c>
       <c r="E225" t="n">
-        <v>10.38</v>
+        <v>10.5</v>
       </c>
       <c r="F225" t="n">
-        <v>24328.8567</v>
+        <v>48.1</v>
       </c>
       <c r="G225" t="n">
-        <v>10.47016666666668</v>
+        <v>10.46966666666668</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8684,9 +8564,7 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8701,22 +8579,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
+        <v>10.38</v>
+      </c>
+      <c r="C226" t="n">
         <v>10.5</v>
       </c>
-      <c r="C226" t="n">
-        <v>10.54</v>
-      </c>
       <c r="D226" t="n">
-        <v>10.54</v>
+        <v>10.5</v>
       </c>
       <c r="E226" t="n">
-        <v>10.5</v>
+        <v>10.38</v>
       </c>
       <c r="F226" t="n">
-        <v>8533</v>
+        <v>24328.8567</v>
       </c>
       <c r="G226" t="n">
-        <v>10.47133333333334</v>
+        <v>10.47016666666668</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8725,9 +8603,7 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8742,22 +8618,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="C227" t="n">
         <v>10.54</v>
       </c>
-      <c r="C227" t="n">
-        <v>10.58</v>
-      </c>
       <c r="D227" t="n">
-        <v>10.58</v>
+        <v>10.54</v>
       </c>
       <c r="E227" t="n">
-        <v>10.54</v>
+        <v>10.5</v>
       </c>
       <c r="F227" t="n">
-        <v>95334</v>
+        <v>8533</v>
       </c>
       <c r="G227" t="n">
-        <v>10.47150000000001</v>
+        <v>10.47133333333334</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8766,9 +8642,7 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8783,22 +8657,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>10.48</v>
+        <v>10.54</v>
       </c>
       <c r="C228" t="n">
-        <v>10.48</v>
+        <v>10.58</v>
       </c>
       <c r="D228" t="n">
-        <v>10.48</v>
+        <v>10.58</v>
       </c>
       <c r="E228" t="n">
-        <v>10.48</v>
+        <v>10.54</v>
       </c>
       <c r="F228" t="n">
-        <v>50.1</v>
+        <v>95334</v>
       </c>
       <c r="G228" t="n">
-        <v>10.47050000000001</v>
+        <v>10.47150000000001</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8807,9 +8681,7 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8824,22 +8696,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>10.58</v>
+        <v>10.48</v>
       </c>
       <c r="C229" t="n">
-        <v>10.58</v>
+        <v>10.48</v>
       </c>
       <c r="D229" t="n">
-        <v>10.58</v>
+        <v>10.48</v>
       </c>
       <c r="E229" t="n">
-        <v>10.58</v>
+        <v>10.48</v>
       </c>
       <c r="F229" t="n">
-        <v>100</v>
+        <v>50.1</v>
       </c>
       <c r="G229" t="n">
-        <v>10.47183333333334</v>
+        <v>10.47050000000001</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8848,9 +8720,7 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8865,22 +8735,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>10.57</v>
+        <v>10.58</v>
       </c>
       <c r="C230" t="n">
-        <v>10.57</v>
+        <v>10.58</v>
       </c>
       <c r="D230" t="n">
-        <v>10.57</v>
+        <v>10.58</v>
       </c>
       <c r="E230" t="n">
-        <v>10.57</v>
+        <v>10.58</v>
       </c>
       <c r="F230" t="n">
-        <v>444</v>
+        <v>100</v>
       </c>
       <c r="G230" t="n">
-        <v>10.47300000000001</v>
+        <v>10.47183333333334</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8889,9 +8759,7 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8915,13 +8783,13 @@
         <v>10.57</v>
       </c>
       <c r="E231" t="n">
-        <v>10.55</v>
+        <v>10.57</v>
       </c>
       <c r="F231" t="n">
-        <v>18715.1354</v>
+        <v>444</v>
       </c>
       <c r="G231" t="n">
-        <v>10.47416666666668</v>
+        <v>10.47300000000001</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8930,9 +8798,7 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8950,19 +8816,19 @@
         <v>10.57</v>
       </c>
       <c r="C232" t="n">
-        <v>10.68</v>
+        <v>10.57</v>
       </c>
       <c r="D232" t="n">
-        <v>10.68</v>
+        <v>10.57</v>
       </c>
       <c r="E232" t="n">
-        <v>10.57</v>
+        <v>10.55</v>
       </c>
       <c r="F232" t="n">
-        <v>124856</v>
+        <v>18715.1354</v>
       </c>
       <c r="G232" t="n">
-        <v>10.47666666666668</v>
+        <v>10.47416666666668</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8971,9 +8837,7 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8988,7 +8852,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>10.68</v>
+        <v>10.57</v>
       </c>
       <c r="C233" t="n">
         <v>10.68</v>
@@ -8997,13 +8861,13 @@
         <v>10.68</v>
       </c>
       <c r="E233" t="n">
-        <v>10.68</v>
+        <v>10.57</v>
       </c>
       <c r="F233" t="n">
-        <v>44614</v>
+        <v>124856</v>
       </c>
       <c r="G233" t="n">
-        <v>10.47916666666668</v>
+        <v>10.47666666666668</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -9012,9 +8876,7 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9041,10 +8903,10 @@
         <v>10.68</v>
       </c>
       <c r="F234" t="n">
-        <v>120</v>
+        <v>44614</v>
       </c>
       <c r="G234" t="n">
-        <v>10.48166666666668</v>
+        <v>10.47916666666668</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -9053,9 +8915,7 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>10.35</v>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9082,261 +8942,281 @@
         <v>10.68</v>
       </c>
       <c r="F235" t="n">
+        <v>120</v>
+      </c>
+      <c r="G235" t="n">
+        <v>10.48166666666668</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="C236" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="D236" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="E236" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="F236" t="n">
         <v>35222.048</v>
       </c>
-      <c r="G235" t="n">
+      <c r="G236" t="n">
         <v>10.48633333333334</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="L235" t="inlineStr">
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="C237" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="D237" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="E237" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="F237" t="n">
+        <v>7269.1276</v>
+      </c>
+      <c r="G237" t="n">
+        <v>10.49100000000001</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>10.71</v>
+      </c>
+      <c r="C238" t="n">
+        <v>10.71</v>
+      </c>
+      <c r="D238" t="n">
+        <v>10.71</v>
+      </c>
+      <c r="E238" t="n">
+        <v>10.71</v>
+      </c>
+      <c r="F238" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="G238" t="n">
+        <v>10.49416666666668</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>10.71</v>
+      </c>
+      <c r="C239" t="n">
+        <v>10.71</v>
+      </c>
+      <c r="D239" t="n">
+        <v>10.71</v>
+      </c>
+      <c r="E239" t="n">
+        <v>10.71</v>
+      </c>
+      <c r="F239" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G239" t="n">
+        <v>10.49983333333335</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>10.71</v>
+      </c>
+      <c r="C240" t="n">
+        <v>10.87</v>
+      </c>
+      <c r="D240" t="n">
+        <v>10.87</v>
+      </c>
+      <c r="E240" t="n">
+        <v>10.71</v>
+      </c>
+      <c r="F240" t="n">
+        <v>38441</v>
+      </c>
+      <c r="G240" t="n">
+        <v>10.50583333333335</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>10.72</v>
+      </c>
+      <c r="C241" t="n">
+        <v>10.72</v>
+      </c>
+      <c r="D241" t="n">
+        <v>10.72</v>
+      </c>
+      <c r="E241" t="n">
+        <v>10.72</v>
+      </c>
+      <c r="F241" t="n">
+        <v>96.0069</v>
+      </c>
+      <c r="G241" t="n">
+        <v>10.51166666666668</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>1</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M235" t="n">
-        <v>1.026884057971015</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="C236" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="D236" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="E236" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="F236" t="n">
-        <v>7269.1276</v>
-      </c>
-      <c r="G236" t="n">
-        <v>10.49100000000001</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>10.71</v>
-      </c>
-      <c r="C237" t="n">
-        <v>10.71</v>
-      </c>
-      <c r="D237" t="n">
-        <v>10.71</v>
-      </c>
-      <c r="E237" t="n">
-        <v>10.71</v>
-      </c>
-      <c r="F237" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="G237" t="n">
-        <v>10.49416666666668</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>10.71</v>
-      </c>
-      <c r="C238" t="n">
-        <v>10.71</v>
-      </c>
-      <c r="D238" t="n">
-        <v>10.71</v>
-      </c>
-      <c r="E238" t="n">
-        <v>10.71</v>
-      </c>
-      <c r="F238" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G238" t="n">
-        <v>10.49983333333335</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>10.71</v>
-      </c>
-      <c r="C239" t="n">
-        <v>10.87</v>
-      </c>
-      <c r="D239" t="n">
-        <v>10.87</v>
-      </c>
-      <c r="E239" t="n">
-        <v>10.71</v>
-      </c>
-      <c r="F239" t="n">
-        <v>38441</v>
-      </c>
-      <c r="G239" t="n">
-        <v>10.50583333333335</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>10.72</v>
-      </c>
-      <c r="C240" t="n">
-        <v>10.72</v>
-      </c>
-      <c r="D240" t="n">
-        <v>10.72</v>
-      </c>
-      <c r="E240" t="n">
-        <v>10.72</v>
-      </c>
-      <c r="F240" t="n">
-        <v>96.0069</v>
-      </c>
-      <c r="G240" t="n">
-        <v>10.51166666666668</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="C241" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="D241" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="E241" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="F241" t="n">
-        <v>149.2143</v>
-      </c>
-      <c r="G241" t="n">
-        <v>10.51633333333334</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>1</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>10.52</v>
+        <v>10.65</v>
       </c>
       <c r="C242" t="n">
-        <v>10.71</v>
+        <v>10.65</v>
       </c>
       <c r="D242" t="n">
-        <v>10.71</v>
+        <v>10.65</v>
       </c>
       <c r="E242" t="n">
-        <v>10.52</v>
+        <v>10.65</v>
       </c>
       <c r="F242" t="n">
-        <v>2553.4981</v>
+        <v>149.2143</v>
       </c>
       <c r="G242" t="n">
-        <v>10.51983333333335</v>
+        <v>10.51633333333334</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9356,28 +9236,28 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="C243" t="n">
         <v>10.71</v>
       </c>
-      <c r="C243" t="n">
-        <v>10.79</v>
-      </c>
       <c r="D243" t="n">
-        <v>10.79</v>
+        <v>10.71</v>
       </c>
       <c r="E243" t="n">
-        <v>10.71</v>
+        <v>10.52</v>
       </c>
       <c r="F243" t="n">
-        <v>22000</v>
+        <v>2553.4981</v>
       </c>
       <c r="G243" t="n">
-        <v>10.52500000000001</v>
+        <v>10.51983333333335</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
       </c>
       <c r="I243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
@@ -9391,28 +9271,28 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>10.78</v>
+        <v>10.71</v>
       </c>
       <c r="C244" t="n">
-        <v>10.78</v>
+        <v>10.79</v>
       </c>
       <c r="D244" t="n">
-        <v>10.78</v>
+        <v>10.79</v>
       </c>
       <c r="E244" t="n">
-        <v>10.78</v>
+        <v>10.71</v>
       </c>
       <c r="F244" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="G244" t="n">
-        <v>10.53000000000001</v>
+        <v>10.52500000000001</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
       </c>
       <c r="I244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
@@ -9426,22 +9306,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>10.79</v>
+        <v>10.78</v>
       </c>
       <c r="C245" t="n">
-        <v>10.79</v>
+        <v>10.78</v>
       </c>
       <c r="D245" t="n">
-        <v>10.79</v>
+        <v>10.78</v>
       </c>
       <c r="E245" t="n">
-        <v>10.79</v>
+        <v>10.78</v>
       </c>
       <c r="F245" t="n">
-        <v>47.09</v>
+        <v>20000</v>
       </c>
       <c r="G245" t="n">
-        <v>10.53733333333334</v>
+        <v>10.53000000000001</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9461,7 +9341,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>10.73</v>
+        <v>10.79</v>
       </c>
       <c r="C246" t="n">
         <v>10.79</v>
@@ -9470,19 +9350,19 @@
         <v>10.79</v>
       </c>
       <c r="E246" t="n">
-        <v>10.73</v>
+        <v>10.79</v>
       </c>
       <c r="F246" t="n">
-        <v>41270.523</v>
+        <v>47.09</v>
       </c>
       <c r="G246" t="n">
-        <v>10.54250000000001</v>
+        <v>10.53733333333334</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
       </c>
       <c r="I246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
@@ -9496,22 +9376,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>10.77</v>
+        <v>10.73</v>
       </c>
       <c r="C247" t="n">
-        <v>10.93</v>
+        <v>10.79</v>
       </c>
       <c r="D247" t="n">
-        <v>10.93</v>
+        <v>10.79</v>
       </c>
       <c r="E247" t="n">
-        <v>10.77</v>
+        <v>10.73</v>
       </c>
       <c r="F247" t="n">
-        <v>25744.2324</v>
+        <v>41270.523</v>
       </c>
       <c r="G247" t="n">
-        <v>10.55000000000001</v>
+        <v>10.54250000000001</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9531,28 +9411,28 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>10.87</v>
+        <v>10.77</v>
       </c>
       <c r="C248" t="n">
-        <v>10.88</v>
+        <v>10.93</v>
       </c>
       <c r="D248" t="n">
-        <v>10.88</v>
+        <v>10.93</v>
       </c>
       <c r="E248" t="n">
-        <v>10.87</v>
+        <v>10.77</v>
       </c>
       <c r="F248" t="n">
-        <v>10411.5079</v>
+        <v>25744.2324</v>
       </c>
       <c r="G248" t="n">
-        <v>10.55650000000001</v>
+        <v>10.55000000000001</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
       </c>
       <c r="I248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
@@ -9566,28 +9446,28 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
+        <v>10.87</v>
+      </c>
+      <c r="C249" t="n">
         <v>10.88</v>
       </c>
-      <c r="C249" t="n">
-        <v>10.9</v>
-      </c>
       <c r="D249" t="n">
-        <v>10.92</v>
+        <v>10.88</v>
       </c>
       <c r="E249" t="n">
-        <v>10.88</v>
+        <v>10.87</v>
       </c>
       <c r="F249" t="n">
-        <v>126317.4975</v>
+        <v>10411.5079</v>
       </c>
       <c r="G249" t="n">
-        <v>10.56333333333334</v>
+        <v>10.55650000000001</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
       </c>
       <c r="I249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
@@ -9601,28 +9481,28 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>10.87</v>
+        <v>10.88</v>
       </c>
       <c r="C250" t="n">
-        <v>10.5</v>
+        <v>10.9</v>
       </c>
       <c r="D250" t="n">
-        <v>10.87</v>
+        <v>10.92</v>
       </c>
       <c r="E250" t="n">
-        <v>10.5</v>
+        <v>10.88</v>
       </c>
       <c r="F250" t="n">
-        <v>49113.8391</v>
+        <v>126317.4975</v>
       </c>
       <c r="G250" t="n">
-        <v>10.56300000000001</v>
+        <v>10.56333333333334</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
       </c>
       <c r="I250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
@@ -9636,28 +9516,28 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>10.8</v>
+        <v>10.87</v>
       </c>
       <c r="C251" t="n">
-        <v>10.8</v>
+        <v>10.5</v>
       </c>
       <c r="D251" t="n">
-        <v>10.8</v>
+        <v>10.87</v>
       </c>
       <c r="E251" t="n">
-        <v>10.7</v>
+        <v>10.5</v>
       </c>
       <c r="F251" t="n">
-        <v>21901.8658</v>
+        <v>49113.8391</v>
       </c>
       <c r="G251" t="n">
-        <v>10.56766666666667</v>
+        <v>10.56300000000001</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
       </c>
       <c r="I251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
@@ -9674,19 +9554,19 @@
         <v>10.8</v>
       </c>
       <c r="C252" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="D252" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="E252" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="F252" t="n">
-        <v>34872.4956</v>
+        <v>21901.8658</v>
       </c>
       <c r="G252" t="n">
-        <v>10.57416666666667</v>
+        <v>10.56766666666667</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9706,22 +9586,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>10.89</v>
+        <v>10.8</v>
       </c>
       <c r="C253" t="n">
-        <v>10.92</v>
+        <v>10.9</v>
       </c>
       <c r="D253" t="n">
-        <v>10.92</v>
+        <v>10.9</v>
       </c>
       <c r="E253" t="n">
-        <v>10.89</v>
+        <v>10.8</v>
       </c>
       <c r="F253" t="n">
-        <v>79644.36289999999</v>
+        <v>34872.4956</v>
       </c>
       <c r="G253" t="n">
-        <v>10.58133333333334</v>
+        <v>10.57416666666667</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9741,22 +9621,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>10.8</v>
+        <v>10.89</v>
       </c>
       <c r="C254" t="n">
-        <v>10.99</v>
+        <v>10.92</v>
       </c>
       <c r="D254" t="n">
-        <v>10.99</v>
+        <v>10.92</v>
       </c>
       <c r="E254" t="n">
-        <v>10.8</v>
+        <v>10.89</v>
       </c>
       <c r="F254" t="n">
-        <v>91751.7972</v>
+        <v>79644.36289999999</v>
       </c>
       <c r="G254" t="n">
-        <v>10.58966666666667</v>
+        <v>10.58133333333334</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9776,22 +9656,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C255" t="n">
         <v>10.99</v>
       </c>
-      <c r="C255" t="n">
-        <v>10.71</v>
-      </c>
       <c r="D255" t="n">
-        <v>11</v>
+        <v>10.99</v>
       </c>
       <c r="E255" t="n">
-        <v>10.71</v>
+        <v>10.8</v>
       </c>
       <c r="F255" t="n">
-        <v>138771.3437</v>
+        <v>91751.7972</v>
       </c>
       <c r="G255" t="n">
-        <v>10.59550000000001</v>
+        <v>10.58966666666667</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9811,22 +9691,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>10.85</v>
+        <v>10.99</v>
       </c>
       <c r="C256" t="n">
         <v>10.71</v>
       </c>
       <c r="D256" t="n">
-        <v>10.85</v>
+        <v>11</v>
       </c>
       <c r="E256" t="n">
         <v>10.71</v>
       </c>
       <c r="F256" t="n">
-        <v>60000</v>
+        <v>138771.3437</v>
       </c>
       <c r="G256" t="n">
-        <v>10.59900000000001</v>
+        <v>10.59550000000001</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9846,22 +9726,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>10.81</v>
+        <v>10.85</v>
       </c>
       <c r="C257" t="n">
-        <v>10.81</v>
+        <v>10.71</v>
       </c>
       <c r="D257" t="n">
-        <v>10.81</v>
+        <v>10.85</v>
       </c>
       <c r="E257" t="n">
-        <v>10.81</v>
+        <v>10.71</v>
       </c>
       <c r="F257" t="n">
-        <v>7786</v>
+        <v>60000</v>
       </c>
       <c r="G257" t="n">
-        <v>10.60383333333334</v>
+        <v>10.59900000000001</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9884,19 +9764,19 @@
         <v>10.81</v>
       </c>
       <c r="C258" t="n">
-        <v>10.89</v>
+        <v>10.81</v>
       </c>
       <c r="D258" t="n">
-        <v>10.89</v>
+        <v>10.81</v>
       </c>
       <c r="E258" t="n">
         <v>10.81</v>
       </c>
       <c r="F258" t="n">
-        <v>34995.1889</v>
+        <v>7786</v>
       </c>
       <c r="G258" t="n">
-        <v>10.61266666666667</v>
+        <v>10.60383333333334</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9916,22 +9796,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>10.87</v>
+        <v>10.81</v>
       </c>
       <c r="C259" t="n">
-        <v>10.87</v>
+        <v>10.89</v>
       </c>
       <c r="D259" t="n">
-        <v>10.87</v>
+        <v>10.89</v>
       </c>
       <c r="E259" t="n">
-        <v>10.87</v>
+        <v>10.81</v>
       </c>
       <c r="F259" t="n">
-        <v>24859.0863</v>
+        <v>34995.1889</v>
       </c>
       <c r="G259" t="n">
-        <v>10.61883333333334</v>
+        <v>10.61266666666667</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9951,22 +9831,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>10.88</v>
+        <v>10.87</v>
       </c>
       <c r="C260" t="n">
-        <v>10.89</v>
+        <v>10.87</v>
       </c>
       <c r="D260" t="n">
-        <v>10.89</v>
+        <v>10.87</v>
       </c>
       <c r="E260" t="n">
-        <v>10.88</v>
+        <v>10.87</v>
       </c>
       <c r="F260" t="n">
-        <v>10522.6376</v>
+        <v>24859.0863</v>
       </c>
       <c r="G260" t="n">
-        <v>10.62533333333334</v>
+        <v>10.61883333333334</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9986,7 +9866,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>10.89</v>
+        <v>10.88</v>
       </c>
       <c r="C261" t="n">
         <v>10.89</v>
@@ -9995,13 +9875,13 @@
         <v>10.89</v>
       </c>
       <c r="E261" t="n">
-        <v>10.89</v>
+        <v>10.88</v>
       </c>
       <c r="F261" t="n">
-        <v>18665.0225</v>
+        <v>10522.6376</v>
       </c>
       <c r="G261" t="n">
-        <v>10.63183333333334</v>
+        <v>10.62533333333334</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -10024,19 +9904,19 @@
         <v>10.89</v>
       </c>
       <c r="C262" t="n">
-        <v>11.02</v>
+        <v>10.89</v>
       </c>
       <c r="D262" t="n">
-        <v>11.02</v>
+        <v>10.89</v>
       </c>
       <c r="E262" t="n">
         <v>10.89</v>
       </c>
       <c r="F262" t="n">
-        <v>100000</v>
+        <v>18665.0225</v>
       </c>
       <c r="G262" t="n">
-        <v>10.641</v>
+        <v>10.63183333333334</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -10056,22 +9936,22 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>10.81</v>
+        <v>10.89</v>
       </c>
       <c r="C263" t="n">
-        <v>10.81</v>
+        <v>11.02</v>
       </c>
       <c r="D263" t="n">
-        <v>10.81</v>
+        <v>11.02</v>
       </c>
       <c r="E263" t="n">
-        <v>10.81</v>
+        <v>10.89</v>
       </c>
       <c r="F263" t="n">
-        <v>265.4762</v>
+        <v>100000</v>
       </c>
       <c r="G263" t="n">
-        <v>10.64666666666667</v>
+        <v>10.641</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -10091,22 +9971,22 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>11</v>
+        <v>10.81</v>
       </c>
       <c r="C264" t="n">
-        <v>11</v>
+        <v>10.81</v>
       </c>
       <c r="D264" t="n">
-        <v>11</v>
+        <v>10.81</v>
       </c>
       <c r="E264" t="n">
-        <v>11</v>
+        <v>10.81</v>
       </c>
       <c r="F264" t="n">
-        <v>7583.4965</v>
+        <v>265.4762</v>
       </c>
       <c r="G264" t="n">
-        <v>10.6555</v>
+        <v>10.64666666666667</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -10126,22 +10006,22 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>11.01</v>
+        <v>11</v>
       </c>
       <c r="C265" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="D265" t="n">
-        <v>11.08</v>
+        <v>11</v>
       </c>
       <c r="E265" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="F265" t="n">
-        <v>75247.53364133574</v>
+        <v>7583.4965</v>
       </c>
       <c r="G265" t="n">
-        <v>10.6645</v>
+        <v>10.6555</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -10161,22 +10041,22 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>10.99</v>
+        <v>11.01</v>
       </c>
       <c r="C266" t="n">
-        <v>10.99</v>
+        <v>10.9</v>
       </c>
       <c r="D266" t="n">
-        <v>10.99</v>
+        <v>11.08</v>
       </c>
       <c r="E266" t="n">
-        <v>10.99</v>
+        <v>10.9</v>
       </c>
       <c r="F266" t="n">
-        <v>46</v>
+        <v>75247.53364133574</v>
       </c>
       <c r="G266" t="n">
-        <v>10.675</v>
+        <v>10.6645</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -10191,6 +10071,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="C267" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="D267" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="E267" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="F267" t="n">
+        <v>46</v>
+      </c>
+      <c r="G267" t="n">
+        <v>10.675</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
+      <c r="M267" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-15 BackTest OGO.xlsx
+++ b/BackTest/2020-01-15 BackTest OGO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N335"/>
+  <dimension ref="A1:M335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>571640.3612415836</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>571640.3612415836</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>646481.0122415836</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>646481.0122415836</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,15 @@
         <v>556520.3466415836</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>556520.3466415836</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1309,15 @@
         <v>401073.4893415836</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1573,15 @@
         <v>413529.5074415836</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3732,18 +3454,15 @@
         <v>394011.9190499022</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3768,18 +3487,15 @@
         <v>393661.9190499022</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3804,18 +3520,15 @@
         <v>393511.9190499022</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3840,18 +3553,15 @@
         <v>394058.2721499022</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3876,18 +3586,15 @@
         <v>-344563.5173368335</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3984,18 +3685,15 @@
         <v>-333091.5173368335</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4020,18 +3718,15 @@
         <v>-333041.5173368335</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4056,18 +3751,15 @@
         <v>-333041.5173368335</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5280,18 +4873,21 @@
         <v>-2478262.565964818</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>10.37</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5316,18 +4912,21 @@
         <v>-2478312.565964818</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>10.57</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4953,17 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4990,17 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5027,17 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5064,17 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5101,17 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5138,17 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5175,17 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5212,17 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5249,17 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5676,18 +5284,21 @@
         <v>-2369993.497564818</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>10.54</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5712,18 +5323,21 @@
         <v>-2355444.497564818</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>10.42</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5364,17 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5401,17 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5438,17 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5475,17 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5512,17 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5549,17 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5586,17 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5623,17 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5660,17 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5697,17 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5734,17 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5771,17 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +5808,17 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +5845,17 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5882,17 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +5919,17 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5956,17 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +5993,17 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +6030,17 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +6067,17 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +6104,17 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +6141,17 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6178,17 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6215,17 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6252,17 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6648,18 +6287,21 @@
         <v>-2669202.184694724</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>10.56</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +6328,17 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +6365,17 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +6402,17 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6792,18 +6437,21 @@
         <v>-2528846.835594724</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>10.47</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6828,18 +6476,21 @@
         <v>-2527846.835594724</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>10.47</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6864,18 +6515,21 @@
         <v>-2537740.572094724</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6902,16 +6556,17 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +6593,17 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +6630,17 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7008,18 +6665,21 @@
         <v>-2537361.705094724</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
+        <v>10.66</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7044,18 +6704,21 @@
         <v>-2311603.317090975</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>10.67</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7080,18 +6743,21 @@
         <v>-2311603.317090975</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
+        <v>10.7</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7116,18 +6782,21 @@
         <v>-2105579.960601418</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
+        <v>10.7</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,16 +6823,17 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7190,16 +6860,17 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7224,18 +6895,21 @@
         <v>-2115688.564966358</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>10.8</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7262,16 +6936,17 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7298,16 +6973,17 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7332,18 +7008,21 @@
         <v>-2116854.884966358</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="n">
-        <v>0</v>
+        <v>10.71</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7368,18 +7047,21 @@
         <v>-2116854.884966358</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
+        <v>10.71</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7404,18 +7086,21 @@
         <v>-2173314.004966358</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>10.71</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7440,18 +7125,21 @@
         <v>-2173314.004966358</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
+        <v>10.65</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7476,18 +7164,21 @@
         <v>-2173849.744966358</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="n">
-        <v>0</v>
+        <v>10.65</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7512,18 +7203,21 @@
         <v>-2173849.744966358</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="n">
-        <v>0</v>
+        <v>10.56</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7548,18 +7242,21 @@
         <v>-2162953.479793623</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
+        <v>10.56</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7584,18 +7281,21 @@
         <v>-2175994.610793623</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="n">
-        <v>0</v>
+        <v>10.71</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7622,16 +7322,17 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7656,18 +7357,21 @@
         <v>-2175994.610793623</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="n">
-        <v>0</v>
+        <v>10.56</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7692,18 +7396,21 @@
         <v>-2802231.661193623</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="n">
-        <v>0</v>
+        <v>10.56</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7728,18 +7435,21 @@
         <v>-2780118.346193623</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="n">
-        <v>0</v>
+        <v>10.27</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7764,18 +7474,21 @@
         <v>-2790788.272793623</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7800,18 +7513,21 @@
         <v>-2790788.272793623</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="n">
-        <v>0</v>
+        <v>10.36</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7836,18 +7552,21 @@
         <v>-2782128.093693623</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="n">
-        <v>0</v>
+        <v>10.36</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7872,18 +7591,21 @@
         <v>-2782128.093693623</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="n">
-        <v>0</v>
+        <v>10.48</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7908,18 +7630,21 @@
         <v>-2744128.093693623</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="n">
-        <v>0</v>
+        <v>10.48</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7944,18 +7669,21 @@
         <v>-2792803.273993623</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="n">
-        <v>0</v>
+        <v>10.49</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7982,16 +7710,17 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8016,18 +7745,21 @@
         <v>-2750675.109593623</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="n">
-        <v>0</v>
+        <v>10.46</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8054,16 +7786,17 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8088,18 +7821,21 @@
         <v>-2750675.109593623</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="n">
-        <v>0</v>
+        <v>10.47</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8124,18 +7860,21 @@
         <v>-2750790.576193623</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="n">
-        <v>0</v>
+        <v>10.47</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8160,18 +7899,21 @@
         <v>-2586848.126400309</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="n">
-        <v>0</v>
+        <v>10.36</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8198,16 +7940,17 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8232,18 +7975,21 @@
         <v>-2581945.577600309</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="n">
-        <v>0</v>
+        <v>10.35</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8270,16 +8016,17 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8304,18 +8051,21 @@
         <v>-2581995.577200309</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="n">
-        <v>0</v>
+        <v>10.35</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8340,18 +8090,21 @@
         <v>-2581947.477200309</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="n">
-        <v>0</v>
+        <v>10.35</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8376,18 +8129,21 @@
         <v>-2775948.000500309</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="n">
-        <v>0</v>
+        <v>10.47</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8414,16 +8170,17 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8448,18 +8205,21 @@
         <v>-2774906.000500309</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="n">
-        <v>0</v>
+        <v>10.36</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8486,16 +8246,17 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8522,16 +8283,17 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8558,16 +8320,17 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8594,16 +8357,17 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8630,16 +8394,17 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8666,16 +8431,17 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8702,16 +8468,17 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8738,16 +8505,17 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8774,16 +8542,17 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8810,16 +8579,17 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8846,16 +8616,17 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8882,16 +8653,17 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8918,16 +8690,17 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8954,16 +8727,17 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8990,16 +8764,17 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9026,16 +8801,17 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9062,16 +8838,17 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9098,16 +8875,17 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9134,16 +8912,17 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9170,16 +8949,17 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9206,16 +8986,17 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9240,18 +9021,21 @@
         <v>-3272473.808500308</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="n">
-        <v>0</v>
+        <v>10.48</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9278,16 +9062,17 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9314,16 +9099,17 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9350,16 +9136,17 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9386,16 +9173,17 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9420,18 +9208,21 @@
         <v>-3247732.245900308</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="n">
-        <v>0</v>
+        <v>10.52</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9456,18 +9247,21 @@
         <v>-3255318.827900308</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="n">
-        <v>0</v>
+        <v>10.51</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9494,16 +9288,17 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9528,18 +9323,21 @@
         <v>-3255368.827900308</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="n">
-        <v>0</v>
+        <v>10.49</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9564,22 +9362,21 @@
         <v>-3255320.827900308</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I255" t="n">
-        <v>0</v>
-      </c>
-      <c r="J255" t="n">
         <v>10.36</v>
       </c>
-      <c r="K255" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9604,26 +9401,21 @@
         <v>-3245877.827900308</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I256" t="n">
-        <v>0</v>
-      </c>
-      <c r="J256" t="n">
         <v>10.5</v>
       </c>
-      <c r="K256" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9648,26 +9440,19 @@
         <v>-3285018.236500308</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
-      <c r="J257" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="K257" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9692,22 +9477,21 @@
         <v>-2853403.835500308</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I258" t="n">
-        <v>0</v>
-      </c>
-      <c r="J258" t="n">
         <v>10.36</v>
       </c>
-      <c r="K258" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9732,26 +9516,21 @@
         <v>-2853403.835500308</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I259" t="n">
-        <v>0</v>
-      </c>
-      <c r="J259" t="n">
         <v>10.5</v>
       </c>
-      <c r="K259" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9776,26 +9555,21 @@
         <v>-2853403.835500308</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I260" t="n">
-        <v>0</v>
-      </c>
-      <c r="J260" t="n">
         <v>10.5</v>
       </c>
-      <c r="K260" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9820,22 +9594,21 @@
         <v>-2853452.835500308</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I261" t="n">
-        <v>0</v>
-      </c>
-      <c r="J261" t="n">
         <v>10.5</v>
       </c>
-      <c r="K261" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9860,26 +9633,21 @@
         <v>-2853452.835500308</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I262" t="n">
-        <v>0</v>
-      </c>
-      <c r="J262" t="n">
         <v>10.47</v>
       </c>
-      <c r="K262" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9904,26 +9672,21 @@
         <v>-2853452.835500308</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I263" t="n">
-        <v>0</v>
-      </c>
-      <c r="J263" t="n">
         <v>10.47</v>
       </c>
-      <c r="K263" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9948,22 +9711,21 @@
         <v>-2893164.948100308</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I264" t="n">
-        <v>0</v>
-      </c>
-      <c r="J264" t="n">
         <v>10.47</v>
       </c>
-      <c r="K264" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9988,26 +9750,21 @@
         <v>-2893164.948100308</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I265" t="n">
-        <v>0</v>
-      </c>
-      <c r="J265" t="n">
         <v>10.36</v>
       </c>
-      <c r="K265" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10032,26 +9789,21 @@
         <v>-2859923.080400309</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I266" t="n">
-        <v>0</v>
-      </c>
-      <c r="J266" t="n">
         <v>10.36</v>
       </c>
-      <c r="K266" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10076,22 +9828,21 @@
         <v>-2859875.080600309</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I267" t="n">
-        <v>0</v>
-      </c>
-      <c r="J267" t="n">
         <v>10.42</v>
       </c>
-      <c r="K267" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10116,26 +9867,21 @@
         <v>-2859875.080600309</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I268" t="n">
-        <v>0</v>
-      </c>
-      <c r="J268" t="n">
         <v>10.46</v>
       </c>
-      <c r="K268" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10160,26 +9906,21 @@
         <v>-2859875.080600309</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I269" t="n">
-        <v>0</v>
-      </c>
-      <c r="J269" t="n">
         <v>10.46</v>
       </c>
-      <c r="K269" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10204,22 +9945,21 @@
         <v>-2859875.080600309</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I270" t="n">
-        <v>0</v>
-      </c>
-      <c r="J270" t="n">
         <v>10.46</v>
       </c>
-      <c r="K270" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10244,26 +9984,21 @@
         <v>-2963668.307500309</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I271" t="n">
-        <v>0</v>
-      </c>
-      <c r="J271" t="n">
         <v>10.46</v>
       </c>
-      <c r="K271" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10288,26 +10023,21 @@
         <v>-2963620.207500309</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I272" t="n">
-        <v>0</v>
-      </c>
-      <c r="J272" t="n">
         <v>10.42</v>
       </c>
-      <c r="K272" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10332,22 +10062,21 @@
         <v>-2970656.176400309</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I273" t="n">
-        <v>0</v>
-      </c>
-      <c r="J273" t="n">
         <v>10.46</v>
       </c>
-      <c r="K273" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10372,26 +10101,21 @@
         <v>-2964656.176400309</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I274" t="n">
-        <v>0</v>
-      </c>
-      <c r="J274" t="n">
         <v>10.44</v>
       </c>
-      <c r="K274" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10416,26 +10140,21 @@
         <v>-2888583.176400309</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I275" t="n">
-        <v>0</v>
-      </c>
-      <c r="J275" t="n">
         <v>10.47</v>
       </c>
-      <c r="K275" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10460,22 +10179,19 @@
         <v>-2899189.207500309</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
-      <c r="J276" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="K276" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10500,26 +10216,21 @@
         <v>-2851567.457300309</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I277" t="n">
-        <v>0</v>
-      </c>
-      <c r="J277" t="n">
         <v>10.44</v>
       </c>
-      <c r="K277" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10544,26 +10255,21 @@
         <v>-2851567.457300309</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I278" t="n">
-        <v>0</v>
-      </c>
-      <c r="J278" t="n">
         <v>10.5</v>
       </c>
-      <c r="K278" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10588,22 +10294,21 @@
         <v>-2851567.457300309</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I279" t="n">
-        <v>0</v>
-      </c>
-      <c r="J279" t="n">
         <v>10.5</v>
       </c>
-      <c r="K279" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10628,26 +10333,21 @@
         <v>-2850409.303400309</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I280" t="n">
-        <v>0</v>
-      </c>
-      <c r="J280" t="n">
         <v>10.5</v>
       </c>
-      <c r="K280" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10672,26 +10372,21 @@
         <v>-2850654.467700309</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I281" t="n">
-        <v>0</v>
-      </c>
-      <c r="J281" t="n">
         <v>10.58</v>
       </c>
-      <c r="K281" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10716,26 +10411,21 @@
         <v>-2917206.213800309</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I282" t="n">
-        <v>0</v>
-      </c>
-      <c r="J282" t="n">
         <v>10.5</v>
       </c>
-      <c r="K282" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10760,26 +10450,21 @@
         <v>-2917158.113800309</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I283" t="n">
-        <v>0</v>
-      </c>
-      <c r="J283" t="n">
         <v>10.38</v>
       </c>
-      <c r="K283" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10804,24 +10489,21 @@
         <v>-2917158.113800309</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10846,26 +10528,21 @@
         <v>-2908625.113800309</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I285" t="n">
-        <v>0</v>
-      </c>
-      <c r="J285" t="n">
         <v>10.5</v>
       </c>
-      <c r="K285" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10890,24 +10567,21 @@
         <v>-2813291.113800309</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="n">
-        <v>0</v>
+        <v>10.54</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10932,24 +10606,21 @@
         <v>-2813341.213800309</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="n">
-        <v>0</v>
+        <v>10.58</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10974,24 +10645,21 @@
         <v>-2813241.213800309</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="n">
-        <v>0</v>
+        <v>10.48</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11016,24 +10684,21 @@
         <v>-2813685.213800309</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="n">
-        <v>0</v>
+        <v>10.58</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11060,22 +10725,17 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11100,24 +10760,21 @@
         <v>-2688829.213800309</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="n">
-        <v>0</v>
+        <v>10.57</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11142,24 +10799,21 @@
         <v>-2688829.213800309</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="n">
-        <v>0</v>
+        <v>10.68</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11184,24 +10838,21 @@
         <v>-2688829.213800309</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="n">
-        <v>0</v>
+        <v>10.68</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11226,24 +10877,21 @@
         <v>-2688829.213800309</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="n">
-        <v>0</v>
+        <v>10.68</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11268,24 +10916,21 @@
         <v>-2688829.213800309</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="n">
-        <v>0</v>
+        <v>10.68</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11312,22 +10957,17 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11352,24 +10992,21 @@
         <v>-2688781.113800309</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="n">
-        <v>0</v>
+        <v>10.71</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11394,24 +11031,21 @@
         <v>-2650340.113800309</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="n">
-        <v>0</v>
+        <v>10.71</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11436,24 +11070,21 @@
         <v>-2650436.120700309</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="n">
-        <v>0</v>
+        <v>10.87</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11478,24 +11109,21 @@
         <v>-2650585.335000309</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="n">
-        <v>0</v>
+        <v>10.72</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11520,24 +11148,21 @@
         <v>-2648031.836900309</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="n">
-        <v>0</v>
+        <v>10.65</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11562,24 +11187,21 @@
         <v>-2626031.836900309</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="n">
-        <v>0</v>
+        <v>10.71</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11604,24 +11226,21 @@
         <v>-2646031.836900309</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="n">
-        <v>0</v>
+        <v>10.79</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11646,24 +11265,21 @@
         <v>-2645984.746900309</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="n">
-        <v>0</v>
+        <v>10.78</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11688,24 +11304,21 @@
         <v>-2645984.746900309</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="n">
-        <v>0</v>
+        <v>10.79</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11730,24 +11343,21 @@
         <v>-2620240.514500309</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="n">
-        <v>0</v>
+        <v>10.79</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11774,22 +11384,17 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11816,22 +11421,17 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11858,22 +11458,17 @@
       <c r="H309" t="n">
         <v>0</v>
       </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11900,22 +11495,17 @@
       <c r="H310" t="n">
         <v>0</v>
       </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11940,24 +11530,21 @@
         <v>-2496674.002600309</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="n">
-        <v>0</v>
+        <v>10.8</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11982,24 +11569,21 @@
         <v>-2417029.639700309</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="n">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -12024,24 +11608,21 @@
         <v>-2325277.842500309</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="n">
-        <v>0</v>
+        <v>10.92</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -12066,24 +11647,21 @@
         <v>-2464049.186200309</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="n">
-        <v>0</v>
+        <v>10.99</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -12108,24 +11686,21 @@
         <v>-2464049.186200309</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="n">
-        <v>0</v>
+        <v>10.71</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -12150,24 +11725,21 @@
         <v>-2456263.186200309</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="n">
-        <v>0</v>
+        <v>10.71</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12192,24 +11764,21 @@
         <v>-2421267.997300309</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="n">
-        <v>0</v>
+        <v>10.81</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -12234,24 +11803,21 @@
         <v>-2446127.083600309</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="n">
-        <v>0</v>
+        <v>10.89</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -12278,22 +11844,17 @@
       <c r="H319" t="n">
         <v>0</v>
       </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12320,22 +11881,17 @@
       <c r="H320" t="n">
         <v>0</v>
       </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12362,22 +11918,17 @@
       <c r="H321" t="n">
         <v>0</v>
       </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12404,22 +11955,17 @@
       <c r="H322" t="n">
         <v>0</v>
       </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12446,22 +11992,17 @@
       <c r="H323" t="n">
         <v>0</v>
       </c>
-      <c r="I323" t="n">
-        <v>0</v>
-      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12488,22 +12029,17 @@
       <c r="H324" t="n">
         <v>0</v>
       </c>
-      <c r="I324" t="n">
-        <v>0</v>
-      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12530,22 +12066,17 @@
       <c r="H325" t="n">
         <v>0</v>
       </c>
-      <c r="I325" t="n">
-        <v>0</v>
-      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12572,22 +12103,17 @@
       <c r="H326" t="n">
         <v>0</v>
       </c>
-      <c r="I326" t="n">
-        <v>0</v>
-      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -12614,22 +12140,17 @@
       <c r="H327" t="n">
         <v>0</v>
       </c>
-      <c r="I327" t="n">
-        <v>0</v>
-      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -12656,22 +12177,17 @@
       <c r="H328" t="n">
         <v>0</v>
       </c>
-      <c r="I328" t="n">
-        <v>0</v>
-      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M328" t="n">
-        <v>1</v>
-      </c>
-      <c r="N328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -12698,22 +12214,17 @@
       <c r="H329" t="n">
         <v>0</v>
       </c>
-      <c r="I329" t="n">
-        <v>0</v>
-      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M329" t="n">
-        <v>1</v>
-      </c>
-      <c r="N329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -12740,22 +12251,17 @@
       <c r="H330" t="n">
         <v>0</v>
       </c>
-      <c r="I330" t="n">
-        <v>0</v>
-      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M330" t="n">
-        <v>1</v>
-      </c>
-      <c r="N330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -12782,22 +12288,17 @@
       <c r="H331" t="n">
         <v>0</v>
       </c>
-      <c r="I331" t="n">
-        <v>0</v>
-      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M331" t="n">
-        <v>1</v>
-      </c>
-      <c r="N331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -12824,22 +12325,17 @@
       <c r="H332" t="n">
         <v>0</v>
       </c>
-      <c r="I332" t="n">
-        <v>0</v>
-      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M332" t="n">
-        <v>1</v>
-      </c>
-      <c r="N332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -12866,22 +12362,17 @@
       <c r="H333" t="n">
         <v>0</v>
       </c>
-      <c r="I333" t="n">
-        <v>0</v>
-      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M333" t="n">
-        <v>1</v>
-      </c>
-      <c r="N333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -12908,22 +12399,17 @@
       <c r="H334" t="n">
         <v>0</v>
       </c>
-      <c r="I334" t="n">
-        <v>0</v>
-      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M334" t="n">
-        <v>1</v>
-      </c>
-      <c r="N334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -12950,24 +12436,19 @@
       <c r="H335" t="n">
         <v>0</v>
       </c>
-      <c r="I335" t="n">
-        <v>0</v>
-      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M335" t="n">
-        <v>1</v>
-      </c>
-      <c r="N335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest OGO.xlsx
+++ b/BackTest/2020-01-15 BackTest OGO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>571640.3612415836</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>571640.3612415836</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>646580.9728415835</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>646630.9728415835</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>587676.0122415836</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>646481.0122415836</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>646481.0122415836</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>646481.0122415836</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>622664.1522415836</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>587855.7525415836</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>556520.3466415836</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>556520.3466415836</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>401073.4893415836</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>403073.4893415836</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>419180.4893415836</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>403315.2397415836</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>438559.2397415836</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>438559.2397415836</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>413404.5074415836</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>413529.5074415836</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>413529.5074415836</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>315795.8009415836</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>428578.0174415836</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>428690.0174415836</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>353492.0080415836</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>364505.1017415836</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>348175.5439415836</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>383222.5439415836</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>391559.5439415836</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>350748.9361415836</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>419266.3620415836</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>359952.0592415836</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>359887.0592415836</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>394011.9190499022</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>393661.9190499022</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>393511.9190499022</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>394058.2721499022</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-344563.5173368335</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-333091.5173368335</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-333041.5173368335</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-333041.5173368335</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4873,17 +4873,11 @@
         <v>-2478262.565964818</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="n">
-        <v>10.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4912,17 +4906,11 @@
         <v>-2478312.565964818</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
-      </c>
-      <c r="I137" t="n">
-        <v>10.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4955,11 +4943,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4992,11 +4976,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5029,11 +5009,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5066,11 +5042,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5103,11 +5075,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5140,11 +5108,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5177,11 +5141,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5214,11 +5174,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5251,11 +5207,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5284,17 +5236,11 @@
         <v>-2369993.497564818</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
-      </c>
-      <c r="I147" t="n">
-        <v>10.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5323,17 +5269,11 @@
         <v>-2355444.497564818</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
-      </c>
-      <c r="I148" t="n">
-        <v>10.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5366,11 +5306,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5403,11 +5339,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5440,11 +5372,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5477,11 +5405,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5514,11 +5438,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5551,11 +5471,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5588,11 +5504,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5625,11 +5537,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5662,11 +5570,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5699,11 +5603,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5736,11 +5636,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5773,11 +5669,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5810,11 +5702,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5847,11 +5735,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5884,11 +5768,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5921,11 +5801,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5958,11 +5834,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5995,11 +5867,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6032,11 +5900,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6069,11 +5933,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6106,11 +5966,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6143,11 +5999,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6180,11 +6032,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6217,11 +6065,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6254,11 +6098,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6287,17 +6127,11 @@
         <v>-2669202.184694724</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
-      </c>
-      <c r="I174" t="n">
-        <v>10.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6330,11 +6164,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6367,11 +6197,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6404,11 +6230,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6437,17 +6259,11 @@
         <v>-2528846.835594724</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
-      </c>
-      <c r="I178" t="n">
-        <v>10.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6476,17 +6292,11 @@
         <v>-2527846.835594724</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
-      </c>
-      <c r="I179" t="n">
-        <v>10.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6515,17 +6325,11 @@
         <v>-2537740.572094724</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
-      </c>
-      <c r="I180" t="n">
-        <v>10.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6558,11 +6362,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6595,11 +6395,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6632,11 +6428,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6665,17 +6457,11 @@
         <v>-2537361.705094724</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
-      </c>
-      <c r="I184" t="n">
-        <v>10.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6704,17 +6490,11 @@
         <v>-2311603.317090975</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="n">
-        <v>10.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6743,17 +6523,11 @@
         <v>-2311603.317090975</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
-      </c>
-      <c r="I186" t="n">
-        <v>10.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6782,17 +6556,11 @@
         <v>-2105579.960601418</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
-      </c>
-      <c r="I187" t="n">
-        <v>10.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6825,11 +6593,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6862,11 +6626,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6895,17 +6655,11 @@
         <v>-2115688.564966358</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
-      </c>
-      <c r="I190" t="n">
-        <v>10.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6938,11 +6692,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6975,11 +6725,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7008,17 +6754,11 @@
         <v>-2116854.884966358</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I193" t="n">
-        <v>10.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7047,17 +6787,11 @@
         <v>-2116854.884966358</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
-      </c>
-      <c r="I194" t="n">
-        <v>10.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7086,17 +6820,11 @@
         <v>-2173314.004966358</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
-      </c>
-      <c r="I195" t="n">
-        <v>10.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7125,17 +6853,11 @@
         <v>-2173314.004966358</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
-      </c>
-      <c r="I196" t="n">
-        <v>10.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7164,17 +6886,11 @@
         <v>-2173849.744966358</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
-      </c>
-      <c r="I197" t="n">
-        <v>10.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7203,17 +6919,11 @@
         <v>-2173849.744966358</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
-      </c>
-      <c r="I198" t="n">
-        <v>10.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7242,17 +6952,11 @@
         <v>-2162953.479793623</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
-      </c>
-      <c r="I199" t="n">
-        <v>10.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7281,17 +6985,11 @@
         <v>-2175994.610793623</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
-      </c>
-      <c r="I200" t="n">
-        <v>10.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7324,11 +7022,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7357,17 +7051,11 @@
         <v>-2175994.610793623</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
-      </c>
-      <c r="I202" t="n">
-        <v>10.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7396,17 +7084,11 @@
         <v>-2802231.661193623</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
-      </c>
-      <c r="I203" t="n">
-        <v>10.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7435,17 +7117,11 @@
         <v>-2780118.346193623</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
-      </c>
-      <c r="I204" t="n">
-        <v>10.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7474,17 +7150,11 @@
         <v>-2790788.272793623</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
-      </c>
-      <c r="I205" t="n">
-        <v>10.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7513,17 +7183,11 @@
         <v>-2790788.272793623</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
-      </c>
-      <c r="I206" t="n">
-        <v>10.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7552,7 +7216,7 @@
         <v>-2782128.093693623</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I207" t="n">
         <v>10.36</v>
@@ -7560,7 +7224,7 @@
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L207" t="n">
@@ -7591,7 +7255,7 @@
         <v>-2782128.093693623</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208" t="n">
         <v>10.48</v>
@@ -7630,7 +7294,7 @@
         <v>-2744128.093693623</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209" t="n">
         <v>10.48</v>
@@ -7669,7 +7333,7 @@
         <v>-2792803.273993623</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I210" t="n">
         <v>10.49</v>
@@ -7708,9 +7372,11 @@
         <v>-2765900.109593623</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>10.35</v>
+      </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
@@ -7745,7 +7411,7 @@
         <v>-2750675.109593623</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I212" t="n">
         <v>10.46</v>
@@ -7784,9 +7450,11 @@
         <v>-2750675.109593623</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>10.47</v>
+      </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
@@ -7821,7 +7489,7 @@
         <v>-2750675.109593623</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I214" t="n">
         <v>10.47</v>
@@ -7860,7 +7528,7 @@
         <v>-2750790.576193623</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I215" t="n">
         <v>10.47</v>
@@ -7899,7 +7567,7 @@
         <v>-2586848.126400309</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I216" t="n">
         <v>10.36</v>
@@ -7938,9 +7606,11 @@
         <v>-2587003.246400309</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>10.47</v>
+      </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
@@ -7975,7 +7645,7 @@
         <v>-2581945.577600309</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I218" t="n">
         <v>10.35</v>
@@ -8014,9 +7684,11 @@
         <v>-2581995.577200309</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>10.47</v>
+      </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
@@ -8051,7 +7723,7 @@
         <v>-2581995.577200309</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I220" t="n">
         <v>10.35</v>
@@ -8090,7 +7762,7 @@
         <v>-2581947.477200309</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I221" t="n">
         <v>10.35</v>
@@ -8129,7 +7801,7 @@
         <v>-2775948.000500309</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I222" t="n">
         <v>10.47</v>
@@ -8168,9 +7840,11 @@
         <v>-2774954.000500309</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>10.35</v>
+      </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
@@ -8205,7 +7879,7 @@
         <v>-2774906.000500309</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I224" t="n">
         <v>10.36</v>
@@ -8244,9 +7918,11 @@
         <v>-2774906.000500309</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>10.47</v>
+      </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
@@ -8281,9 +7957,11 @@
         <v>-2774857.900500309</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>10.47</v>
+      </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
@@ -8318,9 +7996,11 @@
         <v>-2793124.125400309</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>10.57</v>
+      </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
@@ -8355,9 +8035,11 @@
         <v>-2793295.992800308</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>10.54</v>
+      </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
@@ -8466,9 +8148,11 @@
         <v>-2793235.892800308</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>10.5</v>
+      </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
@@ -8503,9 +8187,11 @@
         <v>-2793235.892800308</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>10.53</v>
+      </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
@@ -8577,9 +8263,11 @@
         <v>-2802858.012500308</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>10.53</v>
+      </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
@@ -8614,9 +8302,11 @@
         <v>-2802858.012500308</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>10.4</v>
+      </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
@@ -8651,9 +8341,11 @@
         <v>-2684637.217400308</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>10.4</v>
+      </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
@@ -8688,9 +8380,11 @@
         <v>-2693696.411200308</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>10.52</v>
+      </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
@@ -8725,9 +8419,11 @@
         <v>-2693648.411200308</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>10.37</v>
+      </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
@@ -8762,9 +8458,11 @@
         <v>-2815858.808500308</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>10.51</v>
+      </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
@@ -8799,9 +8497,11 @@
         <v>-2815858.808500308</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>10.37</v>
+      </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
@@ -8836,9 +8536,11 @@
         <v>-2813742.808500308</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>10.37</v>
+      </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
@@ -8873,9 +8575,11 @@
         <v>-2827808.808500308</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>10.5</v>
+      </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
@@ -8910,9 +8614,11 @@
         <v>-2827808.808500308</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>10.48</v>
+      </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
@@ -8947,9 +8653,11 @@
         <v>-3327808.808500308</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>10.48</v>
+      </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
@@ -8984,9 +8692,11 @@
         <v>-3272473.808500308</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>10.35</v>
+      </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
@@ -9021,11 +8731,9 @@
         <v>-3272473.808500308</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
-      </c>
-      <c r="I246" t="n">
-        <v>10.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
@@ -9208,11 +8916,9 @@
         <v>-3247732.245900308</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
-      </c>
-      <c r="I251" t="n">
-        <v>10.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
@@ -9247,11 +8953,9 @@
         <v>-3255318.827900308</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
-      </c>
-      <c r="I252" t="n">
-        <v>10.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
@@ -9323,11 +9027,9 @@
         <v>-3255368.827900308</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
-      </c>
-      <c r="I254" t="n">
-        <v>10.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
@@ -9362,7 +9064,7 @@
         <v>-3255320.827900308</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I255" t="n">
         <v>10.36</v>
@@ -9401,7 +9103,7 @@
         <v>-3245877.827900308</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I256" t="n">
         <v>10.5</v>
@@ -9440,9 +9142,11 @@
         <v>-3285018.236500308</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>10.52</v>
+      </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
@@ -9477,7 +9181,7 @@
         <v>-2853403.835500308</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I258" t="n">
         <v>10.36</v>
@@ -9516,7 +9220,7 @@
         <v>-2853403.835500308</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I259" t="n">
         <v>10.5</v>
@@ -9555,11 +9259,9 @@
         <v>-2853403.835500308</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
-      </c>
-      <c r="I260" t="n">
-        <v>10.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
@@ -9594,7 +9296,7 @@
         <v>-2853452.835500308</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I261" t="n">
         <v>10.5</v>
@@ -9633,7 +9335,7 @@
         <v>-2853452.835500308</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I262" t="n">
         <v>10.47</v>
@@ -9672,7 +9374,7 @@
         <v>-2853452.835500308</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>10.47</v>
@@ -9711,7 +9413,7 @@
         <v>-2893164.948100308</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I264" t="n">
         <v>10.47</v>
@@ -9750,7 +9452,7 @@
         <v>-2893164.948100308</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I265" t="n">
         <v>10.36</v>
@@ -9789,7 +9491,7 @@
         <v>-2859923.080400309</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I266" t="n">
         <v>10.36</v>
@@ -9828,7 +9530,7 @@
         <v>-2859875.080600309</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I267" t="n">
         <v>10.42</v>
@@ -9867,7 +9569,7 @@
         <v>-2859875.080600309</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I268" t="n">
         <v>10.46</v>
@@ -9906,7 +9608,7 @@
         <v>-2859875.080600309</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I269" t="n">
         <v>10.46</v>
@@ -9945,7 +9647,7 @@
         <v>-2859875.080600309</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I270" t="n">
         <v>10.46</v>
@@ -9984,7 +9686,7 @@
         <v>-2963668.307500309</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>10.46</v>
@@ -10023,7 +9725,7 @@
         <v>-2963620.207500309</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>10.42</v>
@@ -10062,7 +9764,7 @@
         <v>-2970656.176400309</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I273" t="n">
         <v>10.46</v>
@@ -10101,7 +9803,7 @@
         <v>-2964656.176400309</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I274" t="n">
         <v>10.44</v>
@@ -10140,7 +9842,7 @@
         <v>-2888583.176400309</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I275" t="n">
         <v>10.47</v>
@@ -10179,9 +9881,11 @@
         <v>-2899189.207500309</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>10.5</v>
+      </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
@@ -10216,7 +9920,7 @@
         <v>-2851567.457300309</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I277" t="n">
         <v>10.44</v>
@@ -10255,7 +9959,7 @@
         <v>-2851567.457300309</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I278" t="n">
         <v>10.5</v>
@@ -10294,7 +9998,7 @@
         <v>-2851567.457300309</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I279" t="n">
         <v>10.5</v>
@@ -10333,11 +10037,9 @@
         <v>-2850409.303400309</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
-      </c>
-      <c r="I280" t="n">
-        <v>10.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
@@ -10372,7 +10074,7 @@
         <v>-2850654.467700309</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I281" t="n">
         <v>10.58</v>
@@ -10411,7 +10113,7 @@
         <v>-2917206.213800309</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I282" t="n">
         <v>10.5</v>
@@ -10450,7 +10152,7 @@
         <v>-2917158.113800309</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I283" t="n">
         <v>10.38</v>
@@ -10489,11 +10191,9 @@
         <v>-2917158.113800309</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
-      </c>
-      <c r="I284" t="n">
-        <v>10.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
@@ -10528,7 +10228,7 @@
         <v>-2908625.113800309</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I285" t="n">
         <v>10.5</v>
@@ -10567,11 +10267,9 @@
         <v>-2813291.113800309</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
-      </c>
-      <c r="I286" t="n">
-        <v>10.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
@@ -10606,11 +10304,9 @@
         <v>-2813341.213800309</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
-      </c>
-      <c r="I287" t="n">
-        <v>10.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
@@ -10645,11 +10341,9 @@
         <v>-2813241.213800309</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
-      </c>
-      <c r="I288" t="n">
-        <v>10.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
@@ -10684,11 +10378,9 @@
         <v>-2813685.213800309</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
-      </c>
-      <c r="I289" t="n">
-        <v>10.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
@@ -10760,11 +10452,9 @@
         <v>-2688829.213800309</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
-      </c>
-      <c r="I291" t="n">
-        <v>10.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
@@ -10799,11 +10489,9 @@
         <v>-2688829.213800309</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
-      </c>
-      <c r="I292" t="n">
-        <v>10.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
@@ -10838,11 +10526,9 @@
         <v>-2688829.213800309</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
-      </c>
-      <c r="I293" t="n">
-        <v>10.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
@@ -10877,11 +10563,9 @@
         <v>-2688829.213800309</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
-      </c>
-      <c r="I294" t="n">
-        <v>10.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
@@ -10916,11 +10600,9 @@
         <v>-2688829.213800309</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
-      </c>
-      <c r="I295" t="n">
-        <v>10.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
@@ -10992,11 +10674,9 @@
         <v>-2688781.113800309</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
-      </c>
-      <c r="I297" t="n">
-        <v>10.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
@@ -11031,11 +10711,9 @@
         <v>-2650340.113800309</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
-      </c>
-      <c r="I298" t="n">
-        <v>10.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
@@ -11070,11 +10748,9 @@
         <v>-2650436.120700309</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
-      </c>
-      <c r="I299" t="n">
-        <v>10.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
@@ -11109,11 +10785,9 @@
         <v>-2650585.335000309</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
-      </c>
-      <c r="I300" t="n">
-        <v>10.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
@@ -11148,11 +10822,9 @@
         <v>-2648031.836900309</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
-      </c>
-      <c r="I301" t="n">
-        <v>10.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
@@ -11187,11 +10859,9 @@
         <v>-2626031.836900309</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
-      </c>
-      <c r="I302" t="n">
-        <v>10.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
@@ -11226,11 +10896,9 @@
         <v>-2646031.836900309</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
-      </c>
-      <c r="I303" t="n">
-        <v>10.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
@@ -11265,11 +10933,9 @@
         <v>-2645984.746900309</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
-      </c>
-      <c r="I304" t="n">
-        <v>10.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
@@ -11304,11 +10970,9 @@
         <v>-2645984.746900309</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
-      </c>
-      <c r="I305" t="n">
-        <v>10.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
@@ -11343,11 +11007,9 @@
         <v>-2620240.514500309</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
-      </c>
-      <c r="I306" t="n">
-        <v>10.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
@@ -11530,11 +11192,9 @@
         <v>-2496674.002600309</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
-      </c>
-      <c r="I311" t="n">
-        <v>10.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
@@ -11569,11 +11229,9 @@
         <v>-2417029.639700309</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
-      </c>
-      <c r="I312" t="n">
-        <v>10.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
@@ -11608,11 +11266,9 @@
         <v>-2325277.842500309</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
-      </c>
-      <c r="I313" t="n">
-        <v>10.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
@@ -11647,11 +11303,9 @@
         <v>-2464049.186200309</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
-      </c>
-      <c r="I314" t="n">
-        <v>10.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
@@ -11686,11 +11340,9 @@
         <v>-2464049.186200309</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
-      </c>
-      <c r="I315" t="n">
-        <v>10.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
@@ -11725,11 +11377,9 @@
         <v>-2456263.186200309</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
-      </c>
-      <c r="I316" t="n">
-        <v>10.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
@@ -11764,11 +11414,9 @@
         <v>-2421267.997300309</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
-      </c>
-      <c r="I317" t="n">
-        <v>10.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
@@ -11803,11 +11451,9 @@
         <v>-2446127.083600309</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
-      </c>
-      <c r="I318" t="n">
-        <v>10.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
@@ -12449,6 +12095,6 @@
       <c r="M335" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest OGO.xlsx
+++ b/BackTest/2020-01-15 BackTest OGO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>571640.3612415836</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>571640.3612415836</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>653228.9738415836</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>646580.9728415835</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>646630.9728415835</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>587676.0122415836</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>646481.0122415836</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>646481.0122415836</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>622664.1522415836</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>588073.7525415836</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>584307.1281415836</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>584357.1281415836</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>581408.3381415836</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>403073.4893415836</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>413529.5074415836</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>413453.0349415836</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>315795.8009415836</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>428578.0174415836</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>428690.0174415836</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>353492.0080415836</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>364505.1017415836</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>377559.5439415836</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>350748.9361415836</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>419266.3620415836</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>359952.0592415836</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>359887.0592415836</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-287734.7387368334</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-2107724.826466358</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-2163607.076366358</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-2115688.564966358</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-2115633.564966358</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-2116854.884966358</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-2116854.884966358</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-2116854.884966358</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-2173314.004966358</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7333,11 +7333,9 @@
         <v>-2792803.273993623</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>10.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
@@ -7801,11 +7799,9 @@
         <v>-2775948.000500309</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>10.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
@@ -7840,11 +7836,9 @@
         <v>-2774954.000500309</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>10.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
@@ -7918,11 +7912,9 @@
         <v>-2774906.000500309</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>10.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
@@ -7957,11 +7949,9 @@
         <v>-2774857.900500309</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>10.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
@@ -7996,11 +7986,9 @@
         <v>-2793124.125400309</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>10.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
@@ -8035,11 +8023,9 @@
         <v>-2793295.992800308</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>10.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
@@ -8148,11 +8134,9 @@
         <v>-2793235.892800308</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>10.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
@@ -8187,11 +8171,9 @@
         <v>-2793235.892800308</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>10.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
@@ -8263,11 +8245,9 @@
         <v>-2802858.012500308</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>10.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
@@ -8302,11 +8282,9 @@
         <v>-2802858.012500308</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>10.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
@@ -8341,11 +8319,9 @@
         <v>-2684637.217400308</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>10.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
@@ -8614,11 +8590,9 @@
         <v>-2827808.808500308</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>10.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
@@ -8653,11 +8627,9 @@
         <v>-3327808.808500308</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>10.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
@@ -8692,11 +8664,9 @@
         <v>-3272473.808500308</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>10.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
@@ -9064,11 +9034,9 @@
         <v>-3255320.827900308</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>10.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
@@ -9103,11 +9071,9 @@
         <v>-3245877.827900308</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>10.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
@@ -9142,11 +9108,9 @@
         <v>-3285018.236500308</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>10.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
@@ -9220,11 +9184,9 @@
         <v>-2853403.835500308</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>10.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
@@ -9296,11 +9258,9 @@
         <v>-2853452.835500308</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>10.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
@@ -9335,11 +9295,9 @@
         <v>-2853452.835500308</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>10.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
@@ -9374,11 +9332,9 @@
         <v>-2853452.835500308</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>10.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
@@ -9413,11 +9369,9 @@
         <v>-2893164.948100308</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>10.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
@@ -9491,11 +9445,9 @@
         <v>-2859923.080400309</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>10.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
@@ -9569,11 +9521,9 @@
         <v>-2859875.080600309</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>10.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
@@ -9647,11 +9597,9 @@
         <v>-2859875.080600309</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>10.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
@@ -10074,11 +10022,9 @@
         <v>-2850654.467700309</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>10.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
@@ -10113,11 +10059,9 @@
         <v>-2917206.213800309</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>10.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
@@ -10152,11 +10096,9 @@
         <v>-2917158.113800309</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>10.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
@@ -10228,11 +10170,9 @@
         <v>-2908625.113800309</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>10.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
@@ -11081,18 +11021,16 @@
         <v>-2504334.524900309</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
+      <c r="L308" t="inlineStr"/>
       <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
@@ -11118,15 +11056,11 @@
         <v>-2553448.364000309</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11155,15 +11089,11 @@
         <v>-2531546.498200309</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11192,15 +11122,11 @@
         <v>-2496674.002600309</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11229,15 +11155,11 @@
         <v>-2417029.639700309</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11266,15 +11188,11 @@
         <v>-2325277.842500309</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11303,15 +11221,11 @@
         <v>-2464049.186200309</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11340,15 +11254,11 @@
         <v>-2464049.186200309</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11377,15 +11287,11 @@
         <v>-2456263.186200309</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11414,15 +11320,11 @@
         <v>-2421267.997300309</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11451,15 +11353,11 @@
         <v>-2446127.083600309</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11488,15 +11386,11 @@
         <v>-2435604.446000309</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11525,15 +11419,11 @@
         <v>-2435604.446000309</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11562,15 +11452,11 @@
         <v>-2335604.446000309</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11603,11 +11489,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11640,11 +11522,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11677,11 +11555,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11714,11 +11588,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11751,11 +11621,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11788,11 +11654,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11825,11 +11687,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11862,11 +11720,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11899,11 +11753,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11936,11 +11786,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11973,11 +11819,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12010,11 +11852,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12047,11 +11885,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12080,21 +11914,17 @@
         <v>-2384306.544541645</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
       <c r="M335" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest OGO.xlsx
+++ b/BackTest/2020-01-15 BackTest OGO.xlsx
@@ -451,7 +451,7 @@
         <v>571640.3612415836</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>571640.3612415836</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>653228.9738415836</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>646580.9728415835</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>587676.0122415836</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>646481.0122415836</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>646481.0122415836</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>646481.0122415836</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>626531.0122415836</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>627831.0122415836</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>622664.1522415836</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>584357.1281415836</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>581408.3381415836</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>556520.3466415836</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>556520.3466415836</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>556520.3466415836</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>556474.3466415836</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>401073.4893415836</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>419180.4893415836</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>403315.2397415836</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>438559.2397415836</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>438559.2397415836</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>413529.5074415836</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>413529.5074415836</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>414455.7697415836</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>428578.0174415836</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>428690.0174415836</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>353492.0080415836</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>364505.1017415836</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>348175.5439415836</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>383222.5439415836</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>391559.5439415836</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>377559.5439415836</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-287734.7387368334</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-2107724.826466358</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-2163607.076366358</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-2115688.564966358</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-2115633.564966358</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-2116854.884966358</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-2116854.884966358</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-2116854.884966358</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-2173314.004966358</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7216,2591 +7216,2361 @@
         <v>-2782128.093693623</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="C208" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="D208" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="E208" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="F208" t="n">
+        <v>4759.0648</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-2782128.093693623</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="C209" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="D209" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="E209" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="F209" t="n">
+        <v>38000</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-2744128.093693623</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="C210" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="D210" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="E210" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="F210" t="n">
+        <v>48675.1803</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-2792803.273993623</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="C211" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="D211" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="E211" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="F211" t="n">
+        <v>26903.1644</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-2765900.109593623</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="C212" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="D212" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="E212" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="F212" t="n">
+        <v>15225</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-2750675.109593623</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="C213" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="D213" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="E213" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="F213" t="n">
+        <v>5762.1776504298</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-2750675.109593623</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="C214" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="D214" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="E214" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="F214" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-2750675.109593623</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
         <v>10.36</v>
       </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
+      <c r="C215" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="D215" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="E215" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="F215" t="n">
+        <v>115.4666</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-2750790.576193623</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="C216" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="D216" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="E216" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="F216" t="n">
+        <v>163942.4497933142</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-2586848.126400309</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="C217" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="D217" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="E217" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="F217" t="n">
+        <v>155.12</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-2587003.246400309</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="C218" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="D218" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="E218" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="F218" t="n">
+        <v>5057.6688</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-2581945.577600309</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="C219" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="D219" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="E219" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="F219" t="n">
+        <v>49.9996</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-2581995.577200309</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="C220" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="D220" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="E220" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="F220" t="n">
+        <v>12783.8587</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-2581995.577200309</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="C221" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="D221" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="E221" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="F221" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-2581947.477200309</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="C222" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="D222" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="E222" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="F222" t="n">
+        <v>194000.5233</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-2775948.000500309</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="C223" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="D223" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="E223" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="F223" t="n">
+        <v>994</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-2774954.000500309</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="C224" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="D224" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="E224" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="F224" t="n">
+        <v>48</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-2774906.000500309</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="C225" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="D225" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="E225" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="F225" t="n">
+        <v>21128.91285625597</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-2774906.000500309</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="C226" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="D226" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="E226" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="F226" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-2774857.900500309</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="C227" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="D227" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="E227" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="F227" t="n">
+        <v>18266.2249</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-2793124.125400309</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="C228" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="D228" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E228" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="F228" t="n">
+        <v>171.8674</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-2793295.992800308</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="C229" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="D229" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E229" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="F229" t="n">
+        <v>8888</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-2793295.992800308</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="C230" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="D230" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E230" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="F230" t="n">
+        <v>33241.8677</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-2793295.992800308</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="C231" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="D231" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="E231" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="F231" t="n">
+        <v>60.1</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-2793235.892800308</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="C232" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="D232" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="E232" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="F232" t="n">
+        <v>1207</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-2793235.892800308</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="C233" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="D233" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="E233" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="F233" t="n">
+        <v>851.9887</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-2793235.892800308</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="C234" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="D234" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="E234" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="F234" t="n">
+        <v>9622.119699999999</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-2802858.012500308</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="C235" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="D235" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E235" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="F235" t="n">
+        <v>103696.697</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-2802858.012500308</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="C236" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="D236" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E236" t="n">
+        <v>10.38</v>
+      </c>
+      <c r="F236" t="n">
+        <v>118220.7951</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-2684637.217400308</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="C237" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="D237" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="E237" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="F237" t="n">
+        <v>9059.193799999999</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-2693696.411200308</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>10.51</v>
+      </c>
+      <c r="C238" t="n">
+        <v>10.51</v>
+      </c>
+      <c r="D238" t="n">
+        <v>10.51</v>
+      </c>
+      <c r="E238" t="n">
+        <v>10.51</v>
+      </c>
+      <c r="F238" t="n">
+        <v>48</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-2693648.411200308</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="C239" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="D239" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="E239" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="F239" t="n">
+        <v>122210.3973</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-2815858.808500308</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="C240" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="D240" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="E240" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="F240" t="n">
+        <v>2163</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-2815858.808500308</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="C241" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="D241" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E241" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="F241" t="n">
+        <v>2116</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-2813742.808500308</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="C242" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="D242" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="E242" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="F242" t="n">
+        <v>14066</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-2827808.808500308</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="C243" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="D243" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="E243" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="F243" t="n">
+        <v>76723</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-2827808.808500308</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="C244" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="D244" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="E244" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="F244" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-3327808.808500308</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="C245" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="D245" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="E245" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="F245" t="n">
+        <v>55335</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-3272473.808500308</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="C246" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="D246" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="E246" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="F246" t="n">
+        <v>145617.7843</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-3272473.808500308</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="C247" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="D247" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="E247" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="F247" t="n">
+        <v>24793.5626</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-3247680.245900308</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="C248" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="D248" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="E248" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="F248" t="n">
+        <v>79952</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-3247680.245900308</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="C249" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="D249" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E249" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="F249" t="n">
+        <v>48</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-3247632.245900308</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="C250" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="D250" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E250" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="F250" t="n">
+        <v>48</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-3247632.245900308</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>10.51</v>
+      </c>
+      <c r="C251" t="n">
+        <v>10.51</v>
+      </c>
+      <c r="D251" t="n">
+        <v>10.51</v>
+      </c>
+      <c r="E251" t="n">
+        <v>10.51</v>
+      </c>
+      <c r="F251" t="n">
+        <v>100</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-3247732.245900308</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="C252" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="D252" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="E252" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="F252" t="n">
+        <v>7586.582</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-3255318.827900308</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="C253" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="D253" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="E253" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="F253" t="n">
+        <v>269</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-3255318.827900308</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="C254" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="D254" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="E254" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="F254" t="n">
+        <v>50</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-3255368.827900308</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="C255" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="D255" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E255" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="F255" t="n">
+        <v>48</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-3255320.827900308</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="C256" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="D256" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E256" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="F256" t="n">
+        <v>9443</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-3245877.827900308</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="C257" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="D257" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="E257" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="F257" t="n">
+        <v>39140.4086</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-3285018.236500308</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="C258" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="D258" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E258" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="F258" t="n">
+        <v>431614.401</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-2853403.835500308</v>
+      </c>
+      <c r="H258" t="n">
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="J258" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="C259" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="D259" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E259" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="F259" t="n">
+        <v>333.3333333333333</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-2853403.835500308</v>
+      </c>
+      <c r="H259" t="n">
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J259" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="C260" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="D260" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E260" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="F260" t="n">
+        <v>69527</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-2853403.835500308</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="C261" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="D261" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="E261" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="F261" t="n">
+        <v>49</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-2853452.835500308</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="C262" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="D262" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="E262" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="F262" t="n">
+        <v>101</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-2853452.835500308</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="C263" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="D263" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="E263" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="F263" t="n">
+        <v>52</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-2853452.835500308</v>
+      </c>
+      <c r="H263" t="n">
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="J263" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="C264" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="D264" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="E264" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="F264" t="n">
+        <v>39712.1126</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-2893164.948100308</v>
+      </c>
+      <c r="H264" t="n">
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="J264" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="C265" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="D265" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="E265" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="F265" t="n">
+        <v>101486.5097</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-2893164.948100308</v>
+      </c>
+      <c r="H265" t="n">
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="J265" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="C266" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="D266" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="E266" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="F266" t="n">
+        <v>33241.8677</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-2859923.080400309</v>
+      </c>
+      <c r="H266" t="n">
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="J266" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="C267" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="D267" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="E267" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="F267" t="n">
+        <v>47.9998</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-2859875.080600309</v>
+      </c>
+      <c r="H267" t="n">
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="J267" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="C268" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="D268" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="E268" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="F268" t="n">
+        <v>54438</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-2859875.080600309</v>
+      </c>
+      <c r="H268" t="n">
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="J268" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="C269" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="D269" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="E269" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="F269" t="n">
+        <v>201</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-2859875.080600309</v>
+      </c>
+      <c r="H269" t="n">
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="J269" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="C270" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="D270" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="E270" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="F270" t="n">
+        <v>59</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-2859875.080600309</v>
+      </c>
+      <c r="H270" t="n">
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="J270" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="C271" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="D271" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="E271" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="F271" t="n">
+        <v>103793.2269</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-2963668.307500309</v>
+      </c>
+      <c r="H271" t="n">
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="J271" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="C272" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="D272" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="E272" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="F272" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-2963620.207500309</v>
+      </c>
+      <c r="H272" t="n">
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="J272" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="C273" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="D273" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="E273" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="F273" t="n">
+        <v>7035.9689</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-2970656.176400309</v>
+      </c>
+      <c r="H273" t="n">
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="J273" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="C274" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="D274" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="E274" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="F274" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-2964656.176400309</v>
+      </c>
+      <c r="H274" t="n">
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="J274" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="C275" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="D275" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E275" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="F275" t="n">
+        <v>76073</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-2888583.176400309</v>
+      </c>
+      <c r="H275" t="n">
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="J275" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="K275" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="C208" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="D208" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="E208" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="F208" t="n">
-        <v>4759.0648</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-2782128.093693623</v>
-      </c>
-      <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>10.49</v>
-      </c>
-      <c r="C209" t="n">
-        <v>10.49</v>
-      </c>
-      <c r="D209" t="n">
-        <v>10.49</v>
-      </c>
-      <c r="E209" t="n">
-        <v>10.49</v>
-      </c>
-      <c r="F209" t="n">
-        <v>38000</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-2744128.093693623</v>
-      </c>
-      <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="C210" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="D210" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="E210" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="F210" t="n">
-        <v>48675.1803</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-2792803.273993623</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="C211" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="D211" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="E211" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="F211" t="n">
-        <v>26903.1644</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-2765900.109593623</v>
-      </c>
-      <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="C212" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="D212" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="E212" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="F212" t="n">
-        <v>15225</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-2750675.109593623</v>
-      </c>
-      <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="C213" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="D213" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="E213" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="F213" t="n">
-        <v>5762.1776504298</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-2750675.109593623</v>
-      </c>
-      <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="C214" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="D214" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="E214" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="F214" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-2750675.109593623</v>
-      </c>
-      <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="C215" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="D215" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="E215" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="F215" t="n">
-        <v>115.4666</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-2750790.576193623</v>
-      </c>
-      <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="C216" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="D216" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="E216" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="F216" t="n">
-        <v>163942.4497933142</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-2586848.126400309</v>
-      </c>
-      <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="C217" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="D217" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="E217" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="F217" t="n">
-        <v>155.12</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-2587003.246400309</v>
-      </c>
-      <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="C218" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="D218" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="E218" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="F218" t="n">
-        <v>5057.6688</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-2581945.577600309</v>
-      </c>
-      <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="C219" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="D219" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="E219" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="F219" t="n">
-        <v>49.9996</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-2581995.577200309</v>
-      </c>
-      <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="C220" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="D220" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="E220" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="F220" t="n">
-        <v>12783.8587</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-2581995.577200309</v>
-      </c>
-      <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="C221" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="D221" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="E221" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="F221" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-2581947.477200309</v>
-      </c>
-      <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>10.37</v>
-      </c>
-      <c r="C222" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="D222" t="n">
-        <v>10.37</v>
-      </c>
-      <c r="E222" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="F222" t="n">
-        <v>194000.5233</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-2775948.000500309</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="C223" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="D223" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="E223" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="F223" t="n">
-        <v>994</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-2774954.000500309</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="C224" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="D224" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="E224" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="F224" t="n">
-        <v>48</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-2774906.000500309</v>
-      </c>
-      <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="C225" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="D225" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="E225" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="F225" t="n">
-        <v>21128.91285625597</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-2774906.000500309</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>10.57</v>
-      </c>
-      <c r="C226" t="n">
-        <v>10.57</v>
-      </c>
-      <c r="D226" t="n">
-        <v>10.57</v>
-      </c>
-      <c r="E226" t="n">
-        <v>10.57</v>
-      </c>
-      <c r="F226" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-2774857.900500309</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="C227" t="n">
-        <v>10.54</v>
-      </c>
-      <c r="D227" t="n">
-        <v>10.54</v>
-      </c>
-      <c r="E227" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="F227" t="n">
-        <v>18266.2249</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-2793124.125400309</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="C228" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="D228" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="E228" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="F228" t="n">
-        <v>171.8674</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-2793295.992800308</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="C229" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="D229" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="E229" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="F229" t="n">
-        <v>8888</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-2793295.992800308</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="C230" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="D230" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="E230" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="F230" t="n">
-        <v>33241.8677</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-2793295.992800308</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>10.53</v>
-      </c>
-      <c r="C231" t="n">
-        <v>10.53</v>
-      </c>
-      <c r="D231" t="n">
-        <v>10.53</v>
-      </c>
-      <c r="E231" t="n">
-        <v>10.53</v>
-      </c>
-      <c r="F231" t="n">
-        <v>60.1</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-2793235.892800308</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>10.53</v>
-      </c>
-      <c r="C232" t="n">
-        <v>10.53</v>
-      </c>
-      <c r="D232" t="n">
-        <v>10.53</v>
-      </c>
-      <c r="E232" t="n">
-        <v>10.53</v>
-      </c>
-      <c r="F232" t="n">
-        <v>1207</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-2793235.892800308</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>10.53</v>
-      </c>
-      <c r="C233" t="n">
-        <v>10.53</v>
-      </c>
-      <c r="D233" t="n">
-        <v>10.53</v>
-      </c>
-      <c r="E233" t="n">
-        <v>10.53</v>
-      </c>
-      <c r="F233" t="n">
-        <v>851.9887</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-2793235.892800308</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>10.45</v>
-      </c>
-      <c r="C234" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="D234" t="n">
-        <v>10.45</v>
-      </c>
-      <c r="E234" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="F234" t="n">
-        <v>9622.119699999999</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-2802858.012500308</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="C235" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="D235" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="E235" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="F235" t="n">
-        <v>103696.697</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-2802858.012500308</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="C236" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="D236" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="E236" t="n">
-        <v>10.38</v>
-      </c>
-      <c r="F236" t="n">
-        <v>118220.7951</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-2684637.217400308</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>10.37</v>
-      </c>
-      <c r="C237" t="n">
-        <v>10.37</v>
-      </c>
-      <c r="D237" t="n">
-        <v>10.37</v>
-      </c>
-      <c r="E237" t="n">
-        <v>10.37</v>
-      </c>
-      <c r="F237" t="n">
-        <v>9059.193799999999</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-2693696.411200308</v>
-      </c>
-      <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>10.51</v>
-      </c>
-      <c r="C238" t="n">
-        <v>10.51</v>
-      </c>
-      <c r="D238" t="n">
-        <v>10.51</v>
-      </c>
-      <c r="E238" t="n">
-        <v>10.51</v>
-      </c>
-      <c r="F238" t="n">
-        <v>48</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-2693648.411200308</v>
-      </c>
-      <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>10.37</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>10.37</v>
-      </c>
-      <c r="C239" t="n">
-        <v>10.37</v>
-      </c>
-      <c r="D239" t="n">
-        <v>10.37</v>
-      </c>
-      <c r="E239" t="n">
-        <v>10.37</v>
-      </c>
-      <c r="F239" t="n">
-        <v>122210.3973</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-2815858.808500308</v>
-      </c>
-      <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>10.51</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>10.37</v>
-      </c>
-      <c r="C240" t="n">
-        <v>10.37</v>
-      </c>
-      <c r="D240" t="n">
-        <v>10.37</v>
-      </c>
-      <c r="E240" t="n">
-        <v>10.37</v>
-      </c>
-      <c r="F240" t="n">
-        <v>2163</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-2815858.808500308</v>
-      </c>
-      <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>10.37</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>10.37</v>
-      </c>
-      <c r="C241" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="D241" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="E241" t="n">
-        <v>10.37</v>
-      </c>
-      <c r="F241" t="n">
-        <v>2116</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-2813742.808500308</v>
-      </c>
-      <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>10.37</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="C242" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="D242" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="E242" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="F242" t="n">
-        <v>14066</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-2827808.808500308</v>
-      </c>
-      <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="C243" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="D243" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="E243" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="F243" t="n">
-        <v>76723</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-2827808.808500308</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="C244" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="D244" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="E244" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="F244" t="n">
-        <v>500000</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-3327808.808500308</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="C245" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="D245" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="E245" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="F245" t="n">
-        <v>55335</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-3272473.808500308</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>10.37</v>
-      </c>
-      <c r="C246" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="D246" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="E246" t="n">
-        <v>10.37</v>
-      </c>
-      <c r="F246" t="n">
-        <v>145617.7843</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-3272473.808500308</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="C247" t="n">
-        <v>10.49</v>
-      </c>
-      <c r="D247" t="n">
-        <v>10.49</v>
-      </c>
-      <c r="E247" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="F247" t="n">
-        <v>24793.5626</v>
-      </c>
-      <c r="G247" t="n">
-        <v>-3247680.245900308</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>10.49</v>
-      </c>
-      <c r="C248" t="n">
-        <v>10.49</v>
-      </c>
-      <c r="D248" t="n">
-        <v>10.49</v>
-      </c>
-      <c r="E248" t="n">
-        <v>10.49</v>
-      </c>
-      <c r="F248" t="n">
-        <v>79952</v>
-      </c>
-      <c r="G248" t="n">
-        <v>-3247680.245900308</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="C249" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="D249" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="E249" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="F249" t="n">
-        <v>48</v>
-      </c>
-      <c r="G249" t="n">
-        <v>-3247632.245900308</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="C250" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="D250" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="E250" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="F250" t="n">
-        <v>48</v>
-      </c>
-      <c r="G250" t="n">
-        <v>-3247632.245900308</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>10.51</v>
-      </c>
-      <c r="C251" t="n">
-        <v>10.51</v>
-      </c>
-      <c r="D251" t="n">
-        <v>10.51</v>
-      </c>
-      <c r="E251" t="n">
-        <v>10.51</v>
-      </c>
-      <c r="F251" t="n">
-        <v>100</v>
-      </c>
-      <c r="G251" t="n">
-        <v>-3247732.245900308</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>10.49</v>
-      </c>
-      <c r="C252" t="n">
-        <v>10.49</v>
-      </c>
-      <c r="D252" t="n">
-        <v>10.49</v>
-      </c>
-      <c r="E252" t="n">
-        <v>10.49</v>
-      </c>
-      <c r="F252" t="n">
-        <v>7586.582</v>
-      </c>
-      <c r="G252" t="n">
-        <v>-3255318.827900308</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>10.49</v>
-      </c>
-      <c r="C253" t="n">
-        <v>10.49</v>
-      </c>
-      <c r="D253" t="n">
-        <v>10.49</v>
-      </c>
-      <c r="E253" t="n">
-        <v>10.49</v>
-      </c>
-      <c r="F253" t="n">
-        <v>269</v>
-      </c>
-      <c r="G253" t="n">
-        <v>-3255318.827900308</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="C254" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="D254" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="E254" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="F254" t="n">
-        <v>50</v>
-      </c>
-      <c r="G254" t="n">
-        <v>-3255368.827900308</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>10.49</v>
-      </c>
-      <c r="C255" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="D255" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="E255" t="n">
-        <v>10.49</v>
-      </c>
-      <c r="F255" t="n">
-        <v>48</v>
-      </c>
-      <c r="G255" t="n">
-        <v>-3255320.827900308</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="C256" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="D256" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="E256" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="F256" t="n">
-        <v>9443</v>
-      </c>
-      <c r="G256" t="n">
-        <v>-3245877.827900308</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="C257" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="D257" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="E257" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="F257" t="n">
-        <v>39140.4086</v>
-      </c>
-      <c r="G257" t="n">
-        <v>-3285018.236500308</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>10.49</v>
-      </c>
-      <c r="C258" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="D258" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="E258" t="n">
-        <v>10.49</v>
-      </c>
-      <c r="F258" t="n">
-        <v>431614.401</v>
-      </c>
-      <c r="G258" t="n">
-        <v>-2853403.835500308</v>
-      </c>
-      <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="C259" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="D259" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="E259" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="F259" t="n">
-        <v>333.3333333333333</v>
-      </c>
-      <c r="G259" t="n">
-        <v>-2853403.835500308</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="C260" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="D260" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="E260" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="F260" t="n">
-        <v>69527</v>
-      </c>
-      <c r="G260" t="n">
-        <v>-2853403.835500308</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="C261" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="D261" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="E261" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="F261" t="n">
-        <v>49</v>
-      </c>
-      <c r="G261" t="n">
-        <v>-2853452.835500308</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="C262" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="D262" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="E262" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="F262" t="n">
-        <v>101</v>
-      </c>
-      <c r="G262" t="n">
-        <v>-2853452.835500308</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="C263" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="D263" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="E263" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="F263" t="n">
-        <v>52</v>
-      </c>
-      <c r="G263" t="n">
-        <v>-2853452.835500308</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="C264" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="D264" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="E264" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="F264" t="n">
-        <v>39712.1126</v>
-      </c>
-      <c r="G264" t="n">
-        <v>-2893164.948100308</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="C265" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="D265" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="E265" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="F265" t="n">
-        <v>101486.5097</v>
-      </c>
-      <c r="G265" t="n">
-        <v>-2893164.948100308</v>
-      </c>
-      <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="C266" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="D266" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="E266" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="F266" t="n">
-        <v>33241.8677</v>
-      </c>
-      <c r="G266" t="n">
-        <v>-2859923.080400309</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="C267" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="D267" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="E267" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="F267" t="n">
-        <v>47.9998</v>
-      </c>
-      <c r="G267" t="n">
-        <v>-2859875.080600309</v>
-      </c>
-      <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="C268" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="D268" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="E268" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="F268" t="n">
-        <v>54438</v>
-      </c>
-      <c r="G268" t="n">
-        <v>-2859875.080600309</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="C269" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="D269" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="E269" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="F269" t="n">
-        <v>201</v>
-      </c>
-      <c r="G269" t="n">
-        <v>-2859875.080600309</v>
-      </c>
-      <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="C270" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="D270" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="E270" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="F270" t="n">
-        <v>59</v>
-      </c>
-      <c r="G270" t="n">
-        <v>-2859875.080600309</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="C271" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="D271" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="E271" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="F271" t="n">
-        <v>103793.2269</v>
-      </c>
-      <c r="G271" t="n">
-        <v>-2963668.307500309</v>
-      </c>
-      <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="C272" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="D272" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="E272" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="F272" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="G272" t="n">
-        <v>-2963620.207500309</v>
-      </c>
-      <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>10.44</v>
-      </c>
-      <c r="C273" t="n">
-        <v>10.44</v>
-      </c>
-      <c r="D273" t="n">
-        <v>10.44</v>
-      </c>
-      <c r="E273" t="n">
-        <v>10.44</v>
-      </c>
-      <c r="F273" t="n">
-        <v>7035.9689</v>
-      </c>
-      <c r="G273" t="n">
-        <v>-2970656.176400309</v>
-      </c>
-      <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="C274" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="D274" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="E274" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="F274" t="n">
-        <v>6000</v>
-      </c>
-      <c r="G274" t="n">
-        <v>-2964656.176400309</v>
-      </c>
-      <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>10.44</v>
-      </c>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="C275" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="D275" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="E275" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="F275" t="n">
-        <v>76073</v>
-      </c>
-      <c r="G275" t="n">
-        <v>-2888583.176400309</v>
-      </c>
-      <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9834,7 +9604,9 @@
       <c r="I276" t="n">
         <v>10.5</v>
       </c>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>10.42</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9873,7 +9645,9 @@
       <c r="I277" t="n">
         <v>10.44</v>
       </c>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>10.42</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9912,7 +9686,9 @@
       <c r="I278" t="n">
         <v>10.5</v>
       </c>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>10.42</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9946,12 +9722,12 @@
         <v>-2851567.457300309</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="J279" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>10.42</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9988,7 +9764,9 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>10.42</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10025,7 +9803,9 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>10.42</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10062,7 +9842,9 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>10.42</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10099,7 +9881,9 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>10.42</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10136,7 +9920,9 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>10.42</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10170,10 +9956,14 @@
         <v>-2908625.113800309</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J285" t="n">
+        <v>10.42</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10210,7 +10000,9 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>10.42</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10247,7 +10039,9 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>10.42</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10281,10 +10075,14 @@
         <v>-2813241.213800309</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="J288" t="n">
+        <v>10.42</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10321,7 +10119,9 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>10.42</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10358,7 +10158,9 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>10.42</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10395,7 +10197,9 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>10.42</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10432,7 +10236,9 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>10.42</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10469,7 +10275,9 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>10.42</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10506,7 +10314,9 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>10.42</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10543,7 +10353,9 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>10.42</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10580,7 +10392,9 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>10.42</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10617,7 +10431,9 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>10.42</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10654,7 +10470,9 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>10.42</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10691,7 +10509,9 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>10.42</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10728,7 +10548,9 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>10.42</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10765,7 +10587,9 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>10.42</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10802,7 +10626,9 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>10.42</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10839,7 +10665,9 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>10.42</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10876,7 +10704,9 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>10.42</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10913,7 +10743,9 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>10.42</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10950,7 +10782,9 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>10.42</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10987,7 +10821,9 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>10.42</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11021,16 +10857,20 @@
         <v>-2504334.524900309</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>10.42</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
       <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
@@ -11056,11 +10896,17 @@
         <v>-2553448.364000309</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11089,11 +10935,17 @@
         <v>-2531546.498200309</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11122,11 +10974,17 @@
         <v>-2496674.002600309</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11155,11 +11013,17 @@
         <v>-2417029.639700309</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11188,11 +11052,17 @@
         <v>-2325277.842500309</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11221,11 +11091,17 @@
         <v>-2464049.186200309</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11254,11 +11130,17 @@
         <v>-2464049.186200309</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11287,11 +11169,17 @@
         <v>-2456263.186200309</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11320,11 +11208,17 @@
         <v>-2421267.997300309</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11353,11 +11247,17 @@
         <v>-2446127.083600309</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11386,11 +11286,17 @@
         <v>-2435604.446000309</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11419,11 +11325,17 @@
         <v>-2435604.446000309</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11452,11 +11364,17 @@
         <v>-2335604.446000309</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11488,8 +11406,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11521,8 +11445,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11554,8 +11484,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11587,8 +11523,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11620,8 +11562,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11653,8 +11601,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11686,8 +11640,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11719,8 +11679,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11752,8 +11718,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11785,8 +11757,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11818,8 +11796,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11851,8 +11835,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11884,8 +11874,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11914,11 +11910,17 @@
         <v>-2384306.544541645</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-15 BackTest OGO.xlsx
+++ b/BackTest/2020-01-15 BackTest OGO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M335"/>
+  <dimension ref="A1:L335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>185.0139</v>
       </c>
       <c r="G2" t="n">
-        <v>571640.3612415836</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>92.50700000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>571640.3612415836</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>37238.9781</v>
       </c>
       <c r="G4" t="n">
-        <v>534401.3831415836</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>118827.5907</v>
       </c>
       <c r="G5" t="n">
-        <v>653228.9738415836</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>550.001</v>
       </c>
       <c r="G6" t="n">
-        <v>652678.9728415835</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>6098</v>
       </c>
       <c r="G7" t="n">
-        <v>646580.9728415835</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>50</v>
       </c>
       <c r="G8" t="n">
-        <v>646630.9728415835</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>58954.9606</v>
       </c>
       <c r="G9" t="n">
-        <v>587676.0122415836</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>58805</v>
       </c>
       <c r="G10" t="n">
-        <v>646481.0122415836</v>
-      </c>
-      <c r="H10" t="n">
         <v>2</v>
       </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>18140</v>
       </c>
       <c r="G11" t="n">
-        <v>646481.0122415836</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>20000</v>
       </c>
       <c r="G12" t="n">
-        <v>646481.0122415836</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>70580.808</v>
       </c>
       <c r="G13" t="n">
-        <v>646481.0122415836</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>50</v>
       </c>
       <c r="G14" t="n">
-        <v>646531.0122415836</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>20000</v>
       </c>
       <c r="G15" t="n">
-        <v>626531.0122415836</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>1300</v>
       </c>
       <c r="G16" t="n">
-        <v>627831.0122415836</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>5166.86</v>
       </c>
       <c r="G17" t="n">
-        <v>622664.1522415836</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>34808.3997</v>
       </c>
       <c r="G18" t="n">
-        <v>587855.7525415836</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>218</v>
       </c>
       <c r="G19" t="n">
-        <v>588073.7525415836</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>3766.6244</v>
       </c>
       <c r="G20" t="n">
-        <v>584307.1281415836</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>50</v>
       </c>
       <c r="G21" t="n">
-        <v>584357.1281415836</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>2948.79</v>
       </c>
       <c r="G22" t="n">
-        <v>581408.3381415836</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>24312</v>
       </c>
       <c r="G23" t="n">
-        <v>605720.3381415836</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>49199.9915</v>
       </c>
       <c r="G24" t="n">
-        <v>556520.3466415836</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>9181.184499999999</v>
       </c>
       <c r="G25" t="n">
-        <v>556520.3466415836</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>28266.8283</v>
       </c>
       <c r="G26" t="n">
-        <v>556520.3466415836</v>
-      </c>
-      <c r="H26" t="n">
         <v>2</v>
       </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>46</v>
       </c>
       <c r="G27" t="n">
-        <v>556474.3466415836</v>
-      </c>
-      <c r="H27" t="n">
         <v>2</v>
       </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>155400.8573</v>
       </c>
       <c r="G28" t="n">
-        <v>401073.4893415836</v>
-      </c>
-      <c r="H28" t="n">
         <v>2</v>
       </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>2000</v>
       </c>
       <c r="G29" t="n">
-        <v>403073.4893415836</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>16107</v>
       </c>
       <c r="G30" t="n">
-        <v>419180.4893415836</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>15865.2496</v>
       </c>
       <c r="G31" t="n">
-        <v>403315.2397415836</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>35244</v>
       </c>
       <c r="G32" t="n">
-        <v>438559.2397415836</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>41912</v>
       </c>
       <c r="G33" t="n">
-        <v>438559.2397415836</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>25154.7323</v>
       </c>
       <c r="G34" t="n">
-        <v>413404.5074415836</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>125</v>
       </c>
       <c r="G35" t="n">
-        <v>413529.5074415836</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>68</v>
       </c>
       <c r="G36" t="n">
-        <v>413529.5074415836</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>76.4725</v>
       </c>
       <c r="G37" t="n">
-        <v>413453.0349415836</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>1002.7348</v>
       </c>
       <c r="G38" t="n">
-        <v>414455.7697415836</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>99.07599999999999</v>
       </c>
       <c r="G39" t="n">
-        <v>414554.8457415836</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>98759.0448</v>
       </c>
       <c r="G40" t="n">
-        <v>315795.8009415836</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>35172.6057</v>
       </c>
       <c r="G41" t="n">
-        <v>350968.4066415836</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>12716.2282</v>
       </c>
       <c r="G42" t="n">
-        <v>338252.1784415836</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>90275.83900000001</v>
       </c>
       <c r="G43" t="n">
-        <v>428528.0174415836</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>50</v>
       </c>
       <c r="G44" t="n">
-        <v>428578.0174415836</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>112</v>
       </c>
       <c r="G45" t="n">
-        <v>428690.0174415836</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>75198.0094</v>
       </c>
       <c r="G46" t="n">
-        <v>353492.0080415836</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>11013.0937</v>
       </c>
       <c r="G47" t="n">
-        <v>364505.1017415836</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>16329.5578</v>
       </c>
       <c r="G48" t="n">
-        <v>348175.5439415836</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>35047</v>
       </c>
       <c r="G49" t="n">
-        <v>383222.5439415836</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>8337</v>
       </c>
       <c r="G50" t="n">
-        <v>391559.5439415836</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>14000</v>
       </c>
       <c r="G51" t="n">
-        <v>377559.5439415836</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>3000</v>
       </c>
       <c r="G52" t="n">
-        <v>377559.5439415836</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>9443.3115</v>
       </c>
       <c r="G53" t="n">
-        <v>377559.5439415836</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>400</v>
       </c>
       <c r="G54" t="n">
-        <v>377559.5439415836</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>1000</v>
       </c>
       <c r="G55" t="n">
-        <v>377559.5439415836</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>13361.3344</v>
       </c>
       <c r="G56" t="n">
-        <v>377559.5439415836</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>26810.6078</v>
       </c>
       <c r="G57" t="n">
-        <v>350748.9361415836</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>180767.7056</v>
       </c>
       <c r="G58" t="n">
-        <v>350748.9361415836</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>68517.4259</v>
       </c>
       <c r="G59" t="n">
-        <v>419266.3620415836</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>57989.8906</v>
       </c>
       <c r="G60" t="n">
-        <v>361276.4714415836</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>437.9238</v>
       </c>
       <c r="G61" t="n">
-        <v>361714.3952415836</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>1762.336</v>
       </c>
       <c r="G62" t="n">
-        <v>359952.0592415836</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>65</v>
       </c>
       <c r="G63" t="n">
-        <v>359887.0592415836</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>18014</v>
       </c>
       <c r="G64" t="n">
-        <v>359887.0592415836</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>1766.1985</v>
       </c>
       <c r="G65" t="n">
-        <v>361653.2577415836</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>3565.7346</v>
       </c>
       <c r="G66" t="n">
-        <v>358087.5231415836</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>99845.2488</v>
       </c>
       <c r="G67" t="n">
-        <v>258242.2743415836</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>172737.9862083186</v>
       </c>
       <c r="G68" t="n">
-        <v>430980.2605499022</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>118419.2795</v>
       </c>
       <c r="G69" t="n">
-        <v>312560.9810499022</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>1000</v>
       </c>
       <c r="G70" t="n">
-        <v>313560.9810499022</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>46756.2546</v>
       </c>
       <c r="G71" t="n">
-        <v>313560.9810499022</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>113209.6116</v>
       </c>
       <c r="G72" t="n">
-        <v>200351.3694499022</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>13605.232</v>
       </c>
       <c r="G73" t="n">
-        <v>213956.6014499022</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>18274.1727</v>
       </c>
       <c r="G74" t="n">
-        <v>195682.4287499022</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>50</v>
       </c>
       <c r="G75" t="n">
-        <v>195732.4287499022</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>48.9358</v>
       </c>
       <c r="G76" t="n">
-        <v>195781.3645499022</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>115.5872</v>
       </c>
       <c r="G77" t="n">
-        <v>195896.9517499022</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>5000</v>
       </c>
       <c r="G78" t="n">
-        <v>190896.9517499022</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>10530.4004</v>
       </c>
       <c r="G79" t="n">
-        <v>190896.9517499022</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>122435.1325</v>
       </c>
       <c r="G80" t="n">
-        <v>68461.81924990221</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>135046.3372</v>
       </c>
       <c r="G81" t="n">
-        <v>-66584.5179500978</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>73518.8414</v>
       </c>
       <c r="G82" t="n">
-        <v>-66584.5179500978</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>48000</v>
       </c>
       <c r="G83" t="n">
-        <v>-66584.5179500978</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>29044</v>
       </c>
       <c r="G84" t="n">
-        <v>-95628.5179500978</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>32980</v>
       </c>
       <c r="G85" t="n">
-        <v>-95628.5179500978</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>990</v>
       </c>
       <c r="G86" t="n">
-        <v>-96618.5179500978</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>494979.6611</v>
       </c>
       <c r="G87" t="n">
-        <v>398361.1431499022</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>4249.2241</v>
       </c>
       <c r="G88" t="n">
-        <v>394111.9190499022</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>339</v>
       </c>
       <c r="G89" t="n">
-        <v>394111.9190499022</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>200</v>
       </c>
       <c r="G90" t="n">
-        <v>393911.9190499022</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>50</v>
       </c>
       <c r="G91" t="n">
-        <v>393961.9190499022</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>110</v>
       </c>
       <c r="G92" t="n">
-        <v>393961.9190499022</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>50</v>
       </c>
       <c r="G93" t="n">
-        <v>394011.9190499022</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>350</v>
       </c>
       <c r="G94" t="n">
-        <v>393661.9190499022</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>150</v>
       </c>
       <c r="G95" t="n">
-        <v>393511.9190499022</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>546.3531</v>
       </c>
       <c r="G96" t="n">
-        <v>394058.2721499022</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>738621.7894867357</v>
       </c>
       <c r="G97" t="n">
-        <v>-344563.5173368335</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>3296</v>
       </c>
       <c r="G98" t="n">
-        <v>-347859.5173368335</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>14768</v>
       </c>
       <c r="G99" t="n">
-        <v>-333091.5173368335</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>170</v>
       </c>
       <c r="G100" t="n">
-        <v>-333091.5173368335</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>50</v>
       </c>
       <c r="G101" t="n">
-        <v>-333041.5173368335</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>9194.18</v>
       </c>
       <c r="G102" t="n">
-        <v>-333041.5173368335</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>75874.74000000001</v>
       </c>
       <c r="G103" t="n">
-        <v>-257166.7773368335</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>38781.9614</v>
       </c>
       <c r="G104" t="n">
-        <v>-295948.7387368334</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>8214</v>
       </c>
       <c r="G105" t="n">
-        <v>-287734.7387368334</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>44</v>
       </c>
       <c r="G106" t="n">
-        <v>-287778.7387368334</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>16536.1928</v>
       </c>
       <c r="G107" t="n">
-        <v>-304314.9315368335</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>5886.7335</v>
       </c>
       <c r="G108" t="n">
-        <v>-298428.1980368335</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>556361.5164</v>
       </c>
       <c r="G109" t="n">
-        <v>-854789.7144368335</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>491</v>
       </c>
       <c r="G110" t="n">
-        <v>-854789.7144368335</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>3245.693472014925</v>
       </c>
       <c r="G111" t="n">
-        <v>-851544.0209648185</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>226</v>
       </c>
       <c r="G112" t="n">
-        <v>-851318.0209648185</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>3837.42</v>
       </c>
       <c r="G113" t="n">
-        <v>-855155.4409648186</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>10007.2906</v>
       </c>
       <c r="G114" t="n">
-        <v>-865162.7315648185</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>350</v>
       </c>
       <c r="G115" t="n">
-        <v>-864812.7315648185</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>50</v>
       </c>
       <c r="G116" t="n">
-        <v>-864862.7315648185</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>2462</v>
       </c>
       <c r="G117" t="n">
-        <v>-867324.7315648185</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>3100</v>
       </c>
       <c r="G118" t="n">
-        <v>-864224.7315648185</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>62242.3756</v>
       </c>
       <c r="G119" t="n">
-        <v>-801982.3559648185</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>200</v>
       </c>
       <c r="G120" t="n">
-        <v>-801782.3559648185</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>427.42</v>
       </c>
       <c r="G121" t="n">
-        <v>-801354.9359648185</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>160</v>
       </c>
       <c r="G122" t="n">
-        <v>-801194.9359648185</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>118</v>
       </c>
       <c r="G123" t="n">
-        <v>-801312.9359648185</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>49398.2001</v>
       </c>
       <c r="G124" t="n">
-        <v>-751914.7358648184</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>45402.58</v>
       </c>
       <c r="G125" t="n">
-        <v>-797317.3158648184</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>14231.001</v>
       </c>
       <c r="G126" t="n">
-        <v>-783086.3148648184</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>65917.38219999999</v>
       </c>
       <c r="G127" t="n">
-        <v>-849003.6970648183</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>100</v>
       </c>
       <c r="G128" t="n">
-        <v>-848903.6970648183</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>1479469.695</v>
       </c>
       <c r="G129" t="n">
-        <v>-2328373.392064818</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>3606.0112</v>
       </c>
       <c r="G130" t="n">
-        <v>-2324767.380864818</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>3591.2977</v>
       </c>
       <c r="G131" t="n">
-        <v>-2328358.678564818</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>38571.7169</v>
       </c>
       <c r="G132" t="n">
-        <v>-2366930.395464818</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>31558.6776</v>
       </c>
       <c r="G133" t="n">
-        <v>-2398489.073064818</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>180</v>
       </c>
       <c r="G134" t="n">
-        <v>-2398489.073064818</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>217394.2883</v>
       </c>
       <c r="G135" t="n">
-        <v>-2615883.361364818</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>137620.7954</v>
       </c>
       <c r="G136" t="n">
-        <v>-2478262.565964818</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>50</v>
       </c>
       <c r="G137" t="n">
-        <v>-2478312.565964818</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>120</v>
       </c>
       <c r="G138" t="n">
-        <v>-2478192.565964818</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>27892.511</v>
       </c>
       <c r="G139" t="n">
-        <v>-2506085.076964818</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>229911</v>
       </c>
       <c r="G140" t="n">
-        <v>-2276174.076964818</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>88374.40240000001</v>
       </c>
       <c r="G141" t="n">
-        <v>-2364548.479364818</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>8043.3115</v>
       </c>
       <c r="G142" t="n">
-        <v>-2372591.790864818</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>4722.6812</v>
       </c>
       <c r="G143" t="n">
-        <v>-2372591.790864818</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>16181.1837</v>
       </c>
       <c r="G144" t="n">
-        <v>-2356410.607164818</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>55</v>
       </c>
       <c r="G145" t="n">
-        <v>-2356355.607164818</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>1000</v>
       </c>
       <c r="G146" t="n">
-        <v>-2356355.607164818</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>13637.8904</v>
       </c>
       <c r="G147" t="n">
-        <v>-2369993.497564818</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>14549</v>
       </c>
       <c r="G148" t="n">
-        <v>-2355444.497564818</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>117402.5816</v>
       </c>
       <c r="G149" t="n">
-        <v>-2472847.079164818</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>5000</v>
       </c>
       <c r="G150" t="n">
-        <v>-2472847.079164818</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>8000</v>
       </c>
       <c r="G151" t="n">
-        <v>-2472847.079164818</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>2000</v>
       </c>
       <c r="G152" t="n">
-        <v>-2472847.079164818</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>2000</v>
       </c>
       <c r="G153" t="n">
-        <v>-2470847.079164818</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>4000</v>
       </c>
       <c r="G154" t="n">
-        <v>-2474847.079164818</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>165203.462</v>
       </c>
       <c r="G155" t="n">
-        <v>-2640050.541164818</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5063,15 @@
         <v>65</v>
       </c>
       <c r="G156" t="n">
-        <v>-2639985.541164818</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5093,15 @@
         <v>16214</v>
       </c>
       <c r="G157" t="n">
-        <v>-2623771.541164818</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5123,15 @@
         <v>23380</v>
       </c>
       <c r="G158" t="n">
-        <v>-2600391.541164818</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5153,15 @@
         <v>6000</v>
       </c>
       <c r="G159" t="n">
-        <v>-2600391.541164818</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5183,15 @@
         <v>89927</v>
       </c>
       <c r="G160" t="n">
-        <v>-2510464.541164818</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5213,15 @@
         <v>77777</v>
       </c>
       <c r="G161" t="n">
-        <v>-2588241.541164818</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5243,15 @@
         <v>13668</v>
       </c>
       <c r="G162" t="n">
-        <v>-2574573.541164818</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5273,15 @@
         <v>117354.5027</v>
       </c>
       <c r="G163" t="n">
-        <v>-2457219.038464818</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5303,15 @@
         <v>22306.2392</v>
       </c>
       <c r="G164" t="n">
-        <v>-2434912.799264817</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5333,15 @@
         <v>139888.75</v>
       </c>
       <c r="G165" t="n">
-        <v>-2574801.549264817</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5363,15 @@
         <v>2501</v>
       </c>
       <c r="G166" t="n">
-        <v>-2572300.549264817</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5393,15 @@
         <v>500</v>
       </c>
       <c r="G167" t="n">
-        <v>-2571800.549264817</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5423,15 @@
         <v>501</v>
       </c>
       <c r="G168" t="n">
-        <v>-2571800.549264817</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5453,15 @@
         <v>65</v>
       </c>
       <c r="G169" t="n">
-        <v>-2571800.549264817</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5483,15 @@
         <v>2113.677570093458</v>
       </c>
       <c r="G170" t="n">
-        <v>-2569686.871694724</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5513,15 @@
         <v>3208.22429906542</v>
       </c>
       <c r="G171" t="n">
-        <v>-2569686.871694724</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5543,15 @@
         <v>499.25</v>
       </c>
       <c r="G172" t="n">
-        <v>-2570186.121694724</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5573,15 @@
         <v>5322.6519</v>
       </c>
       <c r="G173" t="n">
-        <v>-2575508.773594724</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5603,15 @@
         <v>93693.4111</v>
       </c>
       <c r="G174" t="n">
-        <v>-2669202.184694724</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5633,15 @@
         <v>160582.5189</v>
       </c>
       <c r="G175" t="n">
-        <v>-2508619.665794724</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5663,15 @@
         <v>1241.611996251172</v>
       </c>
       <c r="G176" t="n">
-        <v>-2508619.665794724</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5693,15 @@
         <v>20227.1698</v>
       </c>
       <c r="G177" t="n">
-        <v>-2528846.835594724</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5723,15 @@
         <v>9348.2001</v>
       </c>
       <c r="G178" t="n">
-        <v>-2528846.835594724</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5753,15 @@
         <v>1000</v>
       </c>
       <c r="G179" t="n">
-        <v>-2527846.835594724</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5783,15 @@
         <v>9893.736500000001</v>
       </c>
       <c r="G180" t="n">
-        <v>-2537740.572094724</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5813,15 @@
         <v>231.867</v>
       </c>
       <c r="G181" t="n">
-        <v>-2537508.705094724</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5843,15 @@
         <v>47</v>
       </c>
       <c r="G182" t="n">
-        <v>-2537461.705094724</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5873,15 @@
         <v>11953</v>
       </c>
       <c r="G183" t="n">
-        <v>-2537461.705094724</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5903,15 @@
         <v>100</v>
       </c>
       <c r="G184" t="n">
-        <v>-2537361.705094724</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5933,15 @@
         <v>225758.3880037488</v>
       </c>
       <c r="G185" t="n">
-        <v>-2311603.317090975</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +5963,15 @@
         <v>21639.4686</v>
       </c>
       <c r="G186" t="n">
-        <v>-2311603.317090975</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +5993,15 @@
         <v>206023.3564895567</v>
       </c>
       <c r="G187" t="n">
-        <v>-2105579.960601418</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6023,15 @@
         <v>2144.86586493987</v>
       </c>
       <c r="G188" t="n">
-        <v>-2107724.826466358</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6053,15 @@
         <v>55882.2499</v>
       </c>
       <c r="G189" t="n">
-        <v>-2163607.076366358</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6083,15 @@
         <v>47918.5114</v>
       </c>
       <c r="G190" t="n">
-        <v>-2115688.564966358</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6113,15 @@
         <v>55</v>
       </c>
       <c r="G191" t="n">
-        <v>-2115633.564966358</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6143,15 @@
         <v>1221.32</v>
       </c>
       <c r="G192" t="n">
-        <v>-2116854.884966358</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6173,15 @@
         <v>4000</v>
       </c>
       <c r="G193" t="n">
-        <v>-2116854.884966358</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6203,15 @@
         <v>36829.1707</v>
       </c>
       <c r="G194" t="n">
-        <v>-2116854.884966358</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6233,15 @@
         <v>56459.12</v>
       </c>
       <c r="G195" t="n">
-        <v>-2173314.004966358</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6263,15 @@
         <v>23540.88</v>
       </c>
       <c r="G196" t="n">
-        <v>-2173314.004966358</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6293,15 @@
         <v>535.74</v>
       </c>
       <c r="G197" t="n">
-        <v>-2173849.744966358</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6323,15 @@
         <v>22461.0924</v>
       </c>
       <c r="G198" t="n">
-        <v>-2173849.744966358</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6353,15 @@
         <v>10896.26517273576</v>
       </c>
       <c r="G199" t="n">
-        <v>-2162953.479793623</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6383,15 @@
         <v>13041.131</v>
       </c>
       <c r="G200" t="n">
-        <v>-2175994.610793623</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6413,15 @@
         <v>40829.1707</v>
       </c>
       <c r="G201" t="n">
-        <v>-2175994.610793623</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6443,15 @@
         <v>12645.5629</v>
       </c>
       <c r="G202" t="n">
-        <v>-2175994.610793623</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6473,15 @@
         <v>626237.0503999999</v>
       </c>
       <c r="G203" t="n">
-        <v>-2802231.661193623</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6503,15 @@
         <v>22113.315</v>
       </c>
       <c r="G204" t="n">
-        <v>-2780118.346193623</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +6533,15 @@
         <v>10669.9266</v>
       </c>
       <c r="G205" t="n">
-        <v>-2790788.272793623</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +6563,15 @@
         <v>23077.1497</v>
       </c>
       <c r="G206" t="n">
-        <v>-2790788.272793623</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +6593,15 @@
         <v>8660.179099999999</v>
       </c>
       <c r="G207" t="n">
-        <v>-2782128.093693623</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +6623,15 @@
         <v>4759.0648</v>
       </c>
       <c r="G208" t="n">
-        <v>-2782128.093693623</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +6653,15 @@
         <v>38000</v>
       </c>
       <c r="G209" t="n">
-        <v>-2744128.093693623</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +6683,15 @@
         <v>48675.1803</v>
       </c>
       <c r="G210" t="n">
-        <v>-2792803.273993623</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +6713,15 @@
         <v>26903.1644</v>
       </c>
       <c r="G211" t="n">
-        <v>-2765900.109593623</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +6743,15 @@
         <v>15225</v>
       </c>
       <c r="G212" t="n">
-        <v>-2750675.109593623</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +6773,15 @@
         <v>5762.1776504298</v>
       </c>
       <c r="G213" t="n">
-        <v>-2750675.109593623</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +6803,15 @@
         <v>1000</v>
       </c>
       <c r="G214" t="n">
-        <v>-2750675.109593623</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +6833,15 @@
         <v>115.4666</v>
       </c>
       <c r="G215" t="n">
-        <v>-2750790.576193623</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +6863,15 @@
         <v>163942.4497933142</v>
       </c>
       <c r="G216" t="n">
-        <v>-2586848.126400309</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,18 +6893,15 @@
         <v>155.12</v>
       </c>
       <c r="G217" t="n">
-        <v>-2587003.246400309</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7576,18 +6923,15 @@
         <v>5057.6688</v>
       </c>
       <c r="G218" t="n">
-        <v>-2581945.577600309</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7609,18 +6953,15 @@
         <v>49.9996</v>
       </c>
       <c r="G219" t="n">
-        <v>-2581995.577200309</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7642,18 +6983,15 @@
         <v>12783.8587</v>
       </c>
       <c r="G220" t="n">
-        <v>-2581995.577200309</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7675,18 +7013,15 @@
         <v>48.1</v>
       </c>
       <c r="G221" t="n">
-        <v>-2581947.477200309</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7708,18 +7043,15 @@
         <v>194000.5233</v>
       </c>
       <c r="G222" t="n">
-        <v>-2775948.000500309</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7741,18 +7073,19 @@
         <v>994</v>
       </c>
       <c r="G223" t="n">
-        <v>-2774954.000500309</v>
+        <v>1</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
+        <v>10.35</v>
+      </c>
+      <c r="I223" t="n">
+        <v>10.35</v>
+      </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7774,18 +7107,21 @@
         <v>48</v>
       </c>
       <c r="G224" t="n">
-        <v>-2774906.000500309</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7807,18 +7143,21 @@
         <v>21128.91285625597</v>
       </c>
       <c r="G225" t="n">
-        <v>-2774906.000500309</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7840,18 +7179,15 @@
         <v>48.1</v>
       </c>
       <c r="G226" t="n">
-        <v>-2774857.900500309</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7873,18 +7209,15 @@
         <v>18266.2249</v>
       </c>
       <c r="G227" t="n">
-        <v>-2793124.125400309</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7906,18 +7239,15 @@
         <v>171.8674</v>
       </c>
       <c r="G228" t="n">
-        <v>-2793295.992800308</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7939,18 +7269,15 @@
         <v>8888</v>
       </c>
       <c r="G229" t="n">
-        <v>-2793295.992800308</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7972,18 +7299,15 @@
         <v>33241.8677</v>
       </c>
       <c r="G230" t="n">
-        <v>-2793295.992800308</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8005,18 +7329,15 @@
         <v>60.1</v>
       </c>
       <c r="G231" t="n">
-        <v>-2793235.892800308</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8038,18 +7359,15 @@
         <v>1207</v>
       </c>
       <c r="G232" t="n">
-        <v>-2793235.892800308</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8071,18 +7389,15 @@
         <v>851.9887</v>
       </c>
       <c r="G233" t="n">
-        <v>-2793235.892800308</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8104,18 +7419,15 @@
         <v>9622.119699999999</v>
       </c>
       <c r="G234" t="n">
-        <v>-2802858.012500308</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8137,18 +7449,15 @@
         <v>103696.697</v>
       </c>
       <c r="G235" t="n">
-        <v>-2802858.012500308</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8170,18 +7479,15 @@
         <v>118220.7951</v>
       </c>
       <c r="G236" t="n">
-        <v>-2684637.217400308</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8203,18 +7509,15 @@
         <v>9059.193799999999</v>
       </c>
       <c r="G237" t="n">
-        <v>-2693696.411200308</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8236,18 +7539,19 @@
         <v>48</v>
       </c>
       <c r="G238" t="n">
-        <v>-2693648.411200308</v>
+        <v>1</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
+        <v>10.37</v>
+      </c>
+      <c r="I238" t="n">
+        <v>10.37</v>
+      </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8269,18 +7573,21 @@
         <v>122210.3973</v>
       </c>
       <c r="G239" t="n">
-        <v>-2815858.808500308</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8302,18 +7609,21 @@
         <v>2163</v>
       </c>
       <c r="G240" t="n">
-        <v>-2815858.808500308</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8335,18 +7645,23 @@
         <v>2116</v>
       </c>
       <c r="G241" t="n">
-        <v>-2813742.808500308</v>
+        <v>1</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+        <v>10.37</v>
+      </c>
+      <c r="I241" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8368,18 +7683,23 @@
         <v>14066</v>
       </c>
       <c r="G242" t="n">
-        <v>-2827808.808500308</v>
+        <v>1</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+        <v>10.5</v>
+      </c>
+      <c r="I242" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8401,18 +7721,23 @@
         <v>76723</v>
       </c>
       <c r="G243" t="n">
-        <v>-2827808.808500308</v>
+        <v>1</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+        <v>10.48</v>
+      </c>
+      <c r="I243" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8434,18 +7759,23 @@
         <v>500000</v>
       </c>
       <c r="G244" t="n">
-        <v>-3327808.808500308</v>
+        <v>1</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+        <v>10.48</v>
+      </c>
+      <c r="I244" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8467,18 +7797,23 @@
         <v>55335</v>
       </c>
       <c r="G245" t="n">
-        <v>-3272473.808500308</v>
+        <v>1</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+        <v>10.35</v>
+      </c>
+      <c r="I245" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8500,18 +7835,23 @@
         <v>145617.7843</v>
       </c>
       <c r="G246" t="n">
-        <v>-3272473.808500308</v>
+        <v>1</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+        <v>10.48</v>
+      </c>
+      <c r="I246" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8533,18 +7873,23 @@
         <v>24793.5626</v>
       </c>
       <c r="G247" t="n">
-        <v>-3247680.245900308</v>
+        <v>1</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+        <v>10.48</v>
+      </c>
+      <c r="I247" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8566,18 +7911,21 @@
         <v>79952</v>
       </c>
       <c r="G248" t="n">
-        <v>-3247680.245900308</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8599,18 +7947,21 @@
         <v>48</v>
       </c>
       <c r="G249" t="n">
-        <v>-3247632.245900308</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8632,18 +7983,21 @@
         <v>48</v>
       </c>
       <c r="G250" t="n">
-        <v>-3247632.245900308</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8665,18 +8019,21 @@
         <v>100</v>
       </c>
       <c r="G251" t="n">
-        <v>-3247732.245900308</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8698,18 +8055,21 @@
         <v>7586.582</v>
       </c>
       <c r="G252" t="n">
-        <v>-3255318.827900308</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8731,18 +8091,21 @@
         <v>269</v>
       </c>
       <c r="G253" t="n">
-        <v>-3255318.827900308</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8764,18 +8127,21 @@
         <v>50</v>
       </c>
       <c r="G254" t="n">
-        <v>-3255368.827900308</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8797,18 +8163,21 @@
         <v>48</v>
       </c>
       <c r="G255" t="n">
-        <v>-3255320.827900308</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8830,18 +8199,21 @@
         <v>9443</v>
       </c>
       <c r="G256" t="n">
-        <v>-3245877.827900308</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8863,18 +8235,21 @@
         <v>39140.4086</v>
       </c>
       <c r="G257" t="n">
-        <v>-3285018.236500308</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -8896,22 +8271,21 @@
         <v>431614.401</v>
       </c>
       <c r="G258" t="n">
-        <v>-2853403.835500308</v>
-      </c>
-      <c r="H258" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="J258" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+        <v>10.37</v>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -8933,26 +8307,21 @@
         <v>333.3333333333333</v>
       </c>
       <c r="G259" t="n">
-        <v>-2853403.835500308</v>
-      </c>
-      <c r="H259" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="J259" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="K259" t="inlineStr">
+        <v>10.37</v>
+      </c>
+      <c r="J259" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -8974,24 +8343,21 @@
         <v>69527</v>
       </c>
       <c r="G260" t="n">
-        <v>-2853403.835500308</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="K260" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="J260" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9013,18 +8379,21 @@
         <v>49</v>
       </c>
       <c r="G261" t="n">
-        <v>-2853452.835500308</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9046,18 +8415,21 @@
         <v>101</v>
       </c>
       <c r="G262" t="n">
-        <v>-2853452.835500308</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9079,22 +8451,21 @@
         <v>52</v>
       </c>
       <c r="G263" t="n">
-        <v>-2853452.835500308</v>
-      </c>
-      <c r="H263" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="J263" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+        <v>10.37</v>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9116,26 +8487,21 @@
         <v>39712.1126</v>
       </c>
       <c r="G264" t="n">
-        <v>-2893164.948100308</v>
-      </c>
-      <c r="H264" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="J264" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="K264" t="inlineStr">
+        <v>10.37</v>
+      </c>
+      <c r="J264" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9157,26 +8523,21 @@
         <v>101486.5097</v>
       </c>
       <c r="G265" t="n">
-        <v>-2893164.948100308</v>
-      </c>
-      <c r="H265" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="J265" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="K265" t="inlineStr">
+        <v>10.37</v>
+      </c>
+      <c r="J265" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9198,22 +8559,21 @@
         <v>33241.8677</v>
       </c>
       <c r="G266" t="n">
-        <v>-2859923.080400309</v>
-      </c>
-      <c r="H266" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="J266" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+        <v>10.37</v>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9235,26 +8595,21 @@
         <v>47.9998</v>
       </c>
       <c r="G267" t="n">
-        <v>-2859875.080600309</v>
-      </c>
-      <c r="H267" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="J267" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="K267" t="inlineStr">
+        <v>10.37</v>
+      </c>
+      <c r="J267" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9276,26 +8631,21 @@
         <v>54438</v>
       </c>
       <c r="G268" t="n">
-        <v>-2859875.080600309</v>
-      </c>
-      <c r="H268" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="J268" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="K268" t="inlineStr">
+        <v>10.37</v>
+      </c>
+      <c r="J268" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9317,22 +8667,21 @@
         <v>201</v>
       </c>
       <c r="G269" t="n">
-        <v>-2859875.080600309</v>
-      </c>
-      <c r="H269" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="J269" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+        <v>10.37</v>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9354,26 +8703,21 @@
         <v>59</v>
       </c>
       <c r="G270" t="n">
-        <v>-2859875.080600309</v>
-      </c>
-      <c r="H270" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="J270" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="K270" t="inlineStr">
+        <v>10.37</v>
+      </c>
+      <c r="J270" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9395,26 +8739,21 @@
         <v>103793.2269</v>
       </c>
       <c r="G271" t="n">
-        <v>-2963668.307500309</v>
-      </c>
-      <c r="H271" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="J271" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="K271" t="inlineStr">
+        <v>10.37</v>
+      </c>
+      <c r="J271" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9436,22 +8775,21 @@
         <v>48.1</v>
       </c>
       <c r="G272" t="n">
-        <v>-2963620.207500309</v>
-      </c>
-      <c r="H272" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="J272" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+        <v>10.37</v>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9473,26 +8811,21 @@
         <v>7035.9689</v>
       </c>
       <c r="G273" t="n">
-        <v>-2970656.176400309</v>
-      </c>
-      <c r="H273" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="J273" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K273" t="inlineStr">
+        <v>10.37</v>
+      </c>
+      <c r="J273" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9514,26 +8847,21 @@
         <v>6000</v>
       </c>
       <c r="G274" t="n">
-        <v>-2964656.176400309</v>
-      </c>
-      <c r="H274" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="n">
-        <v>10.44</v>
-      </c>
-      <c r="J274" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K274" t="inlineStr">
+        <v>10.37</v>
+      </c>
+      <c r="J274" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9555,26 +8883,21 @@
         <v>76073</v>
       </c>
       <c r="G275" t="n">
-        <v>-2888583.176400309</v>
-      </c>
-      <c r="H275" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="J275" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K275" t="inlineStr">
+        <v>10.37</v>
+      </c>
+      <c r="J275" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9596,26 +8919,21 @@
         <v>10606.0311</v>
       </c>
       <c r="G276" t="n">
-        <v>-2899189.207500309</v>
-      </c>
-      <c r="H276" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="J276" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K276" t="inlineStr">
+        <v>10.37</v>
+      </c>
+      <c r="J276" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9637,26 +8955,21 @@
         <v>47621.7502</v>
       </c>
       <c r="G277" t="n">
-        <v>-2851567.457300309</v>
-      </c>
-      <c r="H277" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="n">
-        <v>10.44</v>
-      </c>
-      <c r="J277" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K277" t="inlineStr">
+        <v>10.37</v>
+      </c>
+      <c r="J277" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9678,26 +8991,21 @@
         <v>25000</v>
       </c>
       <c r="G278" t="n">
-        <v>-2851567.457300309</v>
-      </c>
-      <c r="H278" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="J278" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K278" t="inlineStr">
+        <v>10.37</v>
+      </c>
+      <c r="J278" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9719,24 +9027,21 @@
         <v>346478.1986666667</v>
       </c>
       <c r="G279" t="n">
-        <v>-2851567.457300309</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K279" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
+      <c r="I279" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="J279" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9758,24 +9063,21 @@
         <v>1158.1539</v>
       </c>
       <c r="G280" t="n">
-        <v>-2850409.303400309</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K280" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
+      <c r="I280" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="J280" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -9797,24 +9099,21 @@
         <v>245.1643</v>
       </c>
       <c r="G281" t="n">
-        <v>-2850654.467700309</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K281" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
+      <c r="I281" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="J281" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -9836,24 +9135,21 @@
         <v>66551.7461</v>
       </c>
       <c r="G282" t="n">
-        <v>-2917206.213800309</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K282" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
+      <c r="I282" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="J282" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -9875,24 +9171,21 @@
         <v>48.1</v>
       </c>
       <c r="G283" t="n">
-        <v>-2917158.113800309</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K283" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
+      <c r="I283" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="J283" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -9914,24 +9207,21 @@
         <v>24328.8567</v>
       </c>
       <c r="G284" t="n">
-        <v>-2917158.113800309</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K284" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
+      <c r="I284" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="J284" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -9953,26 +9243,21 @@
         <v>8533</v>
       </c>
       <c r="G285" t="n">
-        <v>-2908625.113800309</v>
-      </c>
-      <c r="H285" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="J285" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K285" t="inlineStr">
+        <v>10.37</v>
+      </c>
+      <c r="J285" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -9994,24 +9279,21 @@
         <v>95334</v>
       </c>
       <c r="G286" t="n">
-        <v>-2813291.113800309</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K286" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
+      <c r="I286" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="J286" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10033,24 +9315,21 @@
         <v>50.1</v>
       </c>
       <c r="G287" t="n">
-        <v>-2813341.213800309</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K287" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
+      <c r="I287" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="J287" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10072,26 +9351,21 @@
         <v>100</v>
       </c>
       <c r="G288" t="n">
-        <v>-2813241.213800309</v>
-      </c>
-      <c r="H288" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="J288" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K288" t="inlineStr">
+        <v>10.37</v>
+      </c>
+      <c r="J288" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10113,24 +9387,21 @@
         <v>444</v>
       </c>
       <c r="G289" t="n">
-        <v>-2813685.213800309</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K289" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
+      <c r="I289" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="J289" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10152,24 +9423,21 @@
         <v>18715.1354</v>
       </c>
       <c r="G290" t="n">
-        <v>-2813685.213800309</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K290" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
+      <c r="I290" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="J290" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10191,24 +9459,21 @@
         <v>124856</v>
       </c>
       <c r="G291" t="n">
-        <v>-2688829.213800309</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K291" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
+      <c r="I291" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="J291" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10230,24 +9495,21 @@
         <v>44614</v>
       </c>
       <c r="G292" t="n">
-        <v>-2688829.213800309</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K292" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
+      <c r="I292" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="J292" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10269,24 +9531,21 @@
         <v>120</v>
       </c>
       <c r="G293" t="n">
-        <v>-2688829.213800309</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K293" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
+      <c r="I293" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="J293" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10308,24 +9567,21 @@
         <v>35222.048</v>
       </c>
       <c r="G294" t="n">
-        <v>-2688829.213800309</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K294" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
+      <c r="I294" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="J294" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10347,24 +9603,21 @@
         <v>7269.1276</v>
       </c>
       <c r="G295" t="n">
-        <v>-2688829.213800309</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K295" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
+      <c r="I295" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="J295" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10386,24 +9639,21 @@
         <v>48.1</v>
       </c>
       <c r="G296" t="n">
-        <v>-2688781.113800309</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K296" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
+      <c r="I296" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="J296" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10425,24 +9675,21 @@
         <v>2000</v>
       </c>
       <c r="G297" t="n">
-        <v>-2688781.113800309</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K297" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
+      <c r="I297" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="J297" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10464,24 +9711,21 @@
         <v>38441</v>
       </c>
       <c r="G298" t="n">
-        <v>-2650340.113800309</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K298" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
+      <c r="I298" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="J298" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10503,24 +9747,21 @@
         <v>96.0069</v>
       </c>
       <c r="G299" t="n">
-        <v>-2650436.120700309</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K299" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
+      <c r="I299" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="J299" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10542,24 +9783,21 @@
         <v>149.2143</v>
       </c>
       <c r="G300" t="n">
-        <v>-2650585.335000309</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K300" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
+      <c r="I300" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="J300" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>1.022000964320154</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10581,24 +9819,15 @@
         <v>2553.4981</v>
       </c>
       <c r="G301" t="n">
-        <v>-2648031.836900309</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10620,24 +9849,15 @@
         <v>22000</v>
       </c>
       <c r="G302" t="n">
-        <v>-2626031.836900309</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -10659,24 +9879,15 @@
         <v>20000</v>
       </c>
       <c r="G303" t="n">
-        <v>-2646031.836900309</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -10698,24 +9909,15 @@
         <v>47.09</v>
       </c>
       <c r="G304" t="n">
-        <v>-2645984.746900309</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -10737,24 +9939,15 @@
         <v>41270.523</v>
       </c>
       <c r="G305" t="n">
-        <v>-2645984.746900309</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -10776,24 +9969,15 @@
         <v>25744.2324</v>
       </c>
       <c r="G306" t="n">
-        <v>-2620240.514500309</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -10815,24 +9999,15 @@
         <v>10411.5079</v>
       </c>
       <c r="G307" t="n">
-        <v>-2630652.022400309</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -10854,24 +10029,15 @@
         <v>126317.4975</v>
       </c>
       <c r="G308" t="n">
-        <v>-2504334.524900309</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -10893,24 +10059,15 @@
         <v>49113.8391</v>
       </c>
       <c r="G309" t="n">
-        <v>-2553448.364000309</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -10932,24 +10089,15 @@
         <v>21901.8658</v>
       </c>
       <c r="G310" t="n">
-        <v>-2531546.498200309</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>1</v>
+      </c>
+      <c r="L310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -10971,24 +10119,15 @@
         <v>34872.4956</v>
       </c>
       <c r="G311" t="n">
-        <v>-2496674.002600309</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
+      <c r="L311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11010,24 +10149,15 @@
         <v>79644.36289999999</v>
       </c>
       <c r="G312" t="n">
-        <v>-2417029.639700309</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>1</v>
+      </c>
+      <c r="L312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11049,24 +10179,15 @@
         <v>91751.7972</v>
       </c>
       <c r="G313" t="n">
-        <v>-2325277.842500309</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -11088,24 +10209,15 @@
         <v>138771.3437</v>
       </c>
       <c r="G314" t="n">
-        <v>-2464049.186200309</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>1</v>
+      </c>
+      <c r="L314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -11127,24 +10239,15 @@
         <v>60000</v>
       </c>
       <c r="G315" t="n">
-        <v>-2464049.186200309</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>1</v>
+      </c>
+      <c r="L315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -11166,24 +10269,15 @@
         <v>7786</v>
       </c>
       <c r="G316" t="n">
-        <v>-2456263.186200309</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>1</v>
+      </c>
+      <c r="L316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -11205,24 +10299,15 @@
         <v>34995.1889</v>
       </c>
       <c r="G317" t="n">
-        <v>-2421267.997300309</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>1</v>
+      </c>
+      <c r="L317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -11244,24 +10329,15 @@
         <v>24859.0863</v>
       </c>
       <c r="G318" t="n">
-        <v>-2446127.083600309</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>1</v>
+      </c>
+      <c r="L318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -11283,24 +10359,15 @@
         <v>10522.6376</v>
       </c>
       <c r="G319" t="n">
-        <v>-2435604.446000309</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>1</v>
+      </c>
+      <c r="L319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -11322,24 +10389,15 @@
         <v>18665.0225</v>
       </c>
       <c r="G320" t="n">
-        <v>-2435604.446000309</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>1</v>
+      </c>
+      <c r="L320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -11361,24 +10419,15 @@
         <v>100000</v>
       </c>
       <c r="G321" t="n">
-        <v>-2335604.446000309</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>1</v>
+      </c>
+      <c r="L321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -11400,24 +10449,15 @@
         <v>265.4762</v>
       </c>
       <c r="G322" t="n">
-        <v>-2335869.922200309</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>1</v>
+      </c>
+      <c r="L322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -11439,24 +10479,15 @@
         <v>7583.4965</v>
       </c>
       <c r="G323" t="n">
-        <v>-2328286.425700309</v>
-      </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>1</v>
+      </c>
+      <c r="L323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -11478,24 +10509,15 @@
         <v>75247.53364133574</v>
       </c>
       <c r="G324" t="n">
-        <v>-2403533.959341645</v>
-      </c>
-      <c r="H324" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>1</v>
+      </c>
+      <c r="L324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -11517,24 +10539,15 @@
         <v>46</v>
       </c>
       <c r="G325" t="n">
-        <v>-2403487.959341645</v>
-      </c>
-      <c r="H325" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>1</v>
+      </c>
+      <c r="L325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -11556,24 +10569,15 @@
         <v>3619.47</v>
       </c>
       <c r="G326" t="n">
-        <v>-2407107.429341645</v>
-      </c>
-      <c r="H326" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>1</v>
+      </c>
+      <c r="L326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -11595,24 +10599,15 @@
         <v>110292.8976</v>
       </c>
       <c r="G327" t="n">
-        <v>-2407107.429341645</v>
-      </c>
-      <c r="H327" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>1</v>
+      </c>
+      <c r="L327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -11634,24 +10629,15 @@
         <v>21639.4686</v>
       </c>
       <c r="G328" t="n">
-        <v>-2428746.897941645</v>
-      </c>
-      <c r="H328" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>1</v>
+      </c>
+      <c r="L328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -11673,24 +10659,15 @@
         <v>46</v>
       </c>
       <c r="G329" t="n">
-        <v>-2428700.897941645</v>
-      </c>
-      <c r="H329" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>1</v>
+      </c>
+      <c r="L329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -11712,24 +10689,15 @@
         <v>40000</v>
       </c>
       <c r="G330" t="n">
-        <v>-2388700.897941645</v>
-      </c>
-      <c r="H330" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>1</v>
+      </c>
+      <c r="L330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -11751,24 +10719,15 @@
         <v>20000</v>
       </c>
       <c r="G331" t="n">
-        <v>-2368700.897941645</v>
-      </c>
-      <c r="H331" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L331" t="n">
-        <v>1</v>
-      </c>
-      <c r="M331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>1</v>
+      </c>
+      <c r="L331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -11790,24 +10749,15 @@
         <v>60000</v>
       </c>
       <c r="G332" t="n">
-        <v>-2428700.897941645</v>
-      </c>
-      <c r="H332" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>1</v>
+      </c>
+      <c r="L332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -11829,24 +10779,15 @@
         <v>44817.3359</v>
       </c>
       <c r="G333" t="n">
-        <v>-2428700.897941645</v>
-      </c>
-      <c r="H333" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L333" t="n">
-        <v>1</v>
-      </c>
-      <c r="M333" t="inlineStr"/>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>1</v>
+      </c>
+      <c r="L333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -11868,24 +10809,15 @@
         <v>62368.0534</v>
       </c>
       <c r="G334" t="n">
-        <v>-2366332.844541645</v>
-      </c>
-      <c r="H334" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L334" t="n">
-        <v>1</v>
-      </c>
-      <c r="M334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>1</v>
+      </c>
+      <c r="L334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -11907,24 +10839,15 @@
         <v>17973.7</v>
       </c>
       <c r="G335" t="n">
-        <v>-2384306.544541645</v>
-      </c>
-      <c r="H335" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L335" t="n">
-        <v>1</v>
-      </c>
-      <c r="M335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>1</v>
+      </c>
+      <c r="L335" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
